--- a/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="165">
   <si>
     <t>part</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -499,9 +499,6 @@
     <t>SO4</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>K-index</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -511,6 +508,30 @@
   </si>
   <si>
     <t>M-index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_Ca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_SiO2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_Ca</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_SiO2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,9 +664,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -927,13 +951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L136"/>
+      <selection activeCell="Y50" sqref="Y50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="3" bestFit="1" customWidth="1"/>
@@ -945,7 +969,7 @@
     <col min="11" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -977,16 +1001,34 @@
         <v>155</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,17 +1059,41 @@
       <c r="J2" s="11">
         <v>8</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>D2-(0.87*F2)</f>
         <v>28.658232976457068</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f>(D2+E2+H2)/(G2+J2)</f>
         <v>2.7720735338320921</v>
       </c>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5">
+        <f>LOG(D2)</f>
+        <v>1.5977340592546694</v>
+      </c>
+      <c r="O2" s="5">
+        <f>LOG(E2)</f>
+        <v>-1.1533308228441848E-2</v>
+      </c>
+      <c r="P2" s="5">
+        <f>LOG(H2)</f>
+        <v>1.3743144927092472</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>STANDARDIZE(N2,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <v>0.84509646104188774</v>
+      </c>
+      <c r="R2" s="5">
+        <f>STANDARDIZE(O2,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <v>0.11525600540193563</v>
+      </c>
+      <c r="S2" s="5">
+        <f>STANDARDIZE(P2,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <v>0.40127497666727191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1058,17 +1124,41 @@
       <c r="J3" s="11">
         <v>5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K66" si="0">D3-(0.87*F3)</f>
         <v>6.8417387295646854</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <f t="shared" ref="L3:L66" si="1">(D3+E3+H3)/(G3+J3)</f>
         <v>1.2651703664439973</v>
       </c>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N66" si="2">LOG(D3)</f>
+        <v>0.9396448809167085</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O66" si="3">LOG(E3)</f>
+        <v>-0.74848667885416731</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P66" si="4">LOG(H3)</f>
+        <v>0.47513865643610764</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q66" si="5">STANDARDIZE(N3,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <v>-0.7602485488822035</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R66" si="6">STANDARDIZE(O3,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <v>-1.2000108114974242</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S66" si="7">STANDARDIZE(P3,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <v>-1.1637825665007893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1099,17 +1189,41 @@
       <c r="J4" s="11">
         <v>15</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>65.530722454003012</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <f t="shared" si="1"/>
         <v>4.2752793835029008</v>
       </c>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9303601289244894</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.22998556336914372</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5561524634546517</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="5"/>
+        <v>1.656505641882245</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="6"/>
+        <v>0.54630330110473468</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="7"/>
+        <v>0.71777245832671077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,17 +1254,41 @@
       <c r="J5" s="11">
         <v>6</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>29.334540871877159</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>4.545160980451648</v>
       </c>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5134696767006999</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="3"/>
+        <v>-6.2866860539020353E-2</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2684769899315518</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="5"/>
+        <v>0.63954163579922119</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="6"/>
+        <v>2.3639194028450213E-2</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="7"/>
+        <v>0.21705985945633027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1181,17 +1319,41 @@
       <c r="J6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f t="shared" si="0"/>
         <v>3.1581576807677312</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>3.366824419725357</v>
       </c>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50179790452413153</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.2821882967027323</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.38138370704607971</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.8283339722550276</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.9372624822080322</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.6545997479499714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1367,7 @@
         <v>0.93037290975103248</v>
       </c>
       <c r="E7" s="8">
-        <v>-6.1288530315310036E-4</v>
+        <v>6.1288530315310003E-4</v>
       </c>
       <c r="F7" s="8">
         <v>6.1966023516336947E-2</v>
@@ -1222,17 +1384,41 @@
       <c r="J7" s="11">
         <v>0</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f t="shared" si="0"/>
         <v>0.87646246929181937</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
-        <v>16.297153941133136</v>
-      </c>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16.316809865204114</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>-3.1342943719123113E-2</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
+        <v>-3.2126207928036052</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0627177145614437</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="5"/>
+        <v>-3.1288795950770951</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="6"/>
+        <v>-5.5978383561568226</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.8404934128626151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1263,17 +1449,41 @@
       <c r="J8" s="11">
         <v>118</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f t="shared" si="0"/>
         <v>18.371522325904049</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>0.3614914405082621</v>
       </c>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6487139712576495</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.80265782918152784</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.388481252888629</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="5"/>
+        <v>0.96945703409833217</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.2966919846879998</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.666953358012385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1304,17 +1514,41 @@
       <c r="J9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f t="shared" si="0"/>
         <v>3.0801553837041289</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>3.2036807360288626</v>
       </c>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49060901702123982</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.6456866547222107</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.61120052031715666</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.8556281829951786</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.586010893378857</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.0546066460974068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1345,17 +1579,41 @@
       <c r="J10" s="11">
         <v>0</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f t="shared" si="0"/>
         <v>2.6615581696554926</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>2.8874700617268774</v>
       </c>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42897122261261444</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.3170584981163502</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.32858713497574843</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.0059876311272951</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.9994965673564415</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5627048481553247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1386,17 +1644,41 @@
       <c r="J11" s="11">
         <v>8</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f t="shared" si="0"/>
         <v>10.110295334980037</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>1.2075021679069946</v>
       </c>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1124973294442972</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.3647606532837625</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.604927465246062</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.33859169016020529</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.51516136466620754</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.93787908238501594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1427,17 +1709,41 @@
       <c r="J12" s="11">
         <v>8</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="0"/>
         <v>10.045708872061617</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>1.2052754826027567</v>
       </c>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="5"/>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1096319195382744</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.36415794072188828</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.60559932154266527</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.34558158096138553</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.51408568218159068</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.93670968511864583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1468,17 +1774,41 @@
       <c r="J13" s="11">
         <v>157</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f t="shared" si="0"/>
         <v>60.037131549964464</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <f t="shared" si="1"/>
         <v>0.53085631686559476</v>
       </c>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8268810364472396</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3216726689094052</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.37130941526872407</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4040783870239135</v>
+      </c>
+      <c r="R13" s="5">
+        <f t="shared" si="6"/>
+        <v>2.4946759954786932</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.6370649725454451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1509,17 +1839,41 @@
       <c r="J14" s="11">
         <v>6</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f t="shared" si="0"/>
         <v>5.3636524330019304</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>3.9492857118860458</v>
       </c>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0355944008918876</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.6254749768307081E-2</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2532195876402208</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.52618895913817842</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.5464668586010322E-4</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.190503638101263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1550,17 +1904,41 @@
       <c r="J15" s="11">
         <v>24</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f t="shared" si="0"/>
         <v>31.643044897237708</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <f t="shared" si="1"/>
         <v>1.2835212369905611</v>
       </c>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5631344232075395</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.24041034925165583</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0581296951008157</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="5"/>
+        <v>0.76069398961129853</v>
+      </c>
+      <c r="R15" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.29322896692724637</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.14905943243246778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,17 +1969,41 @@
       <c r="J16" s="11">
         <v>9</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f t="shared" si="0"/>
         <v>13.575058552849736</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <f t="shared" si="1"/>
         <v>1.2729720998951886</v>
       </c>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2192263151310327</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.45235169264938074</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67280683644133288</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="5"/>
+        <v>-7.8236634604997898E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.67148819907298363</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.81973186620204819</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1632,17 +2034,41 @@
       <c r="J17" s="11">
         <v>11</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f t="shared" si="0"/>
         <v>16.013929525442926</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <f t="shared" si="1"/>
         <v>2.9817572441175937</v>
       </c>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4080867115907076</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.16752199849098068</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4165637077618771</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.38247006747835371</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="6"/>
+        <v>0.43482236157157039</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="7"/>
+        <v>0.47481170890988772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1673,17 +2099,41 @@
       <c r="J18" s="11">
         <v>14</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f t="shared" si="0"/>
         <v>64.595042535622611</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <f t="shared" si="1"/>
         <v>4.4608234894488108</v>
       </c>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.924898165591358</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.22812118282200813</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.544250567425753</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6431817097012362</v>
+      </c>
+      <c r="R18" s="5">
+        <f t="shared" si="6"/>
+        <v>0.54297587502126621</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.69705665235572856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1714,17 +2164,41 @@
       <c r="J19" s="11">
         <v>18</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f t="shared" si="0"/>
         <v>19.318470881757712</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <f t="shared" si="1"/>
         <v>2.4736421283432906</v>
       </c>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4679457404050493</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.38892191668770121</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5232415525241261</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="5"/>
+        <v>0.52849038868876674</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="6"/>
+        <v>0.82996264761318239</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="7"/>
+        <v>0.66048948059697432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1755,17 +2229,41 @@
       <c r="J20" s="11">
         <v>10</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <f t="shared" si="0"/>
         <v>13.727270689689112</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <f t="shared" si="1"/>
         <v>3.8754593898265428</v>
       </c>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3654568521668553</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.9478899216277676E-2</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5575454330915806</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="5"/>
+        <v>0.27847864146420065</v>
+      </c>
+      <c r="R20" s="5">
+        <f t="shared" si="6"/>
+        <v>4.7533163410508186E-2</v>
+      </c>
+      <c r="S20" s="5">
+        <f t="shared" si="7"/>
+        <v>0.72019698704482604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1796,17 +2294,41 @@
       <c r="J21" s="11">
         <v>11</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <f t="shared" si="0"/>
         <v>52.246911094931178</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <f t="shared" si="1"/>
         <v>3.5039784876781077</v>
       </c>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7563655593351468</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="3"/>
+        <v>0.19703455526852007</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3193613722593678</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2320626891055684</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" si="6"/>
+        <v>0.48749446832697824</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" si="7"/>
+        <v>0.3056265036865306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1837,17 +2359,41 @@
       <c r="J22" s="11">
         <v>6</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <f t="shared" si="0"/>
         <v>8.155214533846447</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <f t="shared" si="1"/>
         <v>1.2384992088919564</v>
       </c>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0061342397602244</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.45842337696395857</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.48119133359624044</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.59805417774535552</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.68232454940390352</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.1532475991855096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -1878,17 +2424,41 @@
       <c r="J23" s="11">
         <v>8</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <f t="shared" si="0"/>
         <v>20.089498416221012</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <f t="shared" si="1"/>
         <v>2.0563924551959065</v>
       </c>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4887572023005029</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.3543935865403516E-2</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3521453099571819</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="5"/>
+        <v>0.57925794056899882</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1116675669505434</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="7"/>
+        <v>0.36268847857386488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1919,17 +2489,41 @@
       <c r="J24" s="11">
         <v>8</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <f t="shared" si="0"/>
         <v>4.2393670687050502</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="13">
         <f t="shared" si="1"/>
         <v>1.1186517212740712</v>
       </c>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1642505429744734</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.508835285944999E-2</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3133458265804625</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.21234472269292126</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="6"/>
+        <v>0.10891119116790732</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29515616544872364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1960,17 +2554,41 @@
       <c r="J25" s="11">
         <v>0</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <f t="shared" si="0"/>
         <v>47.128223649201352</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <f t="shared" si="1"/>
         <v>1.5671181058271715</v>
       </c>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7326559518185989</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37342461670526833</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1176151590708612</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1742253908079778</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="6"/>
+        <v>0.80230406671664301</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.9360449792683823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2001,17 +2619,41 @@
       <c r="J26" s="11">
         <v>14</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <f t="shared" si="0"/>
         <v>65.103924577184543</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <f t="shared" si="1"/>
         <v>4.4692050806535724</v>
       </c>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5">
+        <f t="shared" si="2"/>
+        <v>1.9275678859433789</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="3"/>
+        <v>0.22296890627548041</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5542614155501955</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6496942347298862</v>
+      </c>
+      <c r="R26" s="5">
+        <f t="shared" si="6"/>
+        <v>0.53378042434114659</v>
+      </c>
+      <c r="S26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.71448100111893231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -2042,17 +2684,41 @@
       <c r="J27" s="11">
         <v>8</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="13">
         <f t="shared" si="0"/>
         <v>28.653300826604649</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="13">
         <f t="shared" si="1"/>
         <v>2.6787374792924594</v>
       </c>
-      <c r="M27" s="13"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5610000413049756</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.3502661286593375E-2</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1143467617638969</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="5"/>
+        <v>0.75548737104144637</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.1037606076569638E-2</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" si="7"/>
+        <v>-5.1211002029239325E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2083,17 +2749,41 @@
       <c r="J28" s="11">
         <v>5</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f t="shared" si="0"/>
         <v>9.0572753061899771</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <f t="shared" si="1"/>
         <v>2.9123266769706606</v>
       </c>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1374513351223867</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.24686058123712881</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3991057168739871</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.27771880269818761</v>
+      </c>
+      <c r="R28" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.30474092471175607</v>
+      </c>
+      <c r="S28" s="5">
+        <f t="shared" si="7"/>
+        <v>0.44442526031391832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -2124,17 +2814,41 @@
       <c r="J29" s="11">
         <v>60</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f t="shared" si="0"/>
         <v>35.982565294893696</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <f t="shared" si="1"/>
         <v>0.91155745047353365</v>
       </c>
-      <c r="M29" s="13"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5">
+        <f t="shared" si="2"/>
+        <v>1.8665378692008787</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="3"/>
+        <v>0.73542284178142125</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1208537374334013</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="5"/>
+        <v>1.5008174015313893</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4483751374207048</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.9885306938301127E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2165,17 +2879,41 @@
       <c r="J30" s="11">
         <v>0</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="13">
         <f t="shared" si="0"/>
         <v>96.849773639521416</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="13">
         <f t="shared" si="1"/>
         <v>1.6738753364822976</v>
       </c>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0389939901848351</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="3"/>
+        <v>0.71407261282813872</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.1650980558879873</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="5"/>
+        <v>1.921507457477398</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4102706266134424</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="7"/>
+        <v>-4.0186911790852333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -2206,17 +2944,41 @@
       <c r="J31" s="11">
         <v>0</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <f t="shared" si="0"/>
         <v>48.965266999648932</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <f t="shared" si="1"/>
         <v>1.5674068111836257</v>
       </c>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7542593836917031</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37995812711287275</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.035772931080801</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2269248769814345</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" si="6"/>
+        <v>0.81396465445463295</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.7935947586347676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -2247,17 +3009,41 @@
       <c r="J32" s="11">
         <v>15</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <f t="shared" si="0"/>
         <v>7.1944992650331674</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <f t="shared" si="1"/>
         <v>1.484765424645123</v>
       </c>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0376247523271052</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.0151569435178164E-2</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1683840870084796</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.52123611284894056</v>
+      </c>
+      <c r="R32" s="5">
+        <f t="shared" si="6"/>
+        <v>4.6332625014320332E-2</v>
+      </c>
+      <c r="S32" s="5">
+        <f t="shared" si="7"/>
+        <v>4.2843486620264451E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -2288,17 +3074,41 @@
       <c r="J33" s="11">
         <v>0</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <f t="shared" si="0"/>
         <v>-1.3350041621192492</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <f t="shared" si="1"/>
         <v>0.7284504710278451</v>
       </c>
-      <c r="M33" s="13"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.5236934990911053</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.348085767693451</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="4"/>
+        <v>-4.0513786212407796E-2</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.3299212368739486</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.270136570368432</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.0612997288447157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2329,17 +3139,41 @@
       <c r="J34" s="11">
         <v>16</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <f t="shared" si="0"/>
         <v>25.572061805050623</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <f t="shared" si="1"/>
         <v>2.2846081902085991</v>
       </c>
-      <c r="M34" s="13"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="5"/>
+      <c r="N34" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5371984738667883</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.44811773192354676</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3236768382422273</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="5"/>
+        <v>0.69742574539404334</v>
+      </c>
+      <c r="R34" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.66393169920649098</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.31313777380334434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2370,17 +3204,41 @@
       <c r="J35" s="11">
         <v>12</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <f t="shared" si="0"/>
         <v>8.5685921541087637</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <f t="shared" si="1"/>
         <v>1.4357450386062407</v>
       </c>
-      <c r="M35" s="13"/>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2335535154033885</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" si="3"/>
+        <v>0.30088199933434889</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="4"/>
+        <v>0.71133681685648431</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="5"/>
+        <v>-4.3286812877952614E-2</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" si="6"/>
+        <v>0.67283468474206154</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.75266863556988872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2411,17 +3269,41 @@
       <c r="J36" s="11">
         <v>7</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="13">
         <f t="shared" si="0"/>
         <v>16.704280280841246</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="13">
         <f t="shared" si="1"/>
         <v>2.1320766499145383</v>
       </c>
-      <c r="M36" s="13"/>
-    </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2661429901673191</v>
+      </c>
+      <c r="O36" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.19796430523346639</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0315168934828065</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="5"/>
+        <v>3.6212064189823097E-2</v>
+      </c>
+      <c r="R36" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.21747400680219486</v>
+      </c>
+      <c r="S36" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.1953802567216654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -2452,17 +3334,41 @@
       <c r="J37" s="11">
         <v>6</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <f t="shared" si="0"/>
         <v>15.165369113473465</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <f t="shared" si="1"/>
         <v>2.2518036511352646</v>
       </c>
-      <c r="M37" s="13"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="5"/>
+      <c r="N37" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2261669056160733</v>
+      </c>
+      <c r="O37" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.24933788383423305</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0335495339546106</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.1305734253124085E-2</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.30916225451532736</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.19184235103668734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -2493,17 +3399,41 @@
       <c r="J38" s="11">
         <v>11</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <f t="shared" si="0"/>
         <v>10.569228830636316</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="13">
         <f t="shared" si="1"/>
         <v>3.3747484010622042</v>
       </c>
-      <c r="M38" s="13"/>
-    </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3400749399817604</v>
+      </c>
+      <c r="O38" s="5">
+        <f t="shared" si="3"/>
+        <v>4.7427860373301412E-4</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3812118968196501</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="5"/>
+        <v>0.21656191739409578</v>
+      </c>
+      <c r="R38" s="5">
+        <f t="shared" si="6"/>
+        <v>0.13668637147514834</v>
+      </c>
+      <c r="S38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.41328023069634623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -2534,17 +3464,41 @@
       <c r="J39" s="11">
         <v>11</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <f t="shared" si="0"/>
         <v>10.599967165710769</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <f t="shared" si="1"/>
         <v>3.4066423807542261</v>
       </c>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="5"/>
+      <c r="N39" s="5">
+        <f t="shared" si="2"/>
+        <v>1.346559968428791</v>
+      </c>
+      <c r="O39" s="5">
+        <f t="shared" si="3"/>
+        <v>-5.8792598635504165E-3</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3850916401911495</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23238151814022737</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" si="6"/>
+        <v>0.12534698604182548</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.42003310525566323</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -2575,17 +3529,41 @@
       <c r="J40" s="11">
         <v>5</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <f t="shared" si="0"/>
         <v>15.123326960652467</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <f t="shared" si="1"/>
         <v>2.5211446647037006</v>
       </c>
-      <c r="M40" s="13"/>
-    </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="5"/>
+      <c r="N40" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2235668863947078</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.26021051292049269</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0301433856718936</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.7648230103408966E-2</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.32856702124767845</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.19777091122254611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2616,17 +3594,41 @@
       <c r="J41" s="11">
         <v>9</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <f t="shared" si="0"/>
         <v>24.932343700269417</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="13">
         <f t="shared" si="1"/>
         <v>2.833910304546686</v>
       </c>
-      <c r="M41" s="13"/>
-    </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4509659757268252</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1962569204773245E-2</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1852577880308519</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="5"/>
+        <v>0.48706989220724889</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="6"/>
+        <v>0.17503728580157507</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="7"/>
+        <v>7.2212951413360177E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -2657,17 +3659,41 @@
       <c r="J42" s="11">
         <v>10</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <f t="shared" si="0"/>
         <v>10.061260861995216</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="13">
         <f t="shared" si="1"/>
         <v>3.5830173417351023</v>
       </c>
-      <c r="M42" s="13"/>
-    </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3115597788778721</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="3"/>
+        <v>-2.2379907833346025E-2</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.387092167905198</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.14700193511187676</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="6"/>
+        <v>9.5897694408105472E-2</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="7"/>
+        <v>0.42351511718579393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -2698,17 +3724,41 @@
       <c r="J43" s="11">
         <v>12</v>
       </c>
-      <c r="K43" s="14">
+      <c r="K43" s="13">
         <f t="shared" si="0"/>
         <v>11.665161455300838</v>
       </c>
-      <c r="L43" s="14">
+      <c r="L43" s="13">
         <f t="shared" si="1"/>
         <v>3.240015491288271</v>
       </c>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3674614032453396</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="3"/>
+        <v>7.2798017358810148E-3</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3952093980385267</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28336855027429525</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="6"/>
+        <v>0.14883242996967039</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="7"/>
+        <v>0.43764353538534417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -2739,17 +3789,41 @@
       <c r="J44" s="11">
         <v>9</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="13">
         <f t="shared" si="0"/>
         <v>23.48248623053135</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="13">
         <f t="shared" si="1"/>
         <v>2.8878409619104257</v>
       </c>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5">
+        <f t="shared" si="2"/>
+        <v>1.42809806398921</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6075624312070106E-2</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2149392804341548</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="5"/>
+        <v>0.4312858294939243</v>
+      </c>
+      <c r="R44" s="5">
+        <f t="shared" si="6"/>
+        <v>0.20022535577666561</v>
+      </c>
+      <c r="S44" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12387497535164994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -2780,17 +3854,41 @@
       <c r="J45" s="11">
         <v>9</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="13">
         <f t="shared" si="0"/>
         <v>23.604428459499154</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="13">
         <f t="shared" si="1"/>
         <v>2.8890890739087238</v>
       </c>
-      <c r="M45" s="13"/>
-    </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4298383635030452</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5381108625922489E-2</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2147504686331219</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="5"/>
+        <v>0.43553112212639766</v>
+      </c>
+      <c r="R45" s="5">
+        <f t="shared" si="6"/>
+        <v>0.19898582900032366</v>
+      </c>
+      <c r="S45" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12354633959263034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2821,17 +3919,41 @@
       <c r="J46" s="11">
         <v>3</v>
       </c>
-      <c r="K46" s="14">
+      <c r="K46" s="13">
         <f t="shared" si="0"/>
         <v>-2.1640216234046576</v>
       </c>
-      <c r="L46" s="14">
+      <c r="L46" s="13">
         <f t="shared" si="1"/>
         <v>7.1194868695977584</v>
       </c>
-      <c r="M46" s="13"/>
-    </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70108243134896531</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="3"/>
+        <v>0.35861456890003596</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6966755918399672</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.3421986106292572</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77587204915442454</v>
+      </c>
+      <c r="S46" s="5">
+        <f t="shared" si="7"/>
+        <v>0.96235952705906658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2862,17 +3984,41 @@
       <c r="J47" s="11">
         <v>2</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="13">
         <f t="shared" si="0"/>
         <v>-2.0784637539220094</v>
       </c>
-      <c r="L47" s="14">
+      <c r="L47" s="13">
         <f t="shared" si="1"/>
         <v>8.1793767826902535</v>
       </c>
-      <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70258140154498872</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="3"/>
+        <v>0.35911570219989358</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7008181644934157</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.3385420175664622</v>
+      </c>
+      <c r="R47" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77676643952757163</v>
+      </c>
+      <c r="S47" s="5">
+        <f t="shared" si="7"/>
+        <v>0.96956986826026392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -2903,17 +4049,41 @@
       <c r="J48" s="11">
         <v>3</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="13">
         <f t="shared" si="0"/>
         <v>-2.1845169772979274</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="13">
         <f t="shared" si="1"/>
         <v>7.1599265849596874</v>
       </c>
-      <c r="M48" s="13"/>
-    </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70722116409393676</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="3"/>
+        <v>0.36190706257900424</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7005738398635568</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.3272237648123326</v>
+      </c>
+      <c r="R48" s="5">
+        <f t="shared" si="6"/>
+        <v>0.7817482793928735</v>
+      </c>
+      <c r="S48" s="5">
+        <f t="shared" si="7"/>
+        <v>0.96914460982969119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -2944,17 +4114,41 @@
       <c r="J49" s="11">
         <v>4</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="13">
         <f t="shared" si="0"/>
         <v>-2.1052925922052736</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="13">
         <f t="shared" si="1"/>
         <v>6.3808681663406031</v>
       </c>
-      <c r="M49" s="13"/>
-    </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M49" s="5"/>
+      <c r="N49" s="5">
+        <f t="shared" si="2"/>
+        <v>0.70486777898742048</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="3"/>
+        <v>0.36050446853100443</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7015544931529392</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.3329646205527614</v>
+      </c>
+      <c r="R49" s="5">
+        <f t="shared" si="6"/>
+        <v>0.77924502005185403</v>
+      </c>
+      <c r="S49" s="5">
+        <f t="shared" si="7"/>
+        <v>0.97085148268577426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -2985,17 +4179,41 @@
       <c r="J50" s="11">
         <v>4</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="13">
         <f t="shared" si="0"/>
         <v>15.474423159282161</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="13">
         <f t="shared" si="1"/>
         <v>6.3788008667221074</v>
       </c>
-      <c r="M50" s="13"/>
-    </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M50" s="5"/>
+      <c r="N50" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3881637652768903</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.24732882891787109</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1536033535841179</v>
+      </c>
+      <c r="Q50" s="5">
+        <f t="shared" si="5"/>
+        <v>0.33386996357047993</v>
+      </c>
+      <c r="R50" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.30557662295416654</v>
+      </c>
+      <c r="S50" s="5">
+        <f t="shared" si="7"/>
+        <v>1.711692969316457E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -3026,17 +4244,41 @@
       <c r="J51" s="11">
         <v>14</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="13">
         <f t="shared" si="0"/>
         <v>14.492037081986426</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="13">
         <f t="shared" si="1"/>
         <v>2.3613745022358605</v>
       </c>
-      <c r="M51" s="13"/>
-    </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="5"/>
+      <c r="N51" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3704689408717081</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.23861318849025012</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="4"/>
+        <v>1.138061391640564</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="5"/>
+        <v>0.29070514792636937</v>
+      </c>
+      <c r="R51" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.29002151037934631</v>
+      </c>
+      <c r="S51" s="5">
+        <f t="shared" si="7"/>
+        <v>-9.9345810282614605E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -3067,17 +4309,41 @@
       <c r="J52" s="11">
         <v>20</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="13">
         <f t="shared" si="0"/>
         <v>23.36259881113893</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="13">
         <f t="shared" si="1"/>
         <v>2.2708455945566488</v>
       </c>
-      <c r="M52" s="13"/>
-    </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M52" s="5"/>
+      <c r="N52" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5285150238372309</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="3"/>
+        <v>-7.5952303997379636E-2</v>
+      </c>
+      <c r="P52" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3185829553451132</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="5"/>
+        <v>0.67624330746202754</v>
+      </c>
+      <c r="R52" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8513900787335009E-4</v>
+      </c>
+      <c r="S52" s="5">
+        <f t="shared" si="7"/>
+        <v>0.30427163268773555</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -3108,17 +4374,41 @@
       <c r="J53" s="11">
         <v>28</v>
       </c>
-      <c r="K53" s="14">
+      <c r="K53" s="13">
         <f t="shared" si="0"/>
         <v>23.423521330236831</v>
       </c>
-      <c r="L53" s="14">
+      <c r="L53" s="13">
         <f t="shared" si="1"/>
         <v>1.7049071752602192</v>
       </c>
-      <c r="M53" s="13"/>
-    </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5246803476089705</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="3"/>
+        <v>-9.9202383816573952E-2</v>
+      </c>
+      <c r="P53" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3182949382205169</v>
+      </c>
+      <c r="Q53" s="5">
+        <f t="shared" si="5"/>
+        <v>0.66688898505353633</v>
+      </c>
+      <c r="R53" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.1210103018746495E-2</v>
+      </c>
+      <c r="S53" s="5">
+        <f t="shared" si="7"/>
+        <v>0.30377032542921395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -3149,17 +4439,41 @@
       <c r="J54" s="11">
         <v>5</v>
       </c>
-      <c r="K54" s="14">
+      <c r="K54" s="13">
         <f t="shared" si="0"/>
         <v>11.189425810648924</v>
       </c>
-      <c r="L54" s="14">
+      <c r="L54" s="13">
         <f t="shared" si="1"/>
         <v>5.5188689025576059</v>
       </c>
-      <c r="M54" s="13"/>
-    </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M54" s="5"/>
+      <c r="N54" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1965297233683783</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.46215269793411601</v>
+      </c>
+      <c r="P54" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2724365412439298</v>
+      </c>
+      <c r="Q54" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.13360277878090171</v>
+      </c>
+      <c r="R54" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.68898040080119105</v>
+      </c>
+      <c r="S54" s="5">
+        <f t="shared" si="7"/>
+        <v>0.22395164346454266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -3187,20 +4501,44 @@
       <c r="I55" s="8">
         <v>6.6470074896333387</v>
       </c>
-      <c r="J55" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K55" s="14">
+      <c r="J55" s="11">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
         <f t="shared" si="0"/>
         <v>16.035891384230414</v>
       </c>
-      <c r="L55" s="14" t="e">
+      <c r="L55" s="13">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" s="13"/>
-    </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9.2868310145351494</v>
+      </c>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5">
+        <f t="shared" si="2"/>
+        <v>1.335416183082613</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="3"/>
+        <v>3.7101600998428186E-2</v>
+      </c>
+      <c r="P55" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1529002948211995</v>
+      </c>
+      <c r="Q55" s="5">
+        <f t="shared" si="5"/>
+        <v>0.20519732975662069</v>
+      </c>
+      <c r="R55" s="5">
+        <f t="shared" si="6"/>
+        <v>0.20205645275547907</v>
+      </c>
+      <c r="S55" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5893223076718473E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -3231,17 +4569,41 @@
       <c r="J56" s="11">
         <v>10</v>
       </c>
-      <c r="K56" s="14">
+      <c r="K56" s="13">
         <f t="shared" si="0"/>
         <v>18.582924645308083</v>
       </c>
-      <c r="L56" s="14">
+      <c r="L56" s="13">
         <f t="shared" si="1"/>
         <v>3.5694040250703645</v>
       </c>
-      <c r="M56" s="13"/>
-    </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M56" s="5"/>
+      <c r="N56" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3673819817999879</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8100461872482893E-2</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3167526115527219</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28317480932675643</v>
+      </c>
+      <c r="R56" s="5">
+        <f t="shared" si="6"/>
+        <v>0.25738121914430218</v>
+      </c>
+      <c r="S56" s="5">
+        <f t="shared" si="7"/>
+        <v>0.30108583382247051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3272,17 +4634,41 @@
       <c r="J57" s="11">
         <v>3</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="13">
         <f t="shared" si="0"/>
         <v>8.7842425453355251</v>
       </c>
-      <c r="L57" s="14">
+      <c r="L57" s="13">
         <f t="shared" si="1"/>
         <v>7.9696989800971743</v>
       </c>
-      <c r="M57" s="13"/>
-    </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M57" s="5"/>
+      <c r="N57" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0677511996821951</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.28941558033184905</v>
+      </c>
+      <c r="P57" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3159053418315192</v>
+      </c>
+      <c r="Q57" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.44774555333179628</v>
+      </c>
+      <c r="R57" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.38069034082602715</v>
+      </c>
+      <c r="S57" s="5">
+        <f t="shared" si="7"/>
+        <v>0.29961112129709577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -3313,17 +4699,41 @@
       <c r="J58" s="11">
         <v>7</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="13">
         <f t="shared" si="0"/>
         <v>7.3086504808879242</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="13">
         <f t="shared" si="1"/>
         <v>4.0065950174602403</v>
       </c>
-      <c r="M58" s="13"/>
-    </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M58" s="5"/>
+      <c r="N58" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0995362716546937</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="3"/>
+        <v>-8.1043780340142105E-3</v>
+      </c>
+      <c r="P58" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3709734776518798</v>
+      </c>
+      <c r="Q58" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.37020893920603665</v>
+      </c>
+      <c r="R58" s="5">
+        <f t="shared" si="6"/>
+        <v>0.12137573872830019</v>
+      </c>
+      <c r="S58" s="5">
+        <f t="shared" si="7"/>
+        <v>0.39545978390248043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -3354,17 +4764,41 @@
       <c r="J59" s="11">
         <v>9</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="13">
         <f t="shared" si="0"/>
         <v>18.60771228830691</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="13">
         <f t="shared" si="1"/>
         <v>3.8382744930115131</v>
       </c>
-      <c r="M59" s="13"/>
-    </row>
-    <row r="60" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M59" s="5"/>
+      <c r="N59" s="5">
+        <f t="shared" si="2"/>
+        <v>1.365120730895431</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="3"/>
+        <v>7.8457359309588054E-2</v>
+      </c>
+      <c r="P59" s="5">
+        <f t="shared" si="4"/>
+        <v>1.330910359417298</v>
+      </c>
+      <c r="Q59" s="5">
+        <f t="shared" si="5"/>
+        <v>0.27765870607615312</v>
+      </c>
+      <c r="R59" s="5">
+        <f t="shared" si="6"/>
+        <v>0.27586554131177982</v>
+      </c>
+      <c r="S59" s="5">
+        <f t="shared" si="7"/>
+        <v>0.32572805528336329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -3395,17 +4829,41 @@
       <c r="J60" s="11">
         <v>4</v>
       </c>
-      <c r="K60" s="14">
+      <c r="K60" s="13">
         <f t="shared" si="0"/>
         <v>11.089231968147635</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="13">
         <f t="shared" si="1"/>
         <v>6.5393278809190916</v>
       </c>
-      <c r="M60" s="13"/>
-    </row>
-    <row r="61" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="5"/>
+      <c r="N60" s="5">
+        <f t="shared" si="2"/>
+        <v>1.193584744669685</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.47709472789315299</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2763903104635179</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.1407867699691781</v>
+      </c>
+      <c r="R60" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.71564797159410398</v>
+      </c>
+      <c r="S60" s="5">
+        <f t="shared" si="7"/>
+        <v>0.23083336347017502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -3436,17 +4894,41 @@
       <c r="J61" s="11">
         <v>2</v>
       </c>
-      <c r="K61" s="14">
+      <c r="K61" s="13">
         <f t="shared" si="0"/>
         <v>9.2357096486101682</v>
       </c>
-      <c r="L61" s="14">
+      <c r="L61" s="13">
         <f t="shared" si="1"/>
         <v>11.113128978685545</v>
       </c>
-      <c r="M61" s="13"/>
-    </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="5"/>
+      <c r="N61" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1280587148950263</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="3"/>
+        <v>-6.8487016257910663E-2</v>
+      </c>
+      <c r="P61" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4098323622420348</v>
+      </c>
+      <c r="Q61" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.3006311928550755</v>
+      </c>
+      <c r="R61" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3608702795894675E-2</v>
+      </c>
+      <c r="S61" s="5">
+        <f t="shared" si="7"/>
+        <v>0.46309548761421271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -3474,20 +4956,44 @@
       <c r="I62" s="8">
         <v>8.5719380267604919</v>
       </c>
-      <c r="J62" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K62" s="14">
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
         <f t="shared" si="0"/>
         <v>9.8437199443059278</v>
       </c>
-      <c r="L62" s="14" t="e">
+      <c r="L62" s="13">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M62" s="13"/>
-    </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26.245958873952969</v>
+      </c>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1620660853900222</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.40895555087903868</v>
+      </c>
+      <c r="P62" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2633531492246917</v>
+      </c>
+      <c r="Q62" s="5">
+        <f t="shared" si="5"/>
+        <v>-0.21767349605376904</v>
+      </c>
+      <c r="R62" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.59403756579407163</v>
+      </c>
+      <c r="S62" s="5">
+        <f t="shared" si="7"/>
+        <v>0.20814157537354153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -3518,17 +5024,41 @@
       <c r="J63" s="11">
         <v>14</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="13">
         <f t="shared" si="0"/>
         <v>13.81429803975214</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="13">
         <f t="shared" si="1"/>
         <v>2.3019660668372568</v>
       </c>
-      <c r="M63" s="13"/>
-    </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M63" s="5"/>
+      <c r="N63" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3633981255983034</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.18061661852717173</v>
+      </c>
+      <c r="P63" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1234439484806868</v>
+      </c>
+      <c r="Q63" s="5">
+        <f t="shared" si="5"/>
+        <v>0.27345657677690438</v>
+      </c>
+      <c r="R63" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.18651297509488018</v>
+      </c>
+      <c r="S63" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.5376923622804618E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -3559,17 +5089,41 @@
       <c r="J64" s="11">
         <v>10</v>
       </c>
-      <c r="K64" s="14">
+      <c r="K64" s="13">
         <f t="shared" si="0"/>
         <v>17.764786767251813</v>
       </c>
-      <c r="L64" s="14">
+      <c r="L64" s="13">
         <f t="shared" si="1"/>
         <v>3.4443693845022816</v>
       </c>
-      <c r="M64" s="13"/>
-    </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="5"/>
+      <c r="N64" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3511821223900451</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15191199321969237</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3023592613408486</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="5"/>
+        <v>0.24365681644484333</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="6"/>
+        <v>0.40696263154887297</v>
+      </c>
+      <c r="S64" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27603353547121756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -3600,17 +5154,41 @@
       <c r="J65" s="11">
         <v>8</v>
       </c>
-      <c r="K65" s="14">
+      <c r="K65" s="13">
         <f t="shared" si="0"/>
         <v>17.481134277799484</v>
       </c>
-      <c r="L65" s="14">
+      <c r="L65" s="13">
         <f t="shared" si="1"/>
         <v>4.067043481654002</v>
       </c>
-      <c r="M65" s="13"/>
-    </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M65" s="5"/>
+      <c r="N65" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3425192186907173</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14339154847231358</v>
+      </c>
+      <c r="P65" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3057584191479408</v>
+      </c>
+      <c r="Q65" s="5">
+        <f t="shared" si="5"/>
+        <v>0.22252449930160825</v>
+      </c>
+      <c r="R65" s="5">
+        <f t="shared" si="6"/>
+        <v>0.39175589162727315</v>
+      </c>
+      <c r="S65" s="5">
+        <f t="shared" si="7"/>
+        <v>0.28194992840772909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -3641,17 +5219,41 @@
       <c r="J66" s="11">
         <v>8</v>
       </c>
-      <c r="K66" s="14">
+      <c r="K66" s="13">
         <f t="shared" si="0"/>
         <v>17.533049538184834</v>
       </c>
-      <c r="L66" s="14">
+      <c r="L66" s="13">
         <f t="shared" si="1"/>
         <v>4.1269633221092583</v>
       </c>
-      <c r="M66" s="13"/>
-    </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="5"/>
+      <c r="N66" s="5">
+        <f t="shared" si="2"/>
+        <v>1.347667598473175</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14503601789432657</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="4"/>
+        <v>1.2990180997603435</v>
+      </c>
+      <c r="Q66" s="5">
+        <f t="shared" si="5"/>
+        <v>0.23508347468825108</v>
+      </c>
+      <c r="R66" s="5">
+        <f t="shared" si="6"/>
+        <v>0.39469083452650011</v>
+      </c>
+      <c r="S66" s="5">
+        <f t="shared" si="7"/>
+        <v>0.27021808767606098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -3682,17 +5284,41 @@
       <c r="J67" s="11">
         <v>5</v>
       </c>
-      <c r="K67" s="14">
-        <f t="shared" ref="K67:K130" si="2">D67-(0.87*F67)</f>
+      <c r="K67" s="13">
+        <f t="shared" ref="K67:K130" si="8">D67-(0.87*F67)</f>
         <v>9.5832964783534607</v>
       </c>
-      <c r="L67" s="14">
-        <f t="shared" ref="L67:L130" si="3">(D67+E67+H67)/(G67+J67)</f>
+      <c r="L67" s="13">
+        <f t="shared" ref="L67:L130" si="9">(D67+E67+H67)/(G67+J67)</f>
         <v>5.3395232234453509</v>
       </c>
-      <c r="M67" s="13"/>
-    </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M67" s="5"/>
+      <c r="N67" s="5">
+        <f t="shared" ref="N67:N130" si="10">LOG(D67)</f>
+        <v>1.1567655346797177</v>
+      </c>
+      <c r="O67" s="5">
+        <f t="shared" ref="O67:O130" si="11">LOG(E67)</f>
+        <v>-0.33922036124482663</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" ref="P67:P130" si="12">LOG(H67)</f>
+        <v>1.2808912426868424</v>
+      </c>
+      <c r="Q67" s="5">
+        <f t="shared" ref="Q67:Q130" si="13">STANDARDIZE(N67,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <v>-0.23060367772630086</v>
+      </c>
+      <c r="R67" s="5">
+        <f t="shared" ref="R67:R130" si="14">STANDARDIZE(O67,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <v>-0.46957869966773014</v>
+      </c>
+      <c r="S67" s="5">
+        <f t="shared" ref="S67:S130" si="15">STANDARDIZE(P67,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <v>0.23866744624157013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3723,17 +5349,41 @@
       <c r="J68" s="11">
         <v>5</v>
       </c>
-      <c r="K68" s="14">
-        <f t="shared" si="2"/>
+      <c r="K68" s="13">
+        <f t="shared" si="8"/>
         <v>8.5435934792884378</v>
       </c>
-      <c r="L68" s="14">
-        <f t="shared" si="3"/>
+      <c r="L68" s="13">
+        <f t="shared" si="9"/>
         <v>5.3155859322660586</v>
       </c>
-      <c r="M68" s="13"/>
-    </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M68" s="5"/>
+      <c r="N68" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1326739254024945</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.29874409832036336</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3210102921536815</v>
+      </c>
+      <c r="Q68" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.2893728324355575</v>
+      </c>
+      <c r="R68" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.39733927771971955</v>
+      </c>
+      <c r="S68" s="5">
+        <f t="shared" si="15"/>
+        <v>0.30849652578295583</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -3764,17 +5414,41 @@
       <c r="J69" s="11">
         <v>3</v>
       </c>
-      <c r="K69" s="14">
-        <f t="shared" si="2"/>
+      <c r="K69" s="13">
+        <f t="shared" si="8"/>
         <v>9.4149274996463408</v>
       </c>
-      <c r="L69" s="14">
-        <f t="shared" si="3"/>
+      <c r="L69" s="13">
+        <f t="shared" si="9"/>
         <v>7.7706478622361113</v>
       </c>
-      <c r="M69" s="13"/>
-    </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="5"/>
+      <c r="N69" s="5">
+        <f t="shared" si="10"/>
+        <v>1.154791403568012</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.26670243507508085</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3007627059536651</v>
+      </c>
+      <c r="Q69" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.23541937996458476</v>
+      </c>
+      <c r="R69" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.34015338495556641</v>
+      </c>
+      <c r="S69" s="5">
+        <f t="shared" si="15"/>
+        <v>0.27325465624537709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -3805,17 +5479,41 @@
       <c r="J70" s="11">
         <v>3</v>
       </c>
-      <c r="K70" s="14">
-        <f t="shared" si="2"/>
+      <c r="K70" s="13">
+        <f t="shared" si="8"/>
         <v>8.3291381485801761</v>
       </c>
-      <c r="L70" s="14">
-        <f t="shared" si="3"/>
+      <c r="L70" s="13">
+        <f t="shared" si="9"/>
         <v>7.6990992974244277</v>
       </c>
-      <c r="M70" s="13"/>
-    </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M70" s="5"/>
+      <c r="N70" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1456141375647482</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.27997003117273622</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3958163864875881</v>
+      </c>
+      <c r="Q70" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.25780643428493355</v>
+      </c>
+      <c r="R70" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.36383253425161061</v>
+      </c>
+      <c r="S70" s="5">
+        <f t="shared" si="15"/>
+        <v>0.43870002713311712</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -3846,17 +5544,41 @@
       <c r="J71" s="11">
         <v>3</v>
       </c>
-      <c r="K71" s="14">
-        <f t="shared" si="2"/>
+      <c r="K71" s="13">
+        <f t="shared" si="8"/>
         <v>12.906772016025656</v>
       </c>
-      <c r="L71" s="14">
-        <f t="shared" si="3"/>
+      <c r="L71" s="13">
+        <f t="shared" si="9"/>
         <v>6.7707943698558912</v>
       </c>
-      <c r="M71" s="13"/>
-    </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M71" s="5"/>
+      <c r="N71" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2759995437369327</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.14398787284230397</v>
+      </c>
+      <c r="P71" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3447562307513459</v>
+      </c>
+      <c r="Q71" s="5">
+        <f t="shared" si="13"/>
+        <v>6.0256174940877968E-2</v>
+      </c>
+      <c r="R71" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.12114035361810088</v>
+      </c>
+      <c r="S71" s="5">
+        <f t="shared" si="15"/>
+        <v>0.3498274410752471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -3887,17 +5609,41 @@
       <c r="J72" s="11">
         <v>23</v>
       </c>
-      <c r="K72" s="14">
-        <f t="shared" si="2"/>
+      <c r="K72" s="13">
+        <f t="shared" si="8"/>
         <v>55.861897950093692</v>
       </c>
-      <c r="L72" s="14">
-        <f t="shared" si="3"/>
+      <c r="L72" s="13">
+        <f t="shared" si="9"/>
         <v>3.2307817590063537</v>
       </c>
-      <c r="M72" s="13"/>
-    </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M72" s="5"/>
+      <c r="N72" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8751306192901132</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="11"/>
+        <v>0.51599874991990502</v>
+      </c>
+      <c r="P72" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5638100677938198</v>
+      </c>
+      <c r="Q72" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5217785857163588</v>
+      </c>
+      <c r="R72" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0567611787129967</v>
+      </c>
+      <c r="S72" s="5">
+        <f t="shared" si="15"/>
+        <v>0.73110087636259202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -3928,17 +5674,41 @@
       <c r="J73" s="11">
         <v>26</v>
       </c>
-      <c r="K73" s="14">
-        <f t="shared" si="2"/>
+      <c r="K73" s="13">
+        <f t="shared" si="8"/>
         <v>58.303215401559314</v>
       </c>
-      <c r="L73" s="14">
-        <f t="shared" si="3"/>
+      <c r="L73" s="13">
+        <f t="shared" si="9"/>
         <v>3.0382129935788598</v>
       </c>
-      <c r="M73" s="13"/>
-    </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M73" s="5"/>
+      <c r="N73" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8913949066166831</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="11"/>
+        <v>0.52780841624445096</v>
+      </c>
+      <c r="P73" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5679149253363793</v>
+      </c>
+      <c r="Q73" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5614537442801606</v>
+      </c>
+      <c r="R73" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0778383090369148</v>
+      </c>
+      <c r="S73" s="5">
+        <f t="shared" si="15"/>
+        <v>0.73824557265162971</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -3969,17 +5739,41 @@
       <c r="J74" s="11">
         <v>25</v>
       </c>
-      <c r="K74" s="14">
-        <f t="shared" si="2"/>
+      <c r="K74" s="13">
+        <f t="shared" si="8"/>
         <v>63.489013621638676</v>
       </c>
-      <c r="L74" s="14">
-        <f t="shared" si="3"/>
+      <c r="L74" s="13">
+        <f t="shared" si="9"/>
         <v>3.2154362779167061</v>
       </c>
-      <c r="M74" s="13"/>
-    </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M74" s="5"/>
+      <c r="N74" s="5">
+        <f t="shared" si="10"/>
+        <v>1.92440663476634</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="11"/>
+        <v>0.5501203979611462</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5662448568613774</v>
+      </c>
+      <c r="Q74" s="5">
+        <f t="shared" si="13"/>
+        <v>1.6419826677124902</v>
+      </c>
+      <c r="R74" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1176592941099832</v>
+      </c>
+      <c r="S74" s="5">
+        <f t="shared" si="15"/>
+        <v>0.735338740462675</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
@@ -4010,17 +5804,41 @@
       <c r="J75" s="11">
         <v>25</v>
       </c>
-      <c r="K75" s="14">
-        <f t="shared" si="2"/>
+      <c r="K75" s="13">
+        <f t="shared" si="8"/>
         <v>59.994856563966586</v>
       </c>
-      <c r="L75" s="14">
-        <f t="shared" si="3"/>
+      <c r="L75" s="13">
+        <f t="shared" si="9"/>
         <v>3.1449095896459642</v>
       </c>
-      <c r="M75" s="13"/>
-    </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="5"/>
+      <c r="N75" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9005116197802667</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="11"/>
+        <v>0.54963634303780917</v>
+      </c>
+      <c r="P75" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5621083153707802</v>
+      </c>
+      <c r="Q75" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5836930857946814</v>
+      </c>
+      <c r="R75" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1167953841211038</v>
+      </c>
+      <c r="S75" s="5">
+        <f t="shared" si="15"/>
+        <v>0.72813889678213362</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -4051,17 +5869,41 @@
       <c r="J76" s="11">
         <v>25</v>
       </c>
-      <c r="K76" s="14">
-        <f t="shared" si="2"/>
+      <c r="K76" s="13">
+        <f t="shared" si="8"/>
         <v>60.434717703248907</v>
       </c>
-      <c r="L76" s="14">
-        <f t="shared" si="3"/>
+      <c r="L76" s="13">
+        <f t="shared" si="9"/>
         <v>3.1571072650800796</v>
       </c>
-      <c r="M76" s="13"/>
-    </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="5"/>
+      <c r="N76" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9036152682705723</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="11"/>
+        <v>0.54725776276488369</v>
+      </c>
+      <c r="P76" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5538002452453554</v>
+      </c>
+      <c r="Q76" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5912641366195162</v>
+      </c>
+      <c r="R76" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1125502475507207</v>
+      </c>
+      <c r="S76" s="5">
+        <f t="shared" si="15"/>
+        <v>0.71367831266228232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -4092,17 +5934,41 @@
       <c r="J77" s="11">
         <v>25</v>
       </c>
-      <c r="K77" s="14">
-        <f t="shared" si="2"/>
+      <c r="K77" s="13">
+        <f t="shared" si="8"/>
         <v>64.703982775765127</v>
       </c>
-      <c r="L77" s="14">
-        <f t="shared" si="3"/>
+      <c r="L77" s="13">
+        <f t="shared" si="9"/>
         <v>3.2153475971609824</v>
       </c>
-      <c r="M77" s="13"/>
-    </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M77" s="5"/>
+      <c r="N77" s="5">
+        <f t="shared" si="10"/>
+        <v>1.9201412916255576</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="11"/>
+        <v>0.55680761882225127</v>
+      </c>
+      <c r="P77" s="5">
+        <f t="shared" si="12"/>
+        <v>1.5583558672771691</v>
+      </c>
+      <c r="Q77" s="5">
+        <f t="shared" si="13"/>
+        <v>1.6315777749531801</v>
+      </c>
+      <c r="R77" s="5">
+        <f t="shared" si="14"/>
+        <v>1.129594214345738</v>
+      </c>
+      <c r="S77" s="5">
+        <f t="shared" si="15"/>
+        <v>0.72160758559989147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -4130,20 +5996,44 @@
       <c r="I78" s="8">
         <v>12.242169918283045</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K78" s="14">
-        <f t="shared" si="2"/>
+      <c r="J78" s="11">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13">
+        <f t="shared" si="8"/>
         <v>16.128025017702178</v>
       </c>
-      <c r="L78" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M78" s="13"/>
-    </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L78" s="13">
+        <f t="shared" si="9"/>
+        <v>14.912009500587258</v>
+      </c>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4726024111217062</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="11"/>
+        <v>-7.0349041615759916E-2</v>
+      </c>
+      <c r="P78" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4181325298025171</v>
+      </c>
+      <c r="Q78" s="5">
+        <f t="shared" si="13"/>
+        <v>0.53984988728548378</v>
+      </c>
+      <c r="R78" s="5">
+        <f t="shared" si="14"/>
+        <v>1.0285480102273158E-2</v>
+      </c>
+      <c r="S78" s="5">
+        <f t="shared" si="15"/>
+        <v>0.47754231695065602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -4171,20 +6061,44 @@
       <c r="I79" s="8">
         <v>9.1520086488085575</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K79" s="14">
-        <f t="shared" si="2"/>
+      <c r="J79" s="11">
+        <v>0</v>
+      </c>
+      <c r="K79" s="13">
+        <f t="shared" si="8"/>
         <v>10.516471214480507</v>
       </c>
-      <c r="L79" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M79" s="13"/>
-    </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L79" s="13">
+        <f t="shared" si="9"/>
+        <v>23.087952140168383</v>
+      </c>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1713384285368973</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="11"/>
+        <v>1.6227399074156514E-2</v>
+      </c>
+      <c r="P79" s="5">
+        <f t="shared" si="12"/>
+        <v>1.291790548562828</v>
+      </c>
+      <c r="Q79" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.19505451022158535</v>
+      </c>
+      <c r="R79" s="5">
+        <f t="shared" si="14"/>
+        <v>0.16480152426937969</v>
+      </c>
+      <c r="S79" s="5">
+        <f t="shared" si="15"/>
+        <v>0.25763819722083203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -4212,20 +6126,44 @@
       <c r="I80" s="8">
         <v>9.9394368285762766</v>
       </c>
-      <c r="J80" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K80" s="14">
-        <f t="shared" si="2"/>
+      <c r="J80" s="11">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <f t="shared" si="8"/>
         <v>11.697034176670968</v>
       </c>
-      <c r="L80" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M80" s="13"/>
-    </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L80" s="13">
+        <f t="shared" si="9"/>
+        <v>12.069709157681119</v>
+      </c>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5">
+        <f t="shared" si="10"/>
+        <v>1.238920637867214</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.14914205104548814</v>
+      </c>
+      <c r="P80" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3276359045387029</v>
+      </c>
+      <c r="Q80" s="5">
+        <f t="shared" si="13"/>
+        <v>-3.0194235840424032E-2</v>
+      </c>
+      <c r="R80" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.13033919825229826</v>
+      </c>
+      <c r="S80" s="5">
+        <f t="shared" si="15"/>
+        <v>0.32002871361872381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
@@ -4253,20 +6191,44 @@
       <c r="I81" s="8">
         <v>10.639560925556237</v>
       </c>
-      <c r="J81" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K81" s="14">
-        <f t="shared" si="2"/>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="13">
+        <f t="shared" si="8"/>
         <v>19.493628248375821</v>
       </c>
-      <c r="L81" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81" s="13">
+        <f t="shared" si="9"/>
+        <v>10.292174484390559</v>
+      </c>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4487612666962073</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.2275723576279734</v>
+      </c>
+      <c r="P81" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3571978325193488</v>
+      </c>
+      <c r="Q81" s="5">
+        <f t="shared" si="13"/>
+        <v>0.48169171739881983</v>
+      </c>
+      <c r="R81" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.27031654797199478</v>
+      </c>
+      <c r="S81" s="5">
+        <f t="shared" si="15"/>
+        <v>0.37148263009457383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>2</v>
       </c>
@@ -4294,20 +6256,44 @@
       <c r="I82" s="8">
         <v>6.2887682791217623</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K82" s="14">
-        <f t="shared" si="2"/>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="13">
+        <f t="shared" si="8"/>
         <v>14.521656519497228</v>
       </c>
-      <c r="L82" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M82" s="13"/>
-    </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82" s="13">
+        <f t="shared" si="9"/>
+        <v>9.454120143656267</v>
+      </c>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3029292079680619</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13003773776125421</v>
+      </c>
+      <c r="P82" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1288397193667441</v>
+      </c>
+      <c r="Q82" s="5">
+        <f t="shared" si="13"/>
+        <v>0.12594849068683467</v>
+      </c>
+      <c r="R82" s="5">
+        <f t="shared" si="14"/>
+        <v>0.36792287205305135</v>
+      </c>
+      <c r="S82" s="5">
+        <f t="shared" si="15"/>
+        <v>-2.5985332361376085E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4335,20 +6321,44 @@
       <c r="I83" s="8">
         <v>9.3261851330153878</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K83" s="14">
-        <f t="shared" si="2"/>
+      <c r="J83" s="11">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <f t="shared" si="8"/>
         <v>17.069863102197147</v>
       </c>
-      <c r="L83" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M83" s="13"/>
-    </row>
-    <row r="84" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L83" s="13">
+        <f t="shared" si="9"/>
+        <v>16.98303499173911</v>
+      </c>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3382270109634578</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17537111789350118</v>
+      </c>
+      <c r="P83" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2999781590310346</v>
+      </c>
+      <c r="Q83" s="5">
+        <f t="shared" si="13"/>
+        <v>0.21205407297744952</v>
+      </c>
+      <c r="R83" s="5">
+        <f t="shared" si="14"/>
+        <v>0.44883096334138195</v>
+      </c>
+      <c r="S83" s="5">
+        <f t="shared" si="15"/>
+        <v>0.27188911568067375</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -4376,20 +6386,44 @@
       <c r="I84" s="8">
         <v>10.581641132676248</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K84" s="14">
-        <f t="shared" si="2"/>
+      <c r="J84" s="11">
+        <v>0</v>
+      </c>
+      <c r="K84" s="13">
+        <f t="shared" si="8"/>
         <v>19.351745728109506</v>
       </c>
-      <c r="L84" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M84" s="13"/>
-    </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L84" s="13">
+        <f t="shared" si="9"/>
+        <v>10.307383563427962</v>
+      </c>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4465072434991184</v>
+      </c>
+      <c r="O84" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.22648974266816937</v>
+      </c>
+      <c r="P84" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3548271554170512</v>
+      </c>
+      <c r="Q84" s="5">
+        <f t="shared" si="13"/>
+        <v>0.47619324544272651</v>
+      </c>
+      <c r="R84" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.26838436665786353</v>
+      </c>
+      <c r="S84" s="5">
+        <f t="shared" si="15"/>
+        <v>0.36735635586466947</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -4417,20 +6451,44 @@
       <c r="I85" s="8">
         <v>11.511188408739738</v>
       </c>
-      <c r="J85" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K85" s="14">
-        <f t="shared" si="2"/>
+      <c r="J85" s="11">
+        <v>0</v>
+      </c>
+      <c r="K85" s="13">
+        <f t="shared" si="8"/>
         <v>28.045383688970769</v>
       </c>
-      <c r="L85" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M85" s="13"/>
-    </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="13">
+        <f t="shared" si="9"/>
+        <v>7.5957224557860972</v>
+      </c>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5784758934965153</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="11"/>
+        <v>0.22008477172419177</v>
+      </c>
+      <c r="P85" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3913942889648576</v>
+      </c>
+      <c r="Q85" s="5">
+        <f t="shared" si="13"/>
+        <v>0.79811802511284902</v>
+      </c>
+      <c r="R85" s="5">
+        <f t="shared" si="14"/>
+        <v>0.52863300712048578</v>
+      </c>
+      <c r="S85" s="5">
+        <f t="shared" si="15"/>
+        <v>0.43100315984044241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -4461,17 +6519,41 @@
       <c r="J86" s="11">
         <v>1</v>
       </c>
-      <c r="K86" s="14">
-        <f t="shared" si="2"/>
+      <c r="K86" s="13">
+        <f t="shared" si="8"/>
         <v>-1.5329624243582032</v>
       </c>
-      <c r="L86" s="14">
-        <f t="shared" si="3"/>
+      <c r="L86" s="13">
+        <f t="shared" si="9"/>
         <v>8.6433334947655762</v>
       </c>
-      <c r="M86" s="13"/>
-    </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="5"/>
+      <c r="N86" s="5">
+        <f t="shared" si="10"/>
+        <v>0.57519949139588145</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="11"/>
+        <v>0.36643406098950265</v>
+      </c>
+      <c r="P86" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4839034187933293</v>
+      </c>
+      <c r="Q86" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.6492778882411987</v>
+      </c>
+      <c r="R86" s="5">
+        <f t="shared" si="14"/>
+        <v>0.78982777400788451</v>
+      </c>
+      <c r="S86" s="5">
+        <f t="shared" si="15"/>
+        <v>0.59201962137042419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
@@ -4502,17 +6584,41 @@
       <c r="J87" s="11">
         <v>2</v>
       </c>
-      <c r="K87" s="14">
-        <f t="shared" si="2"/>
+      <c r="K87" s="13">
+        <f t="shared" si="8"/>
         <v>-1.6355635880985666</v>
       </c>
-      <c r="L87" s="14">
-        <f t="shared" si="3"/>
+      <c r="L87" s="13">
+        <f t="shared" si="9"/>
         <v>7.2033550930371089</v>
       </c>
-      <c r="M87" s="13"/>
-    </row>
-    <row r="88" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M87" s="5"/>
+      <c r="N87" s="5">
+        <f t="shared" si="10"/>
+        <v>0.54095006669301593</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="11"/>
+        <v>0.35072217199842687</v>
+      </c>
+      <c r="P87" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4844960955925162</v>
+      </c>
+      <c r="Q87" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.7328260529114892</v>
+      </c>
+      <c r="R87" s="5">
+        <f t="shared" si="14"/>
+        <v>0.76178620849713574</v>
+      </c>
+      <c r="S87" s="5">
+        <f t="shared" si="15"/>
+        <v>0.5930512030230991</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -4543,17 +6649,41 @@
       <c r="J88" s="11">
         <v>1</v>
       </c>
-      <c r="K88" s="14">
-        <f t="shared" si="2"/>
+      <c r="K88" s="13">
+        <f t="shared" si="8"/>
         <v>-1.6955513774035258</v>
       </c>
-      <c r="L88" s="14">
-        <f t="shared" si="3"/>
+      <c r="L88" s="13">
+        <f t="shared" si="9"/>
         <v>8.965688785402957</v>
       </c>
-      <c r="M88" s="13"/>
-    </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M88" s="5"/>
+      <c r="N88" s="5">
+        <f t="shared" si="10"/>
+        <v>0.53513328990689946</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="11"/>
+        <v>0.35828968143318701</v>
+      </c>
+      <c r="P88" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4842583169930765</v>
+      </c>
+      <c r="Q88" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.7470155182526725</v>
+      </c>
+      <c r="R88" s="5">
+        <f t="shared" si="14"/>
+        <v>0.77529221097007628</v>
+      </c>
+      <c r="S88" s="5">
+        <f t="shared" si="15"/>
+        <v>0.59263733826423359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
@@ -4584,17 +6714,41 @@
       <c r="J89" s="11">
         <v>25</v>
       </c>
-      <c r="K89" s="14">
-        <f t="shared" si="2"/>
+      <c r="K89" s="13">
+        <f t="shared" si="8"/>
         <v>-1.4981878156918245</v>
       </c>
-      <c r="L89" s="14">
-        <f t="shared" si="3"/>
+      <c r="L89" s="13">
+        <f t="shared" si="9"/>
         <v>1.2669749761794769</v>
       </c>
-      <c r="M89" s="13"/>
-    </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M89" s="5"/>
+      <c r="N89" s="5">
+        <f t="shared" si="10"/>
+        <v>0.53560773288674435</v>
+      </c>
+      <c r="O89" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34066217257387332</v>
+      </c>
+      <c r="P89" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4744335475162906</v>
+      </c>
+      <c r="Q89" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.74585816041234</v>
+      </c>
+      <c r="R89" s="5">
+        <f t="shared" si="14"/>
+        <v>0.74383177074226492</v>
+      </c>
+      <c r="S89" s="5">
+        <f t="shared" si="15"/>
+        <v>0.57553686807893345</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -4625,17 +6779,41 @@
       <c r="J90" s="11">
         <v>2</v>
       </c>
-      <c r="K90" s="14">
-        <f t="shared" si="2"/>
+      <c r="K90" s="13">
+        <f t="shared" si="8"/>
         <v>-1.5065757002361164</v>
       </c>
-      <c r="L90" s="14">
-        <f t="shared" si="3"/>
+      <c r="L90" s="13">
+        <f t="shared" si="9"/>
         <v>7.1084038368374705</v>
       </c>
-      <c r="M90" s="13"/>
-    </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M90" s="5"/>
+      <c r="N90" s="5">
+        <f t="shared" si="10"/>
+        <v>0.53512792803885567</v>
+      </c>
+      <c r="O90" s="5">
+        <f t="shared" si="11"/>
+        <v>0.32990152251989852</v>
+      </c>
+      <c r="P90" s="5">
+        <f t="shared" si="12"/>
+        <v>1.470960709581965</v>
+      </c>
+      <c r="Q90" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.7470285980120597</v>
+      </c>
+      <c r="R90" s="5">
+        <f t="shared" si="14"/>
+        <v>0.72462685696021323</v>
+      </c>
+      <c r="S90" s="5">
+        <f t="shared" si="15"/>
+        <v>0.56949223143940364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -4666,17 +6844,41 @@
       <c r="J91" s="11">
         <v>2</v>
       </c>
-      <c r="K91" s="14">
-        <f t="shared" si="2"/>
+      <c r="K91" s="13">
+        <f t="shared" si="8"/>
         <v>-1.514927345524721</v>
       </c>
-      <c r="L91" s="14">
-        <f t="shared" si="3"/>
+      <c r="L91" s="13">
+        <f t="shared" si="9"/>
         <v>7.1385388442230626</v>
       </c>
-      <c r="M91" s="13"/>
-    </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M91" s="5"/>
+      <c r="N91" s="5">
+        <f t="shared" si="10"/>
+        <v>0.53285695656951493</v>
+      </c>
+      <c r="O91" s="5">
+        <f t="shared" si="11"/>
+        <v>0.34385261810573403</v>
+      </c>
+      <c r="P91" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4739601154707269</v>
+      </c>
+      <c r="Q91" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.7525684136419013</v>
+      </c>
+      <c r="R91" s="5">
+        <f t="shared" si="14"/>
+        <v>0.74952587203339305</v>
+      </c>
+      <c r="S91" s="5">
+        <f t="shared" si="15"/>
+        <v>0.57471283748981306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -4707,17 +6909,41 @@
       <c r="J92" s="11">
         <v>3</v>
       </c>
-      <c r="K92" s="14">
-        <f t="shared" si="2"/>
+      <c r="K92" s="13">
+        <f t="shared" si="8"/>
         <v>10.92230247734966</v>
       </c>
-      <c r="L92" s="14">
-        <f t="shared" si="3"/>
+      <c r="L92" s="13">
+        <f t="shared" si="9"/>
         <v>8.633924823047936</v>
       </c>
-      <c r="M92" s="13"/>
-    </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M92" s="5"/>
+      <c r="N92" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3544266346671496</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.13748984434660413</v>
+      </c>
+      <c r="P92" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4221732245469774</v>
+      </c>
+      <c r="Q92" s="5">
+        <f t="shared" si="13"/>
+        <v>0.25157149087672159</v>
+      </c>
+      <c r="R92" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.10954309170666712</v>
+      </c>
+      <c r="S92" s="5">
+        <f t="shared" si="15"/>
+        <v>0.48457533489258392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -4748,17 +6974,41 @@
       <c r="J93" s="11">
         <v>3</v>
       </c>
-      <c r="K93" s="14">
-        <f t="shared" si="2"/>
+      <c r="K93" s="13">
+        <f t="shared" si="8"/>
         <v>10.999097024421442</v>
       </c>
-      <c r="L93" s="14">
-        <f t="shared" si="3"/>
+      <c r="L93" s="13">
+        <f t="shared" si="9"/>
         <v>8.7660027914688374</v>
       </c>
-      <c r="M93" s="13"/>
-    </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="5"/>
+      <c r="N93" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3523095475529701</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.14826885304530713</v>
+      </c>
+      <c r="P93" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4274889112372868</v>
+      </c>
+      <c r="Q93" s="5">
+        <f t="shared" si="13"/>
+        <v>0.24640706127326531</v>
+      </c>
+      <c r="R93" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.12878077081306172</v>
+      </c>
+      <c r="S93" s="5">
+        <f t="shared" si="15"/>
+        <v>0.49382753587061345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -4789,17 +7039,41 @@
       <c r="J94" s="11">
         <v>3</v>
       </c>
-      <c r="K94" s="14">
-        <f t="shared" si="2"/>
+      <c r="K94" s="13">
+        <f t="shared" si="8"/>
         <v>12.350905655614227</v>
       </c>
-      <c r="L94" s="14">
-        <f t="shared" si="3"/>
+      <c r="L94" s="13">
+        <f t="shared" si="9"/>
         <v>8.5593961996162164</v>
       </c>
-      <c r="M94" s="13"/>
-    </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="5"/>
+      <c r="N94" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3854179341655919</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.12682200878542985</v>
+      </c>
+      <c r="P94" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4190264531346866</v>
+      </c>
+      <c r="Q94" s="5">
+        <f t="shared" si="13"/>
+        <v>0.32717177369331174</v>
+      </c>
+      <c r="R94" s="5">
+        <f t="shared" si="14"/>
+        <v>-9.0503827241619428E-2</v>
+      </c>
+      <c r="S94" s="5">
+        <f t="shared" si="15"/>
+        <v>0.47909823226508924</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -4827,20 +7101,44 @@
       <c r="I95" s="8">
         <v>12.147243121841544</v>
       </c>
-      <c r="J95" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K95" s="14">
-        <f t="shared" si="2"/>
+      <c r="J95" s="11">
+        <v>0</v>
+      </c>
+      <c r="K95" s="13">
+        <f t="shared" si="8"/>
         <v>14.074714295011987</v>
       </c>
-      <c r="L95" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M95" s="13"/>
-    </row>
-    <row r="96" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L95" s="13">
+        <f t="shared" si="9"/>
+        <v>16.106295002523382</v>
+      </c>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4240912359816957</v>
+      </c>
+      <c r="O95" s="5">
+        <f t="shared" si="11"/>
+        <v>-9.3235244658461738E-2</v>
+      </c>
+      <c r="P95" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4147518504899375</v>
+      </c>
+      <c r="Q95" s="5">
+        <f t="shared" si="13"/>
+        <v>0.42151155944175239</v>
+      </c>
+      <c r="R95" s="5">
+        <f t="shared" si="14"/>
+        <v>-3.0560338136306309E-2</v>
+      </c>
+      <c r="S95" s="5">
+        <f t="shared" si="15"/>
+        <v>0.47165808669696641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -4871,17 +7169,41 @@
       <c r="J96" s="11">
         <v>2</v>
       </c>
-      <c r="K96" s="14">
-        <f t="shared" si="2"/>
+      <c r="K96" s="13">
+        <f t="shared" si="8"/>
         <v>11.186973430757694</v>
       </c>
-      <c r="L96" s="14">
-        <f t="shared" si="3"/>
+      <c r="L96" s="13">
+        <f t="shared" si="9"/>
         <v>10.676030849124952</v>
       </c>
-      <c r="M96" s="13"/>
-    </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M96" s="5"/>
+      <c r="N96" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3496371926348054</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.15217182075244845</v>
+      </c>
+      <c r="P96" s="5">
+        <f t="shared" si="12"/>
+        <v>1.4223572508464604</v>
+      </c>
+      <c r="Q96" s="5">
+        <f t="shared" si="13"/>
+        <v>0.23988810947488373</v>
+      </c>
+      <c r="R96" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.13574653570029482</v>
+      </c>
+      <c r="S96" s="5">
+        <f t="shared" si="15"/>
+        <v>0.48489564126262708</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -4912,17 +7234,41 @@
       <c r="J97" s="11">
         <v>5</v>
       </c>
-      <c r="K97" s="14">
-        <f t="shared" si="2"/>
+      <c r="K97" s="13">
+        <f t="shared" si="8"/>
         <v>23.61474188001371</v>
       </c>
-      <c r="L97" s="14">
-        <f t="shared" si="3"/>
+      <c r="L97" s="13">
+        <f t="shared" si="9"/>
         <v>5.000069319531061</v>
       </c>
-      <c r="M97" s="13"/>
-    </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="5"/>
+      <c r="N97" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5230121723410179</v>
+      </c>
+      <c r="O97" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.17807768352136491</v>
+      </c>
+      <c r="P97" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3213254480606036</v>
+      </c>
+      <c r="Q97" s="5">
+        <f t="shared" si="13"/>
+        <v>0.66281963255506504</v>
+      </c>
+      <c r="R97" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.1819816477456796</v>
+      </c>
+      <c r="S97" s="5">
+        <f t="shared" si="15"/>
+        <v>0.30904506935975695</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -4953,17 +7299,41 @@
       <c r="J98" s="11">
         <v>5</v>
       </c>
-      <c r="K98" s="14">
-        <f t="shared" si="2"/>
+      <c r="K98" s="13">
+        <f t="shared" si="8"/>
         <v>21.457072024715664</v>
       </c>
-      <c r="L98" s="14">
-        <f t="shared" si="3"/>
+      <c r="L98" s="13">
+        <f t="shared" si="9"/>
         <v>5.0363365073634316</v>
       </c>
-      <c r="M98" s="13"/>
-    </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="5"/>
+      <c r="N98" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4857297301319545</v>
+      </c>
+      <c r="O98" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.19436378945750202</v>
+      </c>
+      <c r="P98" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3544876853271919</v>
+      </c>
+      <c r="Q98" s="5">
+        <f t="shared" si="13"/>
+        <v>0.57187271452602129</v>
+      </c>
+      <c r="R98" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.211048038603111</v>
+      </c>
+      <c r="S98" s="5">
+        <f t="shared" si="15"/>
+        <v>0.36676549231676053</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -4994,17 +7364,41 @@
       <c r="J99" s="11">
         <v>5</v>
       </c>
-      <c r="K99" s="14">
-        <f t="shared" si="2"/>
+      <c r="K99" s="13">
+        <f t="shared" si="8"/>
         <v>20.951478184775674</v>
       </c>
-      <c r="L99" s="14">
-        <f t="shared" si="3"/>
+      <c r="L99" s="13">
+        <f t="shared" si="9"/>
         <v>5.0427585039186855</v>
       </c>
-      <c r="M99" s="13"/>
-    </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M99" s="5"/>
+      <c r="N99" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4771133968530543</v>
+      </c>
+      <c r="O99" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.19559599393743018</v>
+      </c>
+      <c r="P99" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3536262623797057</v>
+      </c>
+      <c r="Q99" s="5">
+        <f t="shared" si="13"/>
+        <v>0.55085400142689511</v>
+      </c>
+      <c r="R99" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.21324719763905947</v>
+      </c>
+      <c r="S99" s="5">
+        <f t="shared" si="15"/>
+        <v>0.36526614543994818</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -5032,20 +7426,44 @@
       <c r="I100" s="8">
         <v>10.494249895535079</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K100" s="14">
-        <f t="shared" si="2"/>
+      <c r="J100" s="11">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
+        <f t="shared" si="8"/>
         <v>20.929870737878552</v>
       </c>
-      <c r="L100" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M100" s="13"/>
-    </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L100" s="13">
+        <f t="shared" si="9"/>
+        <v>9.5741422779819363</v>
+      </c>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4757475037740324</v>
+      </c>
+      <c r="O100" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.1974169204554983</v>
+      </c>
+      <c r="P100" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3512255283706442</v>
+      </c>
+      <c r="Q100" s="5">
+        <f t="shared" si="13"/>
+        <v>0.54752203714200054</v>
+      </c>
+      <c r="R100" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.21649706977573693</v>
+      </c>
+      <c r="S100" s="5">
+        <f t="shared" si="15"/>
+        <v>0.36108755575987539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -5076,17 +7494,41 @@
       <c r="J101" s="11">
         <v>9</v>
       </c>
-      <c r="K101" s="14">
-        <f t="shared" si="2"/>
+      <c r="K101" s="13">
+        <f t="shared" si="8"/>
         <v>22.050672425406979</v>
       </c>
-      <c r="L101" s="14">
-        <f t="shared" si="3"/>
+      <c r="L101" s="13">
+        <f t="shared" si="9"/>
         <v>2.85498332789005</v>
       </c>
-      <c r="M101" s="13"/>
-    </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="5"/>
+      <c r="N101" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4046585550089139</v>
+      </c>
+      <c r="O101" s="5">
+        <f t="shared" si="11"/>
+        <v>0.19299208986220084</v>
+      </c>
+      <c r="P101" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2001582526246657</v>
+      </c>
+      <c r="Q101" s="5">
+        <f t="shared" si="13"/>
+        <v>0.37410741049663571</v>
+      </c>
+      <c r="R101" s="5">
+        <f t="shared" si="14"/>
+        <v>0.48027973694868115</v>
+      </c>
+      <c r="S101" s="5">
+        <f t="shared" si="15"/>
+        <v>9.8147906033485235E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -5117,17 +7559,41 @@
       <c r="J102" s="11">
         <v>12</v>
       </c>
-      <c r="K102" s="14">
-        <f t="shared" si="2"/>
+      <c r="K102" s="13">
+        <f t="shared" si="8"/>
         <v>24.850494580038369</v>
       </c>
-      <c r="L102" s="14">
-        <f t="shared" si="3"/>
+      <c r="L102" s="13">
+        <f t="shared" si="9"/>
         <v>2.4007675807269493</v>
       </c>
-      <c r="M102" s="13"/>
-    </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M102" s="5"/>
+      <c r="N102" s="5">
+        <f t="shared" si="10"/>
+        <v>1.4546320470734884</v>
+      </c>
+      <c r="O102" s="5">
+        <f t="shared" si="11"/>
+        <v>0.18207496906254639</v>
+      </c>
+      <c r="P102" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1718651381698597</v>
+      </c>
+      <c r="Q102" s="5">
+        <f t="shared" si="13"/>
+        <v>0.49601291928642849</v>
+      </c>
+      <c r="R102" s="5">
+        <f t="shared" si="14"/>
+        <v>0.46079556427751805</v>
+      </c>
+      <c r="S102" s="5">
+        <f t="shared" si="15"/>
+        <v>4.8902418765119061E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -5158,17 +7624,41 @@
       <c r="J103" s="11">
         <v>13</v>
       </c>
-      <c r="K103" s="14">
-        <f t="shared" si="2"/>
+      <c r="K103" s="13">
+        <f t="shared" si="8"/>
         <v>13.687418443973154</v>
       </c>
-      <c r="L103" s="14">
-        <f t="shared" si="3"/>
+      <c r="L103" s="13">
+        <f t="shared" si="9"/>
         <v>2.4930253253744592</v>
       </c>
-      <c r="M103" s="13"/>
-    </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="5"/>
+      <c r="N103" s="5">
+        <f t="shared" si="10"/>
+        <v>1.3609320626822488</v>
+      </c>
+      <c r="O103" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.12654539195202036</v>
+      </c>
+      <c r="P103" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1165238608642334</v>
+      </c>
+      <c r="Q103" s="5">
+        <f t="shared" si="13"/>
+        <v>0.26744085439951232</v>
+      </c>
+      <c r="R103" s="5">
+        <f t="shared" si="14"/>
+        <v>-9.0010139368707789E-2</v>
+      </c>
+      <c r="S103" s="5">
+        <f t="shared" si="15"/>
+        <v>-4.7421659353697292E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -5199,17 +7689,41 @@
       <c r="J104" s="11">
         <v>3</v>
       </c>
-      <c r="K104" s="14">
-        <f t="shared" si="2"/>
+      <c r="K104" s="13">
+        <f t="shared" si="8"/>
         <v>8.4604631555920058</v>
       </c>
-      <c r="L104" s="14">
-        <f t="shared" si="3"/>
+      <c r="L104" s="13">
+        <f t="shared" si="9"/>
         <v>8.4822144139736597</v>
       </c>
-      <c r="M104" s="13"/>
-    </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M104" s="5"/>
+      <c r="N104" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1028848668332545</v>
+      </c>
+      <c r="O104" s="5">
+        <f t="shared" si="11"/>
+        <v>6.7878857080736529E-2</v>
+      </c>
+      <c r="P104" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3787478904013177</v>
+      </c>
+      <c r="Q104" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.36204036458559552</v>
+      </c>
+      <c r="R104" s="5">
+        <f t="shared" si="14"/>
+        <v>0.25698571321317054</v>
+      </c>
+      <c r="S104" s="5">
+        <f t="shared" si="15"/>
+        <v>0.4089915124325092</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -5240,17 +7754,41 @@
       <c r="J105" s="11">
         <v>5</v>
       </c>
-      <c r="K105" s="14">
-        <f t="shared" si="2"/>
+      <c r="K105" s="13">
+        <f t="shared" si="8"/>
         <v>13.181208196770051</v>
       </c>
-      <c r="L105" s="14">
-        <f t="shared" si="3"/>
+      <c r="L105" s="13">
+        <f t="shared" si="9"/>
         <v>4.8869374086970954</v>
       </c>
-      <c r="M105" s="13"/>
-    </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M105" s="5"/>
+      <c r="N105" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2478672050165325</v>
+      </c>
+      <c r="O105" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.10926939582609783</v>
+      </c>
+      <c r="P105" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2196646989977711</v>
+      </c>
+      <c r="Q105" s="5">
+        <f t="shared" si="13"/>
+        <v>-8.3699490995569302E-3</v>
+      </c>
+      <c r="R105" s="5">
+        <f t="shared" si="14"/>
+        <v>-5.917705638271812E-2</v>
+      </c>
+      <c r="S105" s="5">
+        <f t="shared" si="15"/>
+        <v>0.13209978708398787</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -5281,17 +7819,41 @@
       <c r="J106" s="11">
         <v>3</v>
       </c>
-      <c r="K106" s="14">
-        <f t="shared" si="2"/>
+      <c r="K106" s="13">
+        <f t="shared" si="8"/>
         <v>9.0874389624719747</v>
       </c>
-      <c r="L106" s="14">
-        <f t="shared" si="3"/>
+      <c r="L106" s="13">
+        <f t="shared" si="9"/>
         <v>7.710450453211827</v>
       </c>
-      <c r="M106" s="13"/>
-    </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M106" s="5"/>
+      <c r="N106" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1667991865139475</v>
+      </c>
+      <c r="O106" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.25419562281746516</v>
+      </c>
+      <c r="P106" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3843786105847335</v>
+      </c>
+      <c r="Q106" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.20612755285812276</v>
+      </c>
+      <c r="R106" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.31783203356034173</v>
+      </c>
+      <c r="S106" s="5">
+        <f t="shared" si="15"/>
+        <v>0.41879204392037567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -5322,17 +7884,41 @@
       <c r="J107" s="11">
         <v>10</v>
       </c>
-      <c r="K107" s="14">
-        <f t="shared" si="2"/>
+      <c r="K107" s="13">
+        <f t="shared" si="8"/>
         <v>14.24959749152932</v>
       </c>
-      <c r="L107" s="14">
-        <f t="shared" si="3"/>
+      <c r="L107" s="13">
+        <f t="shared" si="9"/>
         <v>2.5288012714046775</v>
       </c>
-      <c r="M107" s="13"/>
-    </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M107" s="5"/>
+      <c r="N107" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2959249589940036</v>
+      </c>
+      <c r="O107" s="5">
+        <f t="shared" si="11"/>
+        <v>0.12314941396445682</v>
+      </c>
+      <c r="P107" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1534186375765731</v>
+      </c>
+      <c r="Q107" s="5">
+        <f t="shared" si="13"/>
+        <v>0.10886230159743451</v>
+      </c>
+      <c r="R107" s="5">
+        <f t="shared" si="14"/>
+        <v>0.35562903627577108</v>
+      </c>
+      <c r="S107" s="5">
+        <f t="shared" si="15"/>
+        <v>1.6795422854023911E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -5363,17 +7949,41 @@
       <c r="J108" s="11">
         <v>5</v>
       </c>
-      <c r="K108" s="14">
-        <f t="shared" si="2"/>
+      <c r="K108" s="13">
+        <f t="shared" si="8"/>
         <v>7.9675183601435187</v>
       </c>
-      <c r="L108" s="14">
-        <f t="shared" si="3"/>
+      <c r="L108" s="13">
+        <f t="shared" si="9"/>
         <v>5.3287401576858446</v>
       </c>
-      <c r="M108" s="13"/>
-    </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M108" s="5"/>
+      <c r="N108" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1196624986098849</v>
+      </c>
+      <c r="O108" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.2554539226896605</v>
+      </c>
+      <c r="P108" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3172199224455658</v>
+      </c>
+      <c r="Q108" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.32111295180093247</v>
+      </c>
+      <c r="R108" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.32007776596835286</v>
+      </c>
+      <c r="S108" s="5">
+        <f t="shared" si="15"/>
+        <v>0.3018992102593655</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5404,17 +8014,41 @@
       <c r="J109" s="11">
         <v>10</v>
       </c>
-      <c r="K109" s="14">
-        <f t="shared" si="2"/>
+      <c r="K109" s="13">
+        <f t="shared" si="8"/>
         <v>13.489454099342144</v>
       </c>
-      <c r="L109" s="14">
-        <f t="shared" si="3"/>
+      <c r="L109" s="13">
+        <f t="shared" si="9"/>
         <v>2.556734626829674</v>
       </c>
-      <c r="M109" s="13"/>
-    </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M109" s="5"/>
+      <c r="N109" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2760869677230775</v>
+      </c>
+      <c r="O109" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17809555154086837</v>
+      </c>
+      <c r="P109" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1893890518553312</v>
+      </c>
+      <c r="Q109" s="5">
+        <f t="shared" si="13"/>
+        <v>6.0469437314010575E-2</v>
+      </c>
+      <c r="R109" s="5">
+        <f t="shared" si="14"/>
+        <v>0.45369335669495819</v>
+      </c>
+      <c r="S109" s="5">
+        <f t="shared" si="15"/>
+        <v>7.9403609069505804E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -5442,20 +8076,44 @@
       <c r="I110" s="8">
         <v>6.4322958572207396</v>
       </c>
-      <c r="J110" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K110" s="14">
-        <f t="shared" si="2"/>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="13">
+        <f t="shared" si="8"/>
         <v>14.945491048389874</v>
       </c>
-      <c r="L110" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M110" s="13"/>
-    </row>
-    <row r="111" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L110" s="13">
+        <f t="shared" si="9"/>
+        <v>6.0278481371409871</v>
+      </c>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2509062862842641</v>
+      </c>
+      <c r="O110" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.56123237844333396</v>
+      </c>
+      <c r="P110" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1386401385270186</v>
+      </c>
+      <c r="Q110" s="5">
+        <f t="shared" si="13"/>
+        <v>-9.5640378001768714E-4</v>
+      </c>
+      <c r="R110" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.86581142050616489</v>
+      </c>
+      <c r="S110" s="5">
+        <f t="shared" si="15"/>
+        <v>-8.9272450393573528E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -5486,17 +8144,41 @@
       <c r="J111" s="11">
         <v>8</v>
       </c>
-      <c r="K111" s="14">
-        <f t="shared" si="2"/>
+      <c r="K111" s="13">
+        <f t="shared" si="8"/>
         <v>66.222874790291286</v>
       </c>
-      <c r="L111" s="14">
-        <f t="shared" si="3"/>
+      <c r="L111" s="13">
+        <f t="shared" si="9"/>
         <v>3.8483204476068749</v>
       </c>
-      <c r="M111" s="13"/>
-    </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M111" s="5"/>
+      <c r="N111" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8720608490592983</v>
+      </c>
+      <c r="O111" s="5">
+        <f t="shared" si="11"/>
+        <v>0.17920279915304932</v>
+      </c>
+      <c r="P111" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1484101392744528</v>
+      </c>
+      <c r="Q111" s="5">
+        <f t="shared" si="13"/>
+        <v>1.5142901776344964</v>
+      </c>
+      <c r="R111" s="5">
+        <f t="shared" si="14"/>
+        <v>0.45566950077739332</v>
+      </c>
+      <c r="S111" s="5">
+        <f t="shared" si="15"/>
+        <v>8.0778976142811595E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -5527,17 +8209,41 @@
       <c r="J112" s="11">
         <v>8</v>
       </c>
-      <c r="K112" s="14">
-        <f t="shared" si="2"/>
+      <c r="K112" s="13">
+        <f t="shared" si="8"/>
         <v>65.189996831533435</v>
       </c>
-      <c r="L112" s="14">
-        <f t="shared" si="3"/>
+      <c r="L112" s="13">
+        <f t="shared" si="9"/>
         <v>3.799288598424134</v>
       </c>
-      <c r="M112" s="13"/>
-    </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="5"/>
+      <c r="N112" s="5">
+        <f t="shared" si="10"/>
+        <v>1.8658555507633194</v>
+      </c>
+      <c r="O112" s="5">
+        <f t="shared" si="11"/>
+        <v>0.18377842236453232</v>
+      </c>
+      <c r="P112" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1477769794331805</v>
+      </c>
+      <c r="Q112" s="5">
+        <f t="shared" si="13"/>
+        <v>1.4991529515830078</v>
+      </c>
+      <c r="R112" s="5">
+        <f t="shared" si="14"/>
+        <v>0.46383577779921936</v>
+      </c>
+      <c r="S112" s="5">
+        <f t="shared" si="15"/>
+        <v>6.9758533359100816E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -5568,17 +8274,41 @@
       <c r="J113" s="11">
         <v>11</v>
       </c>
-      <c r="K113" s="14">
-        <f t="shared" si="2"/>
+      <c r="K113" s="13">
+        <f t="shared" si="8"/>
         <v>42.888451302290719</v>
       </c>
-      <c r="L113" s="14">
-        <f t="shared" si="3"/>
+      <c r="L113" s="13">
+        <f t="shared" si="9"/>
         <v>1.8773370254381487</v>
       </c>
-      <c r="M113" s="13"/>
-    </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M113" s="5"/>
+      <c r="N113" s="5">
+        <f t="shared" si="10"/>
+        <v>1.6505825138310055</v>
+      </c>
+      <c r="O113" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.62316543339643382</v>
+      </c>
+      <c r="P113" s="5">
+        <f t="shared" si="12"/>
+        <v>0.16033902809874651</v>
+      </c>
+      <c r="Q113" s="5">
+        <f t="shared" si="13"/>
+        <v>0.97401516329222593</v>
+      </c>
+      <c r="R113" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.97634554016132402</v>
+      </c>
+      <c r="S113" s="5">
+        <f t="shared" si="15"/>
+        <v>-1.7117060237835422</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -5606,20 +8336,44 @@
       <c r="I114" s="8">
         <v>6.786518423812451</v>
       </c>
-      <c r="J114" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K114" s="14">
-        <f t="shared" si="2"/>
+      <c r="J114" s="11">
+        <v>0</v>
+      </c>
+      <c r="K114" s="13">
+        <f t="shared" si="8"/>
         <v>-18.905411266818071</v>
       </c>
-      <c r="L114" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M114" s="13"/>
-    </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L114" s="13">
+        <f t="shared" si="9"/>
+        <v>6.7345515827535793</v>
+      </c>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1337673224256357</v>
+      </c>
+      <c r="O114" s="5">
+        <f t="shared" si="11"/>
+        <v>0.64633041487259146</v>
+      </c>
+      <c r="P114" s="5">
+        <f t="shared" si="12"/>
+        <v>1.1619211591364542</v>
+      </c>
+      <c r="Q114" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.28670559596861128</v>
+      </c>
+      <c r="R114" s="5">
+        <f t="shared" si="14"/>
+        <v>1.2893687234182545</v>
+      </c>
+      <c r="S114" s="5">
+        <f t="shared" si="15"/>
+        <v>3.1594458778293054E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -5647,20 +8401,44 @@
       <c r="I115" s="8">
         <v>8.5021784532276055</v>
       </c>
-      <c r="J115" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K115" s="14">
-        <f t="shared" si="2"/>
+      <c r="J115" s="11">
+        <v>0</v>
+      </c>
+      <c r="K115" s="13">
+        <f t="shared" si="8"/>
         <v>44.792682843333175</v>
       </c>
-      <c r="L115" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M115" s="13"/>
-    </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L115" s="13">
+        <f t="shared" si="9"/>
+        <v>2.3817012778567861</v>
+      </c>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5">
+        <f t="shared" si="10"/>
+        <v>1.698327839465168</v>
+      </c>
+      <c r="O115" s="5">
+        <f t="shared" si="11"/>
+        <v>4.2347965969255899E-2</v>
+      </c>
+      <c r="P115" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2598043428827248</v>
+      </c>
+      <c r="Q115" s="5">
+        <f t="shared" si="13"/>
+        <v>1.0904852752116794</v>
+      </c>
+      <c r="R115" s="5">
+        <f t="shared" si="14"/>
+        <v>0.21141982638333012</v>
+      </c>
+      <c r="S115" s="5">
+        <f t="shared" si="15"/>
+        <v>0.20196471217205894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -5691,17 +8469,41 @@
       <c r="J116" s="11">
         <v>4</v>
       </c>
-      <c r="K116" s="14">
-        <f t="shared" si="2"/>
+      <c r="K116" s="13">
+        <f t="shared" si="8"/>
         <v>-3.3244044635752639</v>
       </c>
-      <c r="L116" s="14">
-        <f t="shared" si="3"/>
+      <c r="L116" s="13">
+        <f t="shared" si="9"/>
         <v>3.9510706761298766</v>
       </c>
-      <c r="M116" s="13"/>
-    </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M116" s="5"/>
+      <c r="N116" s="5">
+        <f t="shared" si="10"/>
+        <v>0.7766756410147051</v>
+      </c>
+      <c r="O116" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.15600235342043403</v>
+      </c>
+      <c r="P116" s="5">
+        <f t="shared" si="12"/>
+        <v>1.279902608915404</v>
+      </c>
+      <c r="Q116" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.1577962744177352</v>
+      </c>
+      <c r="R116" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.14258302320420929</v>
+      </c>
+      <c r="S116" s="5">
+        <f t="shared" si="15"/>
+        <v>0.23694668298370339</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -5732,17 +8534,41 @@
       <c r="J117" s="11">
         <v>3</v>
       </c>
-      <c r="K117" s="14">
-        <f t="shared" si="2"/>
+      <c r="K117" s="13">
+        <f t="shared" si="8"/>
         <v>-3.3416923894665747</v>
       </c>
-      <c r="L117" s="14">
-        <f t="shared" si="3"/>
+      <c r="L117" s="13">
+        <f t="shared" si="9"/>
         <v>4.6461229234889929</v>
       </c>
-      <c r="M117" s="13"/>
-    </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M117" s="5"/>
+      <c r="N117" s="5">
+        <f t="shared" si="10"/>
+        <v>0.77264902861811502</v>
+      </c>
+      <c r="O117" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.15201458978142224</v>
+      </c>
+      <c r="P117" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2766322204459013</v>
+      </c>
+      <c r="Q117" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.1676188065768109</v>
+      </c>
+      <c r="R117" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.13546592001004559</v>
+      </c>
+      <c r="S117" s="5">
+        <f t="shared" si="15"/>
+        <v>0.23125441909402941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -5773,17 +8599,41 @@
       <c r="J118" s="11">
         <v>3</v>
       </c>
-      <c r="K118" s="14">
-        <f t="shared" si="2"/>
+      <c r="K118" s="13">
+        <f t="shared" si="8"/>
         <v>-3.2848741811864492</v>
       </c>
-      <c r="L118" s="14">
-        <f t="shared" si="3"/>
+      <c r="L118" s="13">
+        <f t="shared" si="9"/>
         <v>4.684153544399936</v>
       </c>
-      <c r="M118" s="13"/>
-    </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M118" s="5"/>
+      <c r="N118" s="5">
+        <f t="shared" si="10"/>
+        <v>0.76039844564625636</v>
+      </c>
+      <c r="O118" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.16306394146094569</v>
+      </c>
+      <c r="P118" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2805817585063863</v>
+      </c>
+      <c r="Q118" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.1975029209033874</v>
+      </c>
+      <c r="R118" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.15518608982213153</v>
+      </c>
+      <c r="S118" s="5">
+        <f t="shared" si="15"/>
+        <v>0.23812877456960715</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -5811,20 +8661,44 @@
       <c r="I119" s="8">
         <v>5.3792995686810183</v>
       </c>
-      <c r="J119" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K119" s="14">
-        <f t="shared" si="2"/>
+      <c r="J119" s="11">
+        <v>0</v>
+      </c>
+      <c r="K119" s="13">
+        <f t="shared" si="8"/>
         <v>5.7342299350788979</v>
       </c>
-      <c r="L119" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M119" s="13"/>
-    </row>
-    <row r="120" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L119" s="13">
+        <f t="shared" si="9"/>
+        <v>31.350490907914608</v>
+      </c>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5">
+        <f t="shared" si="10"/>
+        <v>0.89257566119334408</v>
+      </c>
+      <c r="O119" s="5">
+        <f t="shared" si="11"/>
+        <v>-2.4976572050632445E-2</v>
+      </c>
+      <c r="P119" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0609998571485209</v>
+      </c>
+      <c r="Q119" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.87506936571247007</v>
+      </c>
+      <c r="R119" s="5">
+        <f t="shared" si="14"/>
+        <v>9.1263335687787869E-2</v>
+      </c>
+      <c r="S119" s="5">
+        <f t="shared" si="15"/>
+        <v>-0.14406378132434439</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -5852,20 +8726,44 @@
       <c r="I120" s="8">
         <v>5.75063609508239</v>
       </c>
-      <c r="J120" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K120" s="14">
-        <f t="shared" si="2"/>
+      <c r="J120" s="11">
+        <v>0</v>
+      </c>
+      <c r="K120" s="13">
+        <f t="shared" si="8"/>
         <v>5.9844517171950091</v>
       </c>
-      <c r="L120" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M120" s="13"/>
-    </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L120" s="13">
+        <f t="shared" si="9"/>
+        <v>31.534595351261032</v>
+      </c>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5">
+        <f t="shared" si="10"/>
+        <v>0.90927638287938328</v>
+      </c>
+      <c r="O120" s="5">
+        <f t="shared" si="11"/>
+        <v>-2.4200833087439279E-2</v>
+      </c>
+      <c r="P120" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0899900126578754</v>
+      </c>
+      <c r="Q120" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.83432956766788713</v>
+      </c>
+      <c r="R120" s="5">
+        <f t="shared" si="14"/>
+        <v>9.2647824527288758E-2</v>
+      </c>
+      <c r="S120" s="5">
+        <f t="shared" si="15"/>
+        <v>-9.3605061542034504E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -5893,20 +8791,44 @@
       <c r="I121" s="8">
         <v>36.557405956815067</v>
       </c>
-      <c r="J121" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K121" s="14">
-        <f t="shared" si="2"/>
+      <c r="J121" s="11">
+        <v>0</v>
+      </c>
+      <c r="K121" s="13">
+        <f t="shared" si="8"/>
         <v>-6.0538938214162306</v>
       </c>
-      <c r="L121" s="14" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M121" s="13"/>
-    </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L121" s="13">
+        <f t="shared" si="9"/>
+        <v>42.069751098960303</v>
+      </c>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5">
+        <f t="shared" si="10"/>
+        <v>0.57183299622420247</v>
+      </c>
+      <c r="O121" s="5">
+        <f t="shared" si="11"/>
+        <v>0.56826643230050322</v>
+      </c>
+      <c r="P121" s="5">
+        <f t="shared" si="12"/>
+        <v>1.8932494981520878</v>
+      </c>
+      <c r="Q121" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.6574901281665497</v>
+      </c>
+      <c r="R121" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1500451651517398</v>
+      </c>
+      <c r="S121" s="5">
+        <f t="shared" si="15"/>
+        <v>1.3045055928818834</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
@@ -5937,17 +8859,41 @@
       <c r="J122" s="11">
         <v>5</v>
       </c>
-      <c r="K122" s="14">
-        <f t="shared" si="2"/>
+      <c r="K122" s="13">
+        <f t="shared" si="8"/>
         <v>-6.1315385628378145</v>
       </c>
-      <c r="L122" s="14">
-        <f t="shared" si="3"/>
+      <c r="L122" s="13">
+        <f t="shared" si="9"/>
         <v>12.21214642849044</v>
       </c>
-      <c r="M122" s="13"/>
-    </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M122" s="5"/>
+      <c r="N122" s="5">
+        <f t="shared" si="10"/>
+        <v>0.57315584379473616</v>
+      </c>
+      <c r="O122" s="5">
+        <f t="shared" si="11"/>
+        <v>0.56795822625555403</v>
+      </c>
+      <c r="P122" s="5">
+        <f t="shared" si="12"/>
+        <v>1.894531663802387</v>
+      </c>
+      <c r="Q122" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.6542631692434295</v>
+      </c>
+      <c r="R122" s="5">
+        <f t="shared" si="14"/>
+        <v>1.1494950988926693</v>
+      </c>
+      <c r="S122" s="5">
+        <f t="shared" si="15"/>
+        <v>1.3067372620856612</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
@@ -5978,17 +8924,41 @@
       <c r="J123" s="11">
         <v>2</v>
       </c>
-      <c r="K123" s="14">
-        <f t="shared" si="2"/>
+      <c r="K123" s="13">
+        <f t="shared" si="8"/>
         <v>6.1787663217619233</v>
       </c>
-      <c r="L123" s="14">
-        <f t="shared" si="3"/>
+      <c r="L123" s="13">
+        <f t="shared" si="9"/>
         <v>7.6017326384498203</v>
       </c>
-      <c r="M123" s="13"/>
-    </row>
-    <row r="124" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M123" s="5"/>
+      <c r="N123" s="5">
+        <f t="shared" si="10"/>
+        <v>0.91255384941445383</v>
+      </c>
+      <c r="O123" s="5">
+        <f t="shared" si="11"/>
+        <v>-3.1230999365605413E-2</v>
+      </c>
+      <c r="P123" s="5">
+        <f t="shared" si="12"/>
+        <v>1.0548779753773039</v>
+      </c>
+      <c r="Q123" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.82633450450554058</v>
+      </c>
+      <c r="R123" s="5">
+        <f t="shared" si="14"/>
+        <v>8.0100837443009845E-2</v>
+      </c>
+      <c r="S123" s="5">
+        <f t="shared" si="15"/>
+        <v>-0.15471920249773519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -6019,17 +8989,41 @@
       <c r="J124" s="11">
         <v>7</v>
       </c>
-      <c r="K124" s="14">
-        <f t="shared" si="2"/>
+      <c r="K124" s="13">
+        <f t="shared" si="8"/>
         <v>-6.1178054371933506</v>
       </c>
-      <c r="L124" s="14">
-        <f t="shared" si="3"/>
+      <c r="L124" s="13">
+        <f t="shared" si="9"/>
         <v>3.7309476389005458</v>
       </c>
-      <c r="M124" s="13"/>
-    </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M124" s="5"/>
+      <c r="N124" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0480138954098404</v>
+      </c>
+      <c r="O124" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13836043098764167</v>
+      </c>
+      <c r="P124" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3207790850517103</v>
+      </c>
+      <c r="Q124" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.49589280140385966</v>
+      </c>
+      <c r="R124" s="5">
+        <f t="shared" si="14"/>
+        <v>0.3827766778218018</v>
+      </c>
+      <c r="S124" s="5">
+        <f t="shared" si="15"/>
+        <v>0.30809409902238599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -6060,17 +9054,41 @@
       <c r="J125" s="11">
         <v>7</v>
       </c>
-      <c r="K125" s="14">
-        <f t="shared" si="2"/>
+      <c r="K125" s="13">
+        <f t="shared" si="8"/>
         <v>-7.5893727651844003</v>
       </c>
-      <c r="L125" s="14">
-        <f t="shared" si="3"/>
+      <c r="L125" s="13">
+        <f t="shared" si="9"/>
         <v>3.739350654202275</v>
       </c>
-      <c r="M125" s="13"/>
-    </row>
-    <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M125" s="5"/>
+      <c r="N125" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0241675682606606</v>
+      </c>
+      <c r="O125" s="5">
+        <f t="shared" si="11"/>
+        <v>0.14358454189553038</v>
+      </c>
+      <c r="P125" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3305073760254045</v>
+      </c>
+      <c r="Q125" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.55406361404453441</v>
+      </c>
+      <c r="R125" s="5">
+        <f t="shared" si="14"/>
+        <v>0.39210033383427645</v>
+      </c>
+      <c r="S125" s="5">
+        <f t="shared" si="15"/>
+        <v>0.3250266438665837</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -6101,17 +9119,41 @@
       <c r="J126" s="11">
         <v>4</v>
       </c>
-      <c r="K126" s="14">
-        <f t="shared" si="2"/>
+      <c r="K126" s="13">
+        <f t="shared" si="8"/>
         <v>4.1673334750210271</v>
       </c>
-      <c r="L126" s="14">
-        <f t="shared" si="3"/>
+      <c r="L126" s="13">
+        <f t="shared" si="9"/>
         <v>1.5086985825972641</v>
       </c>
-      <c r="M126" s="13"/>
-    </row>
-    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M126" s="5"/>
+      <c r="N126" s="5">
+        <f t="shared" si="10"/>
+        <v>0.89505023693648822</v>
+      </c>
+      <c r="O126" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.1017600207430152</v>
+      </c>
+      <c r="P126" s="5">
+        <f t="shared" si="12"/>
+        <v>0.77365698553233053</v>
+      </c>
+      <c r="Q126" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.86903287711533417</v>
+      </c>
+      <c r="R126" s="5">
+        <f t="shared" si="14"/>
+        <v>-4.5774808348974357E-2</v>
+      </c>
+      <c r="S126" s="5">
+        <f t="shared" si="15"/>
+        <v>-0.64419747104004998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -6142,17 +9184,41 @@
       <c r="J127" s="11">
         <v>26</v>
       </c>
-      <c r="K127" s="14">
-        <f t="shared" si="2"/>
+      <c r="K127" s="13">
+        <f t="shared" si="8"/>
         <v>22.9287617827868</v>
       </c>
-      <c r="L127" s="14">
-        <f t="shared" si="3"/>
+      <c r="L127" s="13">
+        <f t="shared" si="9"/>
         <v>1.722383632514298</v>
       </c>
-      <c r="M127" s="13"/>
-    </row>
-    <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M127" s="5"/>
+      <c r="N127" s="5">
+        <f t="shared" si="10"/>
+        <v>1.5093849856873298</v>
+      </c>
+      <c r="O127" s="5">
+        <f t="shared" si="11"/>
+        <v>2.7573755022848832E-2</v>
+      </c>
+      <c r="P127" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2492958913143219</v>
+      </c>
+      <c r="Q127" s="5">
+        <f t="shared" si="13"/>
+        <v>0.62957742646218828</v>
+      </c>
+      <c r="R127" s="5">
+        <f t="shared" si="14"/>
+        <v>0.18505176813402552</v>
+      </c>
+      <c r="S127" s="5">
+        <f t="shared" si="15"/>
+        <v>0.18367426137178935</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>2</v>
       </c>
@@ -6183,17 +9249,41 @@
       <c r="J128" s="11">
         <v>4</v>
       </c>
-      <c r="K128" s="14">
-        <f t="shared" si="2"/>
+      <c r="K128" s="13">
+        <f t="shared" si="8"/>
         <v>11.043094567010513</v>
       </c>
-      <c r="L128" s="14">
-        <f t="shared" si="3"/>
+      <c r="L128" s="13">
+        <f t="shared" si="9"/>
         <v>5.3756008576237466</v>
       </c>
-      <c r="M128" s="13"/>
-    </row>
-    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M128" s="5"/>
+      <c r="N128" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2201217032984641</v>
+      </c>
+      <c r="O128" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.13380921645337807</v>
+      </c>
+      <c r="P128" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3254857621019733</v>
+      </c>
+      <c r="Q128" s="5">
+        <f t="shared" si="13"/>
+        <v>-7.6052421623162642E-2</v>
+      </c>
+      <c r="R128" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.10297414457069828</v>
+      </c>
+      <c r="S128" s="5">
+        <f t="shared" si="15"/>
+        <v>0.31628629027532423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
@@ -6224,17 +9314,41 @@
       <c r="J129" s="11">
         <v>3</v>
       </c>
-      <c r="K129" s="14">
-        <f t="shared" si="2"/>
+      <c r="K129" s="13">
+        <f t="shared" si="8"/>
         <v>10.020897382016841</v>
       </c>
-      <c r="L129" s="14">
-        <f t="shared" si="3"/>
+      <c r="L129" s="13">
+        <f t="shared" si="9"/>
         <v>6.1787883196554452</v>
       </c>
-      <c r="M129" s="13"/>
-    </row>
-    <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M129" s="5"/>
+      <c r="N129" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1838968158245227</v>
+      </c>
+      <c r="O129" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.14963446503502151</v>
+      </c>
+      <c r="P129" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3131206480461279</v>
+      </c>
+      <c r="Q129" s="5">
+        <f t="shared" si="13"/>
+        <v>-0.16441953698619488</v>
+      </c>
+      <c r="R129" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.13121802696307591</v>
+      </c>
+      <c r="S129" s="5">
+        <f t="shared" si="15"/>
+        <v>0.29476423169171728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
@@ -6265,17 +9379,41 @@
       <c r="J130" s="11">
         <v>3</v>
       </c>
-      <c r="K130" s="14">
-        <f t="shared" si="2"/>
+      <c r="K130" s="13">
+        <f t="shared" si="8"/>
         <v>11.952133038871715</v>
       </c>
-      <c r="L130" s="14">
-        <f t="shared" si="3"/>
+      <c r="L130" s="13">
+        <f t="shared" si="9"/>
         <v>6.5307730676341089</v>
       </c>
-      <c r="M130" s="13"/>
-    </row>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="5"/>
+      <c r="N130" s="5">
+        <f t="shared" si="10"/>
+        <v>1.2447698313328563</v>
+      </c>
+      <c r="O130" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.13443813744029295</v>
+      </c>
+      <c r="P130" s="5">
+        <f t="shared" si="12"/>
+        <v>1.3063720801539924</v>
+      </c>
+      <c r="Q130" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.5925693139472036E-2</v>
+      </c>
+      <c r="R130" s="5">
+        <f t="shared" si="14"/>
+        <v>-0.10409660216097756</v>
+      </c>
+      <c r="S130" s="5">
+        <f t="shared" si="15"/>
+        <v>0.283018034052616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>2</v>
       </c>
@@ -6306,17 +9444,41 @@
       <c r="J131" s="11">
         <v>4</v>
       </c>
-      <c r="K131" s="14">
-        <f t="shared" ref="K131:K136" si="4">D131-(0.87*F131)</f>
+      <c r="K131" s="13">
+        <f t="shared" ref="K131:K136" si="16">D131-(0.87*F131)</f>
         <v>11.204166102827855</v>
       </c>
-      <c r="L131" s="14">
-        <f t="shared" ref="L131:L136" si="5">(D131+E131+H131)/(G131+J131)</f>
+      <c r="L131" s="13">
+        <f t="shared" ref="L131:L136" si="17">(D131+E131+H131)/(G131+J131)</f>
         <v>5.3270875302082823</v>
       </c>
-      <c r="M131" s="13"/>
-    </row>
-    <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M131" s="5"/>
+      <c r="N131" s="5">
+        <f t="shared" ref="N131:N136" si="18">LOG(D131)</f>
+        <v>1.2178160062410686</v>
+      </c>
+      <c r="O131" s="5">
+        <f t="shared" ref="O131:O136" si="19">LOG(E131)</f>
+        <v>-0.13783035932983131</v>
+      </c>
+      <c r="P131" s="5">
+        <f t="shared" ref="P131:P136" si="20">LOG(H131)</f>
+        <v>1.3166008434816538</v>
+      </c>
+      <c r="Q131" s="5">
+        <f t="shared" ref="Q131:Q136" si="21">STANDARDIZE(N131,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <v>-8.1676946972196407E-2</v>
+      </c>
+      <c r="R131" s="5">
+        <f t="shared" ref="R131:R136" si="22">STANDARDIZE(O131,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <v>-0.11015082087373164</v>
+      </c>
+      <c r="S131" s="5">
+        <f t="shared" ref="S131:S136" si="23">STANDARDIZE(P131,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <v>0.30082167440575208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
@@ -6347,17 +9509,41 @@
       <c r="J132" s="11">
         <v>4</v>
       </c>
-      <c r="K132" s="14">
-        <f t="shared" si="4"/>
+      <c r="K132" s="13">
+        <f t="shared" si="16"/>
         <v>10.664481660975524</v>
       </c>
-      <c r="L132" s="14">
-        <f t="shared" si="5"/>
+      <c r="L132" s="13">
+        <f t="shared" si="17"/>
         <v>5.3771675285644722</v>
       </c>
-      <c r="M132" s="13"/>
-    </row>
-    <row r="133" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M132" s="5"/>
+      <c r="N132" s="5">
+        <f t="shared" si="18"/>
+        <v>1.2105923469024227</v>
+      </c>
+      <c r="O132" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.13004342008942082</v>
+      </c>
+      <c r="P132" s="5">
+        <f t="shared" si="20"/>
+        <v>1.3246722808699427</v>
+      </c>
+      <c r="Q132" s="5">
+        <f t="shared" si="21"/>
+        <v>-9.9298366461230123E-2</v>
+      </c>
+      <c r="R132" s="5">
+        <f t="shared" si="22"/>
+        <v>-9.6253194244481907E-2</v>
+      </c>
+      <c r="S132" s="5">
+        <f t="shared" si="23"/>
+        <v>0.31487038819360008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
@@ -6388,17 +9574,41 @@
       <c r="J133" s="11">
         <v>2</v>
       </c>
-      <c r="K133" s="14">
-        <f t="shared" si="4"/>
+      <c r="K133" s="13">
+        <f t="shared" si="16"/>
         <v>11.056843986233011</v>
       </c>
-      <c r="L133" s="14">
-        <f t="shared" si="5"/>
+      <c r="L133" s="13">
+        <f t="shared" si="17"/>
         <v>7.7728100208316624</v>
       </c>
-      <c r="M133" s="13"/>
-    </row>
-    <row r="134" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M133" s="5"/>
+      <c r="N133" s="5">
+        <f t="shared" si="18"/>
+        <v>1.216885581333875</v>
+      </c>
+      <c r="O133" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.14109441873027628</v>
+      </c>
+      <c r="P133" s="5">
+        <f t="shared" si="20"/>
+        <v>1.3270288667778565</v>
+      </c>
+      <c r="Q133" s="5">
+        <f t="shared" si="21"/>
+        <v>-8.3946628697771225E-2</v>
+      </c>
+      <c r="R133" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.11597630344686721</v>
+      </c>
+      <c r="S133" s="5">
+        <f t="shared" si="23"/>
+        <v>0.31897213604148555</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>2</v>
       </c>
@@ -6429,17 +9639,41 @@
       <c r="J134" s="11">
         <v>4</v>
       </c>
-      <c r="K134" s="14">
-        <f t="shared" si="4"/>
+      <c r="K134" s="13">
+        <f t="shared" si="16"/>
         <v>11.393882545269491</v>
       </c>
-      <c r="L134" s="14">
-        <f t="shared" si="5"/>
+      <c r="L134" s="13">
+        <f t="shared" si="17"/>
         <v>5.5619715124456413</v>
       </c>
-      <c r="M134" s="13"/>
-    </row>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="5"/>
+      <c r="N134" s="5">
+        <f t="shared" si="18"/>
+        <v>1.2259171324370255</v>
+      </c>
+      <c r="O134" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.13682892278696832</v>
+      </c>
+      <c r="P134" s="5">
+        <f t="shared" si="20"/>
+        <v>1.326077740021909</v>
+      </c>
+      <c r="Q134" s="5">
+        <f t="shared" si="21"/>
+        <v>-6.191503180700577E-2</v>
+      </c>
+      <c r="R134" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.10836352155933979</v>
+      </c>
+      <c r="S134" s="5">
+        <f t="shared" si="23"/>
+        <v>0.31731665549601823</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6470,17 +9704,41 @@
       <c r="J135" s="11">
         <v>4</v>
       </c>
-      <c r="K135" s="14">
-        <f t="shared" si="4"/>
+      <c r="K135" s="13">
+        <f t="shared" si="16"/>
         <v>11.391355329195509</v>
       </c>
-      <c r="L135" s="14">
-        <f t="shared" si="5"/>
+      <c r="L135" s="13">
+        <f t="shared" si="17"/>
         <v>5.5409272070096121</v>
       </c>
-      <c r="M135" s="13"/>
-    </row>
-    <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M135" s="5"/>
+      <c r="N135" s="5">
+        <f t="shared" si="18"/>
+        <v>1.2231194101693865</v>
+      </c>
+      <c r="O135" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.14072653837963944</v>
+      </c>
+      <c r="P135" s="5">
+        <f t="shared" si="20"/>
+        <v>1.3223730561663813</v>
+      </c>
+      <c r="Q135" s="5">
+        <f t="shared" si="21"/>
+        <v>-6.8739805149808292E-2</v>
+      </c>
+      <c r="R135" s="5">
+        <f t="shared" si="22"/>
+        <v>-0.11531973433806307</v>
+      </c>
+      <c r="S135" s="5">
+        <f t="shared" si="23"/>
+        <v>0.31086848020120827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -6508,18 +9766,42 @@
       <c r="I136" s="8">
         <v>8.4559864356752747</v>
       </c>
-      <c r="J136" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K136" s="14">
-        <f t="shared" si="4"/>
+      <c r="J136" s="11">
+        <v>0</v>
+      </c>
+      <c r="K136" s="13">
+        <f t="shared" si="16"/>
         <v>12.124073079078046</v>
       </c>
-      <c r="L136" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M136" s="13"/>
+      <c r="L136" s="13">
+        <f t="shared" si="17"/>
+        <v>23.859619911704453</v>
+      </c>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5">
+        <f t="shared" si="18"/>
+        <v>1.1641106136896753</v>
+      </c>
+      <c r="O136" s="5">
+        <f t="shared" si="19"/>
+        <v>-0.11211753037365649</v>
+      </c>
+      <c r="P136" s="5">
+        <f t="shared" si="20"/>
+        <v>1.2574384043419904</v>
+      </c>
+      <c r="Q136" s="5">
+        <f t="shared" si="21"/>
+        <v>-0.21268606667256276</v>
+      </c>
+      <c r="R136" s="5">
+        <f t="shared" si="22"/>
+        <v>-6.4260223119967597E-2</v>
+      </c>
+      <c r="S136" s="5">
+        <f t="shared" si="23"/>
+        <v>0.19784668562989147</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
@@ -954,7 +954,7 @@
   <dimension ref="A1:S136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y50" sqref="Y50"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1067,10 @@
         <f>(D2+E2+H2)/(G2+J2)</f>
         <v>2.7720735338320921</v>
       </c>
-      <c r="M2" s="5"/>
+      <c r="M2" s="5">
+        <f>SUM(Q2:S2)</f>
+        <v>1.3616274431110953</v>
+      </c>
       <c r="N2" s="5">
         <f>LOG(D2)</f>
         <v>1.5977340592546694</v>
@@ -1132,29 +1135,32 @@
         <f t="shared" ref="L3:L66" si="1">(D3+E3+H3)/(G3+J3)</f>
         <v>1.2651703664439973</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M66" si="2">SUM(Q3:S3)</f>
+        <v>-3.1240419268804169</v>
+      </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N66" si="2">LOG(D3)</f>
+        <f t="shared" ref="N3:N66" si="3">LOG(D3)</f>
         <v>0.9396448809167085</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O66" si="3">LOG(E3)</f>
+        <f t="shared" ref="O3:O66" si="4">LOG(E3)</f>
         <v>-0.74848667885416731</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P66" si="4">LOG(H3)</f>
+        <f t="shared" ref="P3:P66" si="5">LOG(H3)</f>
         <v>0.47513865643610764</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q66" si="5">STANDARDIZE(N3,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <f t="shared" ref="Q3:Q66" si="6">STANDARDIZE(N3,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
         <v>-0.7602485488822035</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" ref="R3:R66" si="6">STANDARDIZE(O3,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <f t="shared" ref="R3:R66" si="7">STANDARDIZE(O3,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
         <v>-1.2000108114974242</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" ref="S3:S66" si="7">STANDARDIZE(P3,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <f t="shared" ref="S3:S66" si="8">STANDARDIZE(P3,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
         <v>-1.1637825665007893</v>
       </c>
     </row>
@@ -1197,29 +1203,32 @@
         <f t="shared" si="1"/>
         <v>4.2752793835029008</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9205814013136906</v>
+      </c>
       <c r="N4" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9303601289244894</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22998556336914372</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5561524634546517</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.656505641882245</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54630330110473468</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71777245832671077</v>
       </c>
     </row>
@@ -1262,29 +1271,32 @@
         <f t="shared" si="1"/>
         <v>4.545160980451648</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88024068928400157</v>
+      </c>
       <c r="N5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5134696767006999</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.2866860539020353E-2</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2684769899315518</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.63954163579922119</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3639194028450213E-2</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21705985945633027</v>
       </c>
     </row>
@@ -1327,29 +1339,32 @@
         <f t="shared" si="1"/>
         <v>3.366824419725357</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.420196202413031</v>
+      </c>
       <c r="N6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50179790452413153</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2821882967027323</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.38138370704607971</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.8283339722550276</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.9372624822080322</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.6545997479499714</v>
       </c>
     </row>
@@ -1392,29 +1407,32 @@
         <f t="shared" si="1"/>
         <v>16.316809865204114</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <f t="shared" si="2"/>
+        <v>-12.567211364096533</v>
+      </c>
       <c r="N7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1342943719123113E-2</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.2126207928036052</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0627177145614437</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.1288795950770951</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.5978383561568226</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.8404934128626151</v>
       </c>
     </row>
@@ -1457,29 +1475,32 @@
         <f t="shared" si="1"/>
         <v>0.3614914405082621</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.9941883086020527</v>
+      </c>
       <c r="N8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6487139712576495</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.80265782918152784</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.388481252888629</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.96945703409833217</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2966919846879998</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.666953358012385</v>
       </c>
     </row>
@@ -1522,29 +1543,32 @@
         <f t="shared" si="1"/>
         <v>3.2036807360288626</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.4962457224714427</v>
+      </c>
       <c r="N9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49060901702123982</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.6456866547222107</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.61120052031715666</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.8556281829951786</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.586010893378857</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.0546066460974068</v>
       </c>
     </row>
@@ -1587,29 +1611,32 @@
         <f t="shared" si="1"/>
         <v>2.8874700617268774</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.5681890466390627</v>
+      </c>
       <c r="N10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42897122261261444</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3170584981163502</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.32858713497574843</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-2.0059876311272951</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.9994965673564415</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.5627048481553247</v>
       </c>
     </row>
@@ -1652,29 +1679,32 @@
         <f t="shared" si="1"/>
         <v>1.2075021679069946</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.7916321372114288</v>
+      </c>
       <c r="N11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1124973294442972</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.3647606532837625</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.604927465246062</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.33859169016020529</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.51516136466620754</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.93787908238501594</v>
       </c>
     </row>
@@ -1717,29 +1747,32 @@
         <f t="shared" si="1"/>
         <v>1.2052754826027567</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.7963769482616221</v>
+      </c>
       <c r="N12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1096319195382744</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.36415794072188828</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60559932154266527</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.34558158096138553</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.51408568218159068</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.93670968511864583</v>
       </c>
     </row>
@@ -1782,29 +1815,32 @@
         <f t="shared" si="1"/>
         <v>0.53085631686559476</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2616894099571616</v>
+      </c>
       <c r="N13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8268810364472396</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3216726689094052</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.37130941526872407</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4040783870239135</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.4946759954786932</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.6370649725454451</v>
       </c>
     </row>
@@ -1847,29 +1883,32 @@
         <f t="shared" si="1"/>
         <v>3.9492857118860458</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.33593996772277546</v>
+      </c>
       <c r="N14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0355944008918876</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.6254749768307081E-2</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2532195876402208</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.52618895913817842</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5464668586010322E-4</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.190503638101263</v>
       </c>
     </row>
@@ -1912,29 +1951,32 @@
         <f t="shared" si="1"/>
         <v>1.2835212369905611</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31840559025158438</v>
+      </c>
       <c r="N15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5631344232075395</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.24041034925165583</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0581296951008157</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.76069398961129853</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.29322896692724637</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.14905943243246778</v>
       </c>
     </row>
@@ -1977,29 +2019,32 @@
         <f t="shared" si="1"/>
         <v>1.2729720998951886</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.5694566998800297</v>
+      </c>
       <c r="N16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2192263151310327</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.45235169264938074</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.67280683644133288</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.8236634604997898E-2</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.67148819907298363</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.81973186620204819</v>
       </c>
     </row>
@@ -2042,29 +2087,32 @@
         <f t="shared" si="1"/>
         <v>2.9817572441175937</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2921041379598119</v>
+      </c>
       <c r="N17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4080867115907076</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16752199849098068</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4165637077618771</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38247006747835371</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.43482236157157039</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.47481170890988772</v>
       </c>
     </row>
@@ -2107,29 +2155,32 @@
         <f t="shared" si="1"/>
         <v>4.4608234894488108</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.883214237078231</v>
+      </c>
       <c r="N18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.924898165591358</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22812118282200813</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.544250567425753</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6431817097012362</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.54297587502126621</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.69705665235572856</v>
       </c>
     </row>
@@ -2172,29 +2223,32 @@
         <f t="shared" si="1"/>
         <v>2.4736421283432906</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0189425168989237</v>
+      </c>
       <c r="N19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4679457404050493</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.38892191668770121</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5232415525241261</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52849038868876674</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82996264761318239</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.66048948059697432</v>
       </c>
     </row>
@@ -2237,29 +2291,32 @@
         <f t="shared" si="1"/>
         <v>3.8754593898265428</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0462087919195349</v>
+      </c>
       <c r="N20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3654568521668553</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.9478899216277676E-2</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5575454330915806</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27847864146420065</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7533163410508186E-2</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.72019698704482604</v>
       </c>
     </row>
@@ -2302,29 +2359,32 @@
         <f t="shared" si="1"/>
         <v>3.5039784876781077</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5">
+        <f t="shared" si="2"/>
+        <v>2.025183661119077</v>
+      </c>
       <c r="N21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7563655593351468</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.19703455526852007</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3193613722593678</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2320626891055684</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48749446832697824</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.3056265036865306</v>
       </c>
     </row>
@@ -2367,29 +2427,32 @@
         <f t="shared" si="1"/>
         <v>1.2384992088919564</v>
       </c>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.4336263263347684</v>
+      </c>
       <c r="N22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0061342397602244</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.45842337696395857</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.48119133359624044</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.59805417774535552</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.68232454940390352</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-1.1532475991855096</v>
       </c>
     </row>
@@ -2432,29 +2495,32 @@
         <f t="shared" si="1"/>
         <v>2.0563924551959065</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0536139860934071</v>
+      </c>
       <c r="N23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4887572023005029</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3543935865403516E-2</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3521453099571819</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.57925794056899882</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1116675669505434</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36268847857386488</v>
       </c>
     </row>
@@ -2497,29 +2563,32 @@
         <f t="shared" si="1"/>
         <v>1.1186517212740712</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1917226339237097</v>
+      </c>
       <c r="N24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1642505429744734</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.508835285944999E-2</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3133458265804625</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.21234472269292126</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.10891119116790732</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29515616544872364</v>
       </c>
     </row>
@@ -2562,29 +2631,32 @@
         <f t="shared" si="1"/>
         <v>1.5671181058271715</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.9595155217437614</v>
+      </c>
       <c r="N25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7326559518185989</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37342461670526833</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1176151590708612</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1742253908079778</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80230406671664301</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.9360449792683823</v>
       </c>
     </row>
@@ -2627,29 +2699,32 @@
         <f t="shared" si="1"/>
         <v>4.4692050806535724</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="5">
+        <f t="shared" si="2"/>
+        <v>2.897955660189965</v>
+      </c>
       <c r="N26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9275678859433789</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22296890627548041</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5542614155501955</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6496942347298862</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53378042434114659</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.71448100111893231</v>
       </c>
     </row>
@@ -2692,29 +2767,32 @@
         <f t="shared" si="1"/>
         <v>2.6787374792924594</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67323876293563734</v>
+      </c>
       <c r="N27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5610000413049756</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.3502661286593375E-2</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1143467617638969</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75548737104144637</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.1037606076569638E-2</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.1211002029239325E-2</v>
       </c>
     </row>
@@ -2757,29 +2835,32 @@
         <f t="shared" si="1"/>
         <v>2.9123266769706606</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.13803446709602535</v>
+      </c>
       <c r="N28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1374513351223867</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.24686058123712881</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3991057168739871</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.27771880269818761</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.30474092471175607</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.44442526031391832</v>
       </c>
     </row>
@@ -2822,29 +2903,32 @@
         <f t="shared" si="1"/>
         <v>0.91155745047353365</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9093072320137932</v>
+      </c>
       <c r="N29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.8665378692008787</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73542284178142125</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1208537374334013</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5008174015313893</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4483751374207048</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.9885306938301127E-2</v>
       </c>
     </row>
@@ -2887,29 +2971,32 @@
         <f t="shared" si="1"/>
         <v>1.6738753364822976</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.6869130949943929</v>
+      </c>
       <c r="N30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0389939901848351</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.71407261282813872</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1650980558879873</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.921507457477398</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4102706266134424</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.0186911790852333</v>
       </c>
     </row>
@@ -2952,29 +3039,32 @@
         <f t="shared" si="1"/>
         <v>1.5674068111836257</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5">
+        <f t="shared" si="2"/>
+        <v>-1.7527052271987</v>
+      </c>
       <c r="N31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.7542593836917031</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.37995812711287275</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.035772931080801</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2269248769814345</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81396465445463295</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.7935947586347676</v>
       </c>
     </row>
@@ -3017,29 +3107,32 @@
         <f t="shared" si="1"/>
         <v>1.484765424645123</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.43206000121435578</v>
+      </c>
       <c r="N32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0376247523271052</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.0151569435178164E-2</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1683840870084796</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.52123611284894056</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.6332625014320332E-2</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.2843486620264451E-2</v>
       </c>
     </row>
@@ -3082,29 +3175,32 @@
         <f t="shared" si="1"/>
         <v>0.7284504710278451</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="5">
+        <f t="shared" si="2"/>
+        <v>-8.6613575360870971</v>
+      </c>
       <c r="N33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.5236934990911053</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.348085767693451</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.0513786212407796E-2</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.3299212368739486</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.270136570368432</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-2.0612997288447157</v>
       </c>
     </row>
@@ -3147,29 +3243,32 @@
         <f t="shared" si="1"/>
         <v>2.2846081902085991</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="5">
+        <f t="shared" si="2"/>
+        <v>0.34663181999089671</v>
+      </c>
       <c r="N34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5371984738667883</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.44811773192354676</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3236768382422273</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.69742574539404334</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.66393169920649098</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31313777380334434</v>
       </c>
     </row>
@@ -3212,29 +3311,32 @@
         <f t="shared" si="1"/>
         <v>1.4357450386062407</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.12312076370577985</v>
+      </c>
       <c r="N35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2335535154033885</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30088199933434889</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71133681685648431</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.3286812877952614E-2</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67283468474206154</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.75266863556988872</v>
       </c>
     </row>
@@ -3277,29 +3379,32 @@
         <f t="shared" si="1"/>
         <v>2.1320766499145383</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.3766421993340372</v>
+      </c>
       <c r="N36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2661429901673191</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.19796430523346639</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0315168934828065</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.6212064189823097E-2</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.21747400680219486</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.1953802567216654</v>
       </c>
     </row>
@@ -3342,29 +3447,32 @@
         <f t="shared" si="1"/>
         <v>2.2518036511352646</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.56231033980513878</v>
+      </c>
       <c r="N37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2261669056160733</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.24933788383423305</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0335495339546106</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.1305734253124085E-2</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.30916225451532736</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.19184235103668734</v>
       </c>
     </row>
@@ -3407,29 +3515,32 @@
         <f t="shared" si="1"/>
         <v>3.3747484010622042</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76652851956559032</v>
+      </c>
       <c r="N38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3400749399817604</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7427860373301412E-4</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3812118968196501</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.21656191739409578</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13668637147514834</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41328023069634623</v>
       </c>
     </row>
@@ -3472,29 +3583,32 @@
         <f t="shared" si="1"/>
         <v>3.4066423807542261</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77776160943771599</v>
+      </c>
       <c r="N39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.346559968428791</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.8792598635504165E-3</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3850916401911495</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23238151814022737</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12534698604182548</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.42003310525566323</v>
       </c>
     </row>
@@ -3537,29 +3651,32 @@
         <f t="shared" si="1"/>
         <v>2.5211446647037006</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.59398616257363357</v>
+      </c>
       <c r="N40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2235668863947078</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.26021051292049269</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0301433856718936</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.7648230103408966E-2</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.32856702124767845</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-0.19777091122254611</v>
       </c>
     </row>
@@ -3602,29 +3719,32 @@
         <f t="shared" si="1"/>
         <v>2.833910304546686</v>
       </c>
-      <c r="M41" s="5"/>
+      <c r="M41" s="5">
+        <f t="shared" si="2"/>
+        <v>0.73432012942218405</v>
+      </c>
       <c r="N41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4509659757268252</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1962569204773245E-2</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1852577880308519</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48706989220724889</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17503728580157507</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.2212951413360177E-2</v>
       </c>
     </row>
@@ -3667,29 +3787,32 @@
         <f t="shared" si="1"/>
         <v>3.5830173417351023</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="5">
+        <f t="shared" si="2"/>
+        <v>0.66641474670577616</v>
+      </c>
       <c r="N42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3115597788778721</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.2379907833346025E-2</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.387092167905198</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14700193511187676</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.5897694408105472E-2</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.42351511718579393</v>
       </c>
     </row>
@@ -3732,29 +3855,32 @@
         <f t="shared" si="1"/>
         <v>3.240015491288271</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86984451562930976</v>
+      </c>
       <c r="N43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3674614032453396</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2798017358810148E-3</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3952093980385267</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28336855027429525</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14883242996967039</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43764353538534417</v>
       </c>
     </row>
@@ -3797,29 +3923,32 @@
         <f t="shared" si="1"/>
         <v>2.8878409619104257</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75538616062223984</v>
+      </c>
       <c r="N44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.42809806398921</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6075624312070106E-2</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2149392804341548</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.4312858294939243</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20022535577666561</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12387497535164994</v>
       </c>
     </row>
@@ -3862,29 +3991,32 @@
         <f t="shared" si="1"/>
         <v>2.8890890739087238</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75806329071935163</v>
+      </c>
       <c r="N45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4298383635030452</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5381108625922489E-2</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2147504686331219</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.43553112212639766</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19898582900032366</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12354633959263034</v>
       </c>
     </row>
@@ -3927,29 +4059,32 @@
         <f t="shared" si="1"/>
         <v>7.1194868695977584</v>
       </c>
-      <c r="M46" s="5"/>
+      <c r="M46" s="5">
+        <f t="shared" si="2"/>
+        <v>0.39603296558423395</v>
+      </c>
       <c r="N46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70108243134896531</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35861456890003596</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6966755918399672</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.3421986106292572</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77587204915442454</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96235952705906658</v>
       </c>
     </row>
@@ -3992,29 +4127,32 @@
         <f t="shared" si="1"/>
         <v>8.1793767826902535</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40779429022137337</v>
+      </c>
       <c r="N47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70258140154498872</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.35911570219989358</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7008181644934157</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.3385420175664622</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77676643952757163</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96956986826026392</v>
       </c>
     </row>
@@ -4057,29 +4195,32 @@
         <f t="shared" si="1"/>
         <v>7.1599265849596874</v>
       </c>
-      <c r="M48" s="5"/>
+      <c r="M48" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42366912441023208</v>
+      </c>
       <c r="N48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70722116409393676</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36190706257900424</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7005738398635568</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.3272237648123326</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7817482793928735</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96914460982969119</v>
       </c>
     </row>
@@ -4122,29 +4263,32 @@
         <f t="shared" si="1"/>
         <v>6.3808681663406031</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41713188218486685</v>
+      </c>
       <c r="N49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70486777898742048</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36050446853100443</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7015544931529392</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.3329646205527614</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.77924502005185403</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97085148268577426</v>
       </c>
     </row>
@@ -4187,29 +4331,32 @@
         <f t="shared" si="1"/>
         <v>6.3788008667221074</v>
       </c>
-      <c r="M50" s="5"/>
+      <c r="M50" s="5">
+        <f t="shared" si="2"/>
+        <v>4.541027030947796E-2</v>
+      </c>
       <c r="N50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3881637652768903</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.24732882891787109</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1536033535841179</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.33386996357047993</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.30557662295416654</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.711692969316457E-2</v>
       </c>
     </row>
@@ -4252,29 +4399,32 @@
         <f t="shared" si="1"/>
         <v>2.3613745022358605</v>
       </c>
-      <c r="M51" s="5"/>
+      <c r="M51" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.2509434812384078E-3</v>
+      </c>
       <c r="N51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3704689408717081</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.23861318849025012</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.138061391640564</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29070514792636937</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.29002151037934631</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-9.9345810282614605E-3</v>
       </c>
     </row>
@@ -4317,29 +4467,32 @@
         <f t="shared" si="1"/>
         <v>2.2708455945566488</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="5">
+        <f t="shared" si="2"/>
+        <v>0.98080007915763634</v>
+      </c>
       <c r="N52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5285150238372309</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.5952303997379636E-2</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3185829553451132</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67624330746202754</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.8513900787335009E-4</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30427163268773555</v>
       </c>
     </row>
@@ -4382,29 +4535,32 @@
         <f t="shared" si="1"/>
         <v>1.7049071752602192</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92944920746400372</v>
+      </c>
       <c r="N53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5246803476089705</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.9202383816573952E-2</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3182949382205169</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.66688898505353633</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.1210103018746495E-2</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30377032542921395</v>
       </c>
     </row>
@@ -4447,29 +4603,32 @@
         <f t="shared" si="1"/>
         <v>5.5188689025576059</v>
       </c>
-      <c r="M54" s="5"/>
+      <c r="M54" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.59863153611755016</v>
+      </c>
       <c r="N54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1965297233683783</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.46215269793411601</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2724365412439298</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.13360277878090171</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.68898040080119105</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22395164346454266</v>
       </c>
     </row>
@@ -4512,29 +4671,32 @@
         <f t="shared" si="1"/>
         <v>9.2868310145351494</v>
       </c>
-      <c r="M55" s="5"/>
+      <c r="M55" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42314700558881824</v>
+      </c>
       <c r="N55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.335416183082613</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7101600998428186E-2</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1529002948211995</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20519732975662069</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20205645275547907</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5893223076718473E-2</v>
       </c>
     </row>
@@ -4577,29 +4739,32 @@
         <f t="shared" si="1"/>
         <v>3.5694040250703645</v>
       </c>
-      <c r="M56" s="5"/>
+      <c r="M56" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84164186229352911</v>
+      </c>
       <c r="N56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3673819817999879</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8100461872482893E-2</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3167526115527219</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28317480932675643</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25738121914430218</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30108583382247051</v>
       </c>
     </row>
@@ -4642,29 +4807,32 @@
         <f t="shared" si="1"/>
         <v>7.9696989800971743</v>
       </c>
-      <c r="M57" s="5"/>
+      <c r="M57" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.5288247728607276</v>
+      </c>
       <c r="N57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0677511996821951</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.28941558033184905</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3159053418315192</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.44774555333179628</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.38069034082602715</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.29961112129709577</v>
       </c>
     </row>
@@ -4707,29 +4875,32 @@
         <f t="shared" si="1"/>
         <v>4.0065950174602403</v>
       </c>
-      <c r="M58" s="5"/>
+      <c r="M58" s="5">
+        <f t="shared" si="2"/>
+        <v>0.14662658342474399</v>
+      </c>
       <c r="N58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0995362716546937</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.1043780340142105E-3</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3709734776518798</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.37020893920603665</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.12137573872830019</v>
       </c>
       <c r="S58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.39545978390248043</v>
       </c>
     </row>
@@ -4772,29 +4943,32 @@
         <f t="shared" si="1"/>
         <v>3.8382744930115131</v>
       </c>
-      <c r="M59" s="5"/>
+      <c r="M59" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87925230267129617</v>
+      </c>
       <c r="N59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.365120730895431</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.8457359309588054E-2</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.330910359417298</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27765870607615312</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27586554131177982</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.32572805528336329</v>
       </c>
     </row>
@@ -4837,29 +5011,32 @@
         <f t="shared" si="1"/>
         <v>6.5393278809190916</v>
       </c>
-      <c r="M60" s="5"/>
+      <c r="M60" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.62560137809310701</v>
+      </c>
       <c r="N60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.193584744669685</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.47709472789315299</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2763903104635179</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.1407867699691781</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.71564797159410398</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.23083336347017502</v>
       </c>
     </row>
@@ -4902,29 +5079,32 @@
         <f t="shared" si="1"/>
         <v>11.113128978685545</v>
       </c>
-      <c r="M61" s="5"/>
+      <c r="M61" s="5">
+        <f t="shared" si="2"/>
+        <v>0.17607299755503186</v>
+      </c>
       <c r="N61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1280587148950263</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.8487016257910663E-2</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4098323622420348</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.3006311928550755</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3608702795894675E-2</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.46309548761421271</v>
       </c>
     </row>
@@ -4967,29 +5147,32 @@
         <f t="shared" si="1"/>
         <v>26.245958873952969</v>
       </c>
-      <c r="M62" s="5"/>
+      <c r="M62" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.6035694864742992</v>
+      </c>
       <c r="N62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1620660853900222</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.40895555087903868</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2633531492246917</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.21767349605376904</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.59403756579407163</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.20814157537354153</v>
       </c>
     </row>
@@ -5032,29 +5215,32 @@
         <f t="shared" si="1"/>
         <v>2.3019660668372568</v>
       </c>
-      <c r="M63" s="5"/>
+      <c r="M63" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1566678059219578E-2</v>
+      </c>
       <c r="N63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3633981255983034</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.18061661852717173</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1234439484806868</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27345657677690438</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.18651297509488018</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.5376923622804618E-2</v>
       </c>
     </row>
@@ -5097,29 +5283,32 @@
         <f t="shared" si="1"/>
         <v>3.4443693845022816</v>
       </c>
-      <c r="M64" s="5"/>
+      <c r="M64" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92665298346493385</v>
+      </c>
       <c r="N64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3511821223900451</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15191199321969237</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3023592613408486</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24365681644484333</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.40696263154887297</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27603353547121756</v>
       </c>
     </row>
@@ -5162,29 +5351,32 @@
         <f t="shared" si="1"/>
         <v>4.067043481654002</v>
       </c>
-      <c r="M65" s="5"/>
+      <c r="M65" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89623031933661057</v>
+      </c>
       <c r="N65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3425192186907173</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14339154847231358</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3057584191479408</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.22252449930160825</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39175589162727315</v>
       </c>
       <c r="S65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.28194992840772909</v>
       </c>
     </row>
@@ -5227,29 +5419,32 @@
         <f t="shared" si="1"/>
         <v>4.1269633221092583</v>
       </c>
-      <c r="M66" s="5"/>
+      <c r="M66" s="5">
+        <f t="shared" si="2"/>
+        <v>0.89999239689081212</v>
+      </c>
       <c r="N66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.347667598473175</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14503601789432657</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2990180997603435</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23508347468825108</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39469083452650011</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.27021808767606098</v>
       </c>
     </row>
@@ -5285,36 +5480,39 @@
         <v>5</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" ref="K67:K130" si="8">D67-(0.87*F67)</f>
+        <f t="shared" ref="K67:K130" si="9">D67-(0.87*F67)</f>
         <v>9.5832964783534607</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" ref="L67:L130" si="9">(D67+E67+H67)/(G67+J67)</f>
+        <f t="shared" ref="L67:L130" si="10">(D67+E67+H67)/(G67+J67)</f>
         <v>5.3395232234453509</v>
       </c>
-      <c r="M67" s="5"/>
+      <c r="M67" s="5">
+        <f t="shared" ref="M67:M130" si="11">SUM(Q67:S67)</f>
+        <v>-0.46151493115246089</v>
+      </c>
       <c r="N67" s="5">
-        <f t="shared" ref="N67:N130" si="10">LOG(D67)</f>
+        <f t="shared" ref="N67:N130" si="12">LOG(D67)</f>
         <v>1.1567655346797177</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:O130" si="11">LOG(E67)</f>
+        <f t="shared" ref="O67:O130" si="13">LOG(E67)</f>
         <v>-0.33922036124482663</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" ref="P67:P130" si="12">LOG(H67)</f>
+        <f t="shared" ref="P67:P130" si="14">LOG(H67)</f>
         <v>1.2808912426868424</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q130" si="13">STANDARDIZE(N67,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <f t="shared" ref="Q67:Q130" si="15">STANDARDIZE(N67,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
         <v>-0.23060367772630086</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" ref="R67:R130" si="14">STANDARDIZE(O67,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <f t="shared" ref="R67:R130" si="16">STANDARDIZE(O67,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
         <v>-0.46957869966773014</v>
       </c>
       <c r="S67" s="5">
-        <f t="shared" ref="S67:S130" si="15">STANDARDIZE(P67,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <f t="shared" ref="S67:S130" si="17">STANDARDIZE(P67,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
         <v>0.23866744624157013</v>
       </c>
     </row>
@@ -5350,36 +5548,39 @@
         <v>5</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5435934792884378</v>
       </c>
       <c r="L68" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3155859322660586</v>
       </c>
-      <c r="M68" s="5"/>
+      <c r="M68" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.37821558437232128</v>
+      </c>
       <c r="N68" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1326739254024945</v>
       </c>
       <c r="O68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.29874409832036336</v>
       </c>
       <c r="P68" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3210102921536815</v>
       </c>
       <c r="Q68" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.2893728324355575</v>
       </c>
       <c r="R68" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.39733927771971955</v>
       </c>
       <c r="S68" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.30849652578295583</v>
       </c>
     </row>
@@ -5415,36 +5616,39 @@
         <v>3</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.4149274996463408</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7706478622361113</v>
       </c>
-      <c r="M69" s="5"/>
+      <c r="M69" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.3023181086747741</v>
+      </c>
       <c r="N69" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.154791403568012</v>
       </c>
       <c r="O69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.26670243507508085</v>
       </c>
       <c r="P69" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3007627059536651</v>
       </c>
       <c r="Q69" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.23541937996458476</v>
       </c>
       <c r="R69" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.34015338495556641</v>
       </c>
       <c r="S69" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.27325465624537709</v>
       </c>
     </row>
@@ -5480,36 +5684,39 @@
         <v>3</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.3291381485801761</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6990992974244277</v>
       </c>
-      <c r="M70" s="5"/>
+      <c r="M70" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.18293894140342709</v>
+      </c>
       <c r="N70" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1456141375647482</v>
       </c>
       <c r="O70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.27997003117273622</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3958163864875881</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.25780643428493355</v>
       </c>
       <c r="R70" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.36383253425161061</v>
       </c>
       <c r="S70" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.43870002713311712</v>
       </c>
     </row>
@@ -5545,36 +5752,39 @@
         <v>3</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.906772016025656</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7707943698558912</v>
       </c>
-      <c r="M71" s="5"/>
+      <c r="M71" s="5">
+        <f t="shared" si="11"/>
+        <v>0.2889432623980242</v>
+      </c>
       <c r="N71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2759995437369327</v>
       </c>
       <c r="O71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.14398787284230397</v>
       </c>
       <c r="P71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3447562307513459</v>
       </c>
       <c r="Q71" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.0256174940877968E-2</v>
       </c>
       <c r="R71" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.12114035361810088</v>
       </c>
       <c r="S71" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3498274410752471</v>
       </c>
     </row>
@@ -5610,36 +5820,39 @@
         <v>23</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.861897950093692</v>
       </c>
       <c r="L72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2307817590063537</v>
       </c>
-      <c r="M72" s="5"/>
+      <c r="M72" s="5">
+        <f t="shared" si="11"/>
+        <v>3.3096406407919474</v>
+      </c>
       <c r="N72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8751306192901132</v>
       </c>
       <c r="O72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.51599874991990502</v>
       </c>
       <c r="P72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5638100677938198</v>
       </c>
       <c r="Q72" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5217785857163588</v>
       </c>
       <c r="R72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0567611787129967</v>
       </c>
       <c r="S72" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.73110087636259202</v>
       </c>
     </row>
@@ -5675,36 +5888,39 @@
         <v>26</v>
       </c>
       <c r="K73" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58.303215401559314</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0382129935788598</v>
       </c>
-      <c r="M73" s="5"/>
+      <c r="M73" s="5">
+        <f t="shared" si="11"/>
+        <v>3.3775376259687051</v>
+      </c>
       <c r="N73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8913949066166831</v>
       </c>
       <c r="O73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.52780841624445096</v>
       </c>
       <c r="P73" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5679149253363793</v>
       </c>
       <c r="Q73" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5614537442801606</v>
       </c>
       <c r="R73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0778383090369148</v>
       </c>
       <c r="S73" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.73824557265162971</v>
       </c>
     </row>
@@ -5740,36 +5956,39 @@
         <v>25</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.489013621638676</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2154362779167061</v>
       </c>
-      <c r="M74" s="5"/>
+      <c r="M74" s="5">
+        <f t="shared" si="11"/>
+        <v>3.4949807022851482</v>
+      </c>
       <c r="N74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.92440663476634</v>
       </c>
       <c r="O74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.5501203979611462</v>
       </c>
       <c r="P74" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5662448568613774</v>
       </c>
       <c r="Q74" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6419826677124902</v>
       </c>
       <c r="R74" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1176592941099832</v>
       </c>
       <c r="S74" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.735338740462675</v>
       </c>
     </row>
@@ -5805,36 +6024,39 @@
         <v>25</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.994856563966586</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1449095896459642</v>
       </c>
-      <c r="M75" s="5"/>
+      <c r="M75" s="5">
+        <f t="shared" si="11"/>
+        <v>3.4286273666979188</v>
+      </c>
       <c r="N75" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9005116197802667</v>
       </c>
       <c r="O75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.54963634303780917</v>
       </c>
       <c r="P75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5621083153707802</v>
       </c>
       <c r="Q75" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5836930857946814</v>
       </c>
       <c r="R75" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1167953841211038</v>
       </c>
       <c r="S75" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.72813889678213362</v>
       </c>
     </row>
@@ -5870,36 +6092,39 @@
         <v>25</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.434717703248907</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1571072650800796</v>
       </c>
-      <c r="M76" s="5"/>
+      <c r="M76" s="5">
+        <f t="shared" si="11"/>
+        <v>3.417492696832519</v>
+      </c>
       <c r="N76" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9036152682705723</v>
       </c>
       <c r="O76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.54725776276488369</v>
       </c>
       <c r="P76" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5538002452453554</v>
       </c>
       <c r="Q76" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5912641366195162</v>
       </c>
       <c r="R76" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1125502475507207</v>
       </c>
       <c r="S76" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.71367831266228232</v>
       </c>
     </row>
@@ -5935,36 +6160,39 @@
         <v>25</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>64.703982775765127</v>
       </c>
       <c r="L77" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.2153475971609824</v>
       </c>
-      <c r="M77" s="5"/>
+      <c r="M77" s="5">
+        <f t="shared" si="11"/>
+        <v>3.4827795748988097</v>
+      </c>
       <c r="N77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9201412916255576</v>
       </c>
       <c r="O77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.55680761882225127</v>
       </c>
       <c r="P77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5583558672771691</v>
       </c>
       <c r="Q77" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6315777749531801</v>
       </c>
       <c r="R77" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.129594214345738</v>
       </c>
       <c r="S77" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.72160758559989147</v>
       </c>
     </row>
@@ -6000,36 +6228,39 @@
         <v>0</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16.128025017702178</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.912009500587258</v>
       </c>
-      <c r="M78" s="5"/>
+      <c r="M78" s="5">
+        <f t="shared" si="11"/>
+        <v>1.027677684338413</v>
+      </c>
       <c r="N78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4726024111217062</v>
       </c>
       <c r="O78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-7.0349041615759916E-2</v>
       </c>
       <c r="P78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4181325298025171</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.53984988728548378</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.0285480102273158E-2</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47754231695065602</v>
       </c>
     </row>
@@ -6065,36 +6296,39 @@
         <v>0</v>
       </c>
       <c r="K79" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.516471214480507</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23.087952140168383</v>
       </c>
-      <c r="M79" s="5"/>
+      <c r="M79" s="5">
+        <f t="shared" si="11"/>
+        <v>0.22738521126862637</v>
+      </c>
       <c r="N79" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1713384285368973</v>
       </c>
       <c r="O79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6227399074156514E-2</v>
       </c>
       <c r="P79" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.291790548562828</v>
       </c>
       <c r="Q79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.19505451022158535</v>
       </c>
       <c r="R79" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.16480152426937969</v>
       </c>
       <c r="S79" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.25763819722083203</v>
       </c>
     </row>
@@ -6130,36 +6364,39 @@
         <v>0</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.697034176670968</v>
       </c>
       <c r="L80" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.069709157681119</v>
       </c>
-      <c r="M80" s="5"/>
+      <c r="M80" s="5">
+        <f t="shared" si="11"/>
+        <v>0.15949527952600154</v>
+      </c>
       <c r="N80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.238920637867214</v>
       </c>
       <c r="O80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.14914205104548814</v>
       </c>
       <c r="P80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3276359045387029</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-3.0194235840424032E-2</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.13033919825229826</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.32002871361872381</v>
       </c>
     </row>
@@ -6195,36 +6432,39 @@
         <v>0</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.493628248375821</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.292174484390559</v>
       </c>
-      <c r="M81" s="5"/>
+      <c r="M81" s="5">
+        <f t="shared" si="11"/>
+        <v>0.58285779952139882</v>
+      </c>
       <c r="N81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4487612666962073</v>
       </c>
       <c r="O81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.2275723576279734</v>
       </c>
       <c r="P81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3571978325193488</v>
       </c>
       <c r="Q81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.48169171739881983</v>
       </c>
       <c r="R81" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.27031654797199478</v>
       </c>
       <c r="S81" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.37148263009457383</v>
       </c>
     </row>
@@ -6260,36 +6500,39 @@
         <v>0</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.521656519497228</v>
       </c>
       <c r="L82" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.454120143656267</v>
       </c>
-      <c r="M82" s="5"/>
+      <c r="M82" s="5">
+        <f t="shared" si="11"/>
+        <v>0.46788603037850995</v>
+      </c>
       <c r="N82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3029292079680619</v>
       </c>
       <c r="O82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13003773776125421</v>
       </c>
       <c r="P82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1288397193667441</v>
       </c>
       <c r="Q82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.12594849068683467</v>
       </c>
       <c r="R82" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.36792287205305135</v>
       </c>
       <c r="S82" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-2.5985332361376085E-2</v>
       </c>
     </row>
@@ -6325,36 +6568,39 @@
         <v>0</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17.069863102197147</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.98303499173911</v>
       </c>
-      <c r="M83" s="5"/>
+      <c r="M83" s="5">
+        <f t="shared" si="11"/>
+        <v>0.9327741519995052</v>
+      </c>
       <c r="N83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3382270109634578</v>
       </c>
       <c r="O83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17537111789350118</v>
       </c>
       <c r="P83" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2999781590310346</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.21205407297744952</v>
       </c>
       <c r="R83" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.44883096334138195</v>
       </c>
       <c r="S83" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.27188911568067375</v>
       </c>
     </row>
@@ -6390,36 +6636,39 @@
         <v>0</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.351745728109506</v>
       </c>
       <c r="L84" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.307383563427962</v>
       </c>
-      <c r="M84" s="5"/>
+      <c r="M84" s="5">
+        <f t="shared" si="11"/>
+        <v>0.5751652346495324</v>
+      </c>
       <c r="N84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4465072434991184</v>
       </c>
       <c r="O84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.22648974266816937</v>
       </c>
       <c r="P84" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3548271554170512</v>
       </c>
       <c r="Q84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.47619324544272651</v>
       </c>
       <c r="R84" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.26838436665786353</v>
       </c>
       <c r="S84" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.36735635586466947</v>
       </c>
     </row>
@@ -6455,36 +6704,39 @@
         <v>0</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.045383688970769</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.5957224557860972</v>
       </c>
-      <c r="M85" s="5"/>
+      <c r="M85" s="5">
+        <f t="shared" si="11"/>
+        <v>1.7577541920737774</v>
+      </c>
       <c r="N85" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5784758934965153</v>
       </c>
       <c r="O85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.22008477172419177</v>
       </c>
       <c r="P85" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3913942889648576</v>
       </c>
       <c r="Q85" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.79811802511284902</v>
       </c>
       <c r="R85" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.52863300712048578</v>
       </c>
       <c r="S85" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.43100315984044241</v>
       </c>
     </row>
@@ -6520,36 +6772,39 @@
         <v>1</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5329624243582032</v>
       </c>
       <c r="L86" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6433334947655762</v>
       </c>
-      <c r="M86" s="5"/>
+      <c r="M86" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.26743049286289</v>
+      </c>
       <c r="N86" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.57519949139588145</v>
       </c>
       <c r="O86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.36643406098950265</v>
       </c>
       <c r="P86" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4839034187933293</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.6492778882411987</v>
       </c>
       <c r="R86" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.78982777400788451</v>
       </c>
       <c r="S86" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.59201962137042419</v>
       </c>
     </row>
@@ -6585,36 +6840,39 @@
         <v>2</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.6355635880985666</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.2033550930371089</v>
       </c>
-      <c r="M87" s="5"/>
+      <c r="M87" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.37798864139125432</v>
+      </c>
       <c r="N87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.54095006669301593</v>
       </c>
       <c r="O87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35072217199842687</v>
       </c>
       <c r="P87" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4844960955925162</v>
       </c>
       <c r="Q87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7328260529114892</v>
       </c>
       <c r="R87" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.76178620849713574</v>
       </c>
       <c r="S87" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.5930512030230991</v>
       </c>
     </row>
@@ -6650,36 +6908,39 @@
         <v>1</v>
       </c>
       <c r="K88" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.6955513774035258</v>
       </c>
       <c r="L88" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.965688785402957</v>
       </c>
-      <c r="M88" s="5"/>
+      <c r="M88" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.37908596901836267</v>
+      </c>
       <c r="N88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53513328990689946</v>
       </c>
       <c r="O88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.35828968143318701</v>
       </c>
       <c r="P88" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4842583169930765</v>
       </c>
       <c r="Q88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7470155182526725</v>
       </c>
       <c r="R88" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.77529221097007628</v>
       </c>
       <c r="S88" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.59263733826423359</v>
       </c>
     </row>
@@ -6715,36 +6976,39 @@
         <v>25</v>
       </c>
       <c r="K89" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.4981878156918245</v>
       </c>
       <c r="L89" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.2669749761794769</v>
       </c>
-      <c r="M89" s="5"/>
+      <c r="M89" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.42648952159114173</v>
+      </c>
       <c r="N89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53560773288674435</v>
       </c>
       <c r="O89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34066217257387332</v>
       </c>
       <c r="P89" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4744335475162906</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.74585816041234</v>
       </c>
       <c r="R89" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.74383177074226492</v>
       </c>
       <c r="S89" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.57553686807893345</v>
       </c>
     </row>
@@ -6780,36 +7044,39 @@
         <v>2</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5065757002361164</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1084038368374705</v>
       </c>
-      <c r="M90" s="5"/>
+      <c r="M90" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.45290950961244281</v>
+      </c>
       <c r="N90" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53512792803885567</v>
       </c>
       <c r="O90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.32990152251989852</v>
       </c>
       <c r="P90" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.470960709581965</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7470285980120597</v>
       </c>
       <c r="R90" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.72462685696021323</v>
       </c>
       <c r="S90" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.56949223143940364</v>
       </c>
     </row>
@@ -6845,36 +7112,39 @@
         <v>2</v>
       </c>
       <c r="K91" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.514927345524721</v>
       </c>
       <c r="L91" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1385388442230626</v>
       </c>
-      <c r="M91" s="5"/>
+      <c r="M91" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.4283297041186952</v>
+      </c>
       <c r="N91" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.53285695656951493</v>
       </c>
       <c r="O91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.34385261810573403</v>
       </c>
       <c r="P91" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4739601154707269</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.7525684136419013</v>
       </c>
       <c r="R91" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.74952587203339305</v>
       </c>
       <c r="S91" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.57471283748981306</v>
       </c>
     </row>
@@ -6910,36 +7180,39 @@
         <v>3</v>
       </c>
       <c r="K92" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.92230247734966</v>
       </c>
       <c r="L92" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.633924823047936</v>
       </c>
-      <c r="M92" s="5"/>
+      <c r="M92" s="5">
+        <f t="shared" si="11"/>
+        <v>0.62660373406263836</v>
+      </c>
       <c r="N92" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3544266346671496</v>
       </c>
       <c r="O92" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.13748984434660413</v>
       </c>
       <c r="P92" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4221732245469774</v>
       </c>
       <c r="Q92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25157149087672159</v>
       </c>
       <c r="R92" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.10954309170666712</v>
       </c>
       <c r="S92" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.48457533489258392</v>
       </c>
     </row>
@@ -6975,36 +7248,39 @@
         <v>3</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.999097024421442</v>
       </c>
       <c r="L93" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.7660027914688374</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="5">
+        <f t="shared" si="11"/>
+        <v>0.61145382633081702</v>
+      </c>
       <c r="N93" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3523095475529701</v>
       </c>
       <c r="O93" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.14826885304530713</v>
       </c>
       <c r="P93" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4274889112372868</v>
       </c>
       <c r="Q93" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.24640706127326531</v>
       </c>
       <c r="R93" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.12878077081306172</v>
       </c>
       <c r="S93" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.49382753587061345</v>
       </c>
     </row>
@@ -7040,36 +7316,39 @@
         <v>3</v>
       </c>
       <c r="K94" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12.350905655614227</v>
       </c>
       <c r="L94" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.5593961996162164</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="5">
+        <f t="shared" si="11"/>
+        <v>0.7157661787167815</v>
+      </c>
       <c r="N94" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3854179341655919</v>
       </c>
       <c r="O94" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.12682200878542985</v>
       </c>
       <c r="P94" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4190264531346866</v>
       </c>
       <c r="Q94" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.32717177369331174</v>
       </c>
       <c r="R94" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-9.0503827241619428E-2</v>
       </c>
       <c r="S94" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47909823226508924</v>
       </c>
     </row>
@@ -7105,36 +7384,39 @@
         <v>0</v>
       </c>
       <c r="K95" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.074714295011987</v>
       </c>
       <c r="L95" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.106295002523382</v>
       </c>
-      <c r="M95" s="5"/>
+      <c r="M95" s="5">
+        <f t="shared" si="11"/>
+        <v>0.86260930800241242</v>
+      </c>
       <c r="N95" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4240912359816957</v>
       </c>
       <c r="O95" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-9.3235244658461738E-2</v>
       </c>
       <c r="P95" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4147518504899375</v>
       </c>
       <c r="Q95" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.42151155944175239</v>
       </c>
       <c r="R95" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.0560338136306309E-2</v>
       </c>
       <c r="S95" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.47165808669696641</v>
       </c>
     </row>
@@ -7170,36 +7452,39 @@
         <v>2</v>
       </c>
       <c r="K96" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.186973430757694</v>
       </c>
       <c r="L96" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.676030849124952</v>
       </c>
-      <c r="M96" s="5"/>
+      <c r="M96" s="5">
+        <f t="shared" si="11"/>
+        <v>0.58903721503721596</v>
+      </c>
       <c r="N96" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3496371926348054</v>
       </c>
       <c r="O96" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.15217182075244845</v>
       </c>
       <c r="P96" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.4223572508464604</v>
       </c>
       <c r="Q96" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.23988810947488373</v>
       </c>
       <c r="R96" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.13574653570029482</v>
       </c>
       <c r="S96" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.48489564126262708</v>
       </c>
     </row>
@@ -7235,36 +7520,39 @@
         <v>5</v>
       </c>
       <c r="K97" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23.61474188001371</v>
       </c>
       <c r="L97" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.000069319531061</v>
       </c>
-      <c r="M97" s="5"/>
+      <c r="M97" s="5">
+        <f t="shared" si="11"/>
+        <v>0.7898830541691424</v>
+      </c>
       <c r="N97" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5230121723410179</v>
       </c>
       <c r="O97" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.17807768352136491</v>
       </c>
       <c r="P97" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3213254480606036</v>
       </c>
       <c r="Q97" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.66281963255506504</v>
       </c>
       <c r="R97" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.1819816477456796</v>
       </c>
       <c r="S97" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.30904506935975695</v>
       </c>
     </row>
@@ -7300,36 +7588,39 @@
         <v>5</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21.457072024715664</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0363365073634316</v>
       </c>
-      <c r="M98" s="5"/>
+      <c r="M98" s="5">
+        <f t="shared" si="11"/>
+        <v>0.72759016823967082</v>
+      </c>
       <c r="N98" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4857297301319545</v>
       </c>
       <c r="O98" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.19436378945750202</v>
       </c>
       <c r="P98" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3544876853271919</v>
       </c>
       <c r="Q98" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.57187271452602129</v>
       </c>
       <c r="R98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.211048038603111</v>
       </c>
       <c r="S98" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.36676549231676053</v>
       </c>
     </row>
@@ -7365,36 +7656,39 @@
         <v>5</v>
       </c>
       <c r="K99" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.951478184775674</v>
       </c>
       <c r="L99" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0427585039186855</v>
       </c>
-      <c r="M99" s="5"/>
+      <c r="M99" s="5">
+        <f t="shared" si="11"/>
+        <v>0.70287294922778387</v>
+      </c>
       <c r="N99" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4771133968530543</v>
       </c>
       <c r="O99" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.19559599393743018</v>
       </c>
       <c r="P99" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3536262623797057</v>
       </c>
       <c r="Q99" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.55085400142689511</v>
       </c>
       <c r="R99" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.21324719763905947</v>
       </c>
       <c r="S99" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.36526614543994818</v>
       </c>
     </row>
@@ -7430,36 +7724,39 @@
         <v>0</v>
       </c>
       <c r="K100" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.929870737878552</v>
       </c>
       <c r="L100" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.5741422779819363</v>
       </c>
-      <c r="M100" s="5"/>
+      <c r="M100" s="5">
+        <f t="shared" si="11"/>
+        <v>0.69211252312613902</v>
+      </c>
       <c r="N100" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4757475037740324</v>
       </c>
       <c r="O100" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.1974169204554983</v>
       </c>
       <c r="P100" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3512255283706442</v>
       </c>
       <c r="Q100" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.54752203714200054</v>
       </c>
       <c r="R100" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.21649706977573693</v>
       </c>
       <c r="S100" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.36108755575987539</v>
       </c>
     </row>
@@ -7495,36 +7792,39 @@
         <v>9</v>
       </c>
       <c r="K101" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.050672425406979</v>
       </c>
       <c r="L101" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.85498332789005</v>
       </c>
-      <c r="M101" s="5"/>
+      <c r="M101" s="5">
+        <f t="shared" si="11"/>
+        <v>0.95253505347880207</v>
+      </c>
       <c r="N101" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4046585550089139</v>
       </c>
       <c r="O101" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.19299208986220084</v>
       </c>
       <c r="P101" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2001582526246657</v>
       </c>
       <c r="Q101" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.37410741049663571</v>
       </c>
       <c r="R101" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.48027973694868115</v>
       </c>
       <c r="S101" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.8147906033485235E-2</v>
       </c>
     </row>
@@ -7560,36 +7860,39 @@
         <v>12</v>
       </c>
       <c r="K102" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24.850494580038369</v>
       </c>
       <c r="L102" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4007675807269493</v>
       </c>
-      <c r="M102" s="5"/>
+      <c r="M102" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0057109023290656</v>
+      </c>
       <c r="N102" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.4546320470734884</v>
       </c>
       <c r="O102" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.18207496906254639</v>
       </c>
       <c r="P102" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1718651381698597</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.49601291928642849</v>
       </c>
       <c r="R102" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46079556427751805</v>
       </c>
       <c r="S102" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8902418765119061E-2</v>
       </c>
     </row>
@@ -7625,36 +7928,39 @@
         <v>13</v>
       </c>
       <c r="K103" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.687418443973154</v>
       </c>
       <c r="L103" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4930253253744592</v>
       </c>
-      <c r="M103" s="5"/>
+      <c r="M103" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13000905567710724</v>
+      </c>
       <c r="N103" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.3609320626822488</v>
       </c>
       <c r="O103" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.12654539195202036</v>
       </c>
       <c r="P103" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1165238608642334</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26744085439951232</v>
       </c>
       <c r="R103" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-9.0010139368707789E-2</v>
       </c>
       <c r="S103" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-4.7421659353697292E-2</v>
       </c>
     </row>
@@ -7690,36 +7996,39 @@
         <v>3</v>
       </c>
       <c r="K104" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.4604631555920058</v>
       </c>
       <c r="L104" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.4822144139736597</v>
       </c>
-      <c r="M104" s="5"/>
+      <c r="M104" s="5">
+        <f t="shared" si="11"/>
+        <v>0.30393686106008422</v>
+      </c>
       <c r="N104" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1028848668332545</v>
       </c>
       <c r="O104" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.7878857080736529E-2</v>
       </c>
       <c r="P104" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3787478904013177</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.36204036458559552</v>
       </c>
       <c r="R104" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.25698571321317054</v>
       </c>
       <c r="S104" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.4089915124325092</v>
       </c>
     </row>
@@ -7755,36 +8064,39 @@
         <v>5</v>
       </c>
       <c r="K105" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.181208196770051</v>
       </c>
       <c r="L105" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.8869374086970954</v>
       </c>
-      <c r="M105" s="5"/>
+      <c r="M105" s="5">
+        <f t="shared" si="11"/>
+        <v>6.4552781601712822E-2</v>
+      </c>
       <c r="N105" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2478672050165325</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.10926939582609783</v>
       </c>
       <c r="P105" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2196646989977711</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-8.3699490995569302E-3</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.917705638271812E-2</v>
       </c>
       <c r="S105" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.13209978708398787</v>
       </c>
     </row>
@@ -7820,36 +8132,39 @@
         <v>3</v>
       </c>
       <c r="K106" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.0874389624719747</v>
       </c>
       <c r="L106" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.710450453211827</v>
       </c>
-      <c r="M106" s="5"/>
+      <c r="M106" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.10516754249808885</v>
+      </c>
       <c r="N106" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1667991865139475</v>
       </c>
       <c r="O106" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.25419562281746516</v>
       </c>
       <c r="P106" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3843786105847335</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.20612755285812276</v>
       </c>
       <c r="R106" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.31783203356034173</v>
       </c>
       <c r="S106" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41879204392037567</v>
       </c>
     </row>
@@ -7885,36 +8200,39 @@
         <v>10</v>
       </c>
       <c r="K107" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.24959749152932</v>
       </c>
       <c r="L107" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5288012714046775</v>
       </c>
-      <c r="M107" s="5"/>
+      <c r="M107" s="5">
+        <f t="shared" si="11"/>
+        <v>0.48128676072722953</v>
+      </c>
       <c r="N107" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2959249589940036</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12314941396445682</v>
       </c>
       <c r="P107" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1534186375765731</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.10886230159743451</v>
       </c>
       <c r="R107" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.35562903627577108</v>
       </c>
       <c r="S107" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6795422854023911E-2</v>
       </c>
     </row>
@@ -7950,36 +8268,39 @@
         <v>5</v>
       </c>
       <c r="K108" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9675183601435187</v>
       </c>
       <c r="L108" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3287401576858446</v>
       </c>
-      <c r="M108" s="5"/>
+      <c r="M108" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.33929150750991977</v>
+      </c>
       <c r="N108" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1196624986098849</v>
       </c>
       <c r="O108" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.2554539226896605</v>
       </c>
       <c r="P108" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3172199224455658</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.32111295180093247</v>
       </c>
       <c r="R108" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.32007776596835286</v>
       </c>
       <c r="S108" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3018992102593655</v>
       </c>
     </row>
@@ -8015,36 +8336,39 @@
         <v>10</v>
       </c>
       <c r="K109" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13.489454099342144</v>
       </c>
       <c r="L109" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.556734626829674</v>
       </c>
-      <c r="M109" s="5"/>
+      <c r="M109" s="5">
+        <f t="shared" si="11"/>
+        <v>0.59356640307847464</v>
+      </c>
       <c r="N109" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2760869677230775</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17809555154086837</v>
       </c>
       <c r="P109" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1893890518553312</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.0469437314010575E-2</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.45369335669495819</v>
       </c>
       <c r="S109" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.9403609069505804E-2</v>
       </c>
     </row>
@@ -8080,36 +8404,39 @@
         <v>0</v>
       </c>
       <c r="K110" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.945491048389874</v>
       </c>
       <c r="L110" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0278481371409871</v>
       </c>
-      <c r="M110" s="5"/>
+      <c r="M110" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.87569506932553998</v>
+      </c>
       <c r="N110" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2509062862842641</v>
       </c>
       <c r="O110" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.56123237844333396</v>
       </c>
       <c r="P110" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1386401385270186</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-9.5640378001768714E-4</v>
       </c>
       <c r="R110" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.86581142050616489</v>
       </c>
       <c r="S110" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-8.9272450393573528E-3</v>
       </c>
     </row>
@@ -8145,36 +8472,39 @@
         <v>8</v>
       </c>
       <c r="K111" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66.222874790291286</v>
       </c>
       <c r="L111" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8483204476068749</v>
       </c>
-      <c r="M111" s="5"/>
+      <c r="M111" s="5">
+        <f t="shared" si="11"/>
+        <v>1.9780375760261708</v>
+      </c>
       <c r="N111" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8720608490592983</v>
       </c>
       <c r="O111" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.17920279915304932</v>
       </c>
       <c r="P111" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1484101392744528</v>
       </c>
       <c r="Q111" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5142901776344964</v>
       </c>
       <c r="R111" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.45566950077739332</v>
       </c>
       <c r="S111" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.0778976142811595E-3</v>
       </c>
     </row>
@@ -8210,36 +8540,39 @@
         <v>8</v>
       </c>
       <c r="K112" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65.189996831533435</v>
       </c>
       <c r="L112" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.799288598424134</v>
       </c>
-      <c r="M112" s="5"/>
+      <c r="M112" s="5">
+        <f t="shared" si="11"/>
+        <v>1.9699645827181373</v>
+      </c>
       <c r="N112" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8658555507633194</v>
       </c>
       <c r="O112" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.18377842236453232</v>
       </c>
       <c r="P112" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1477769794331805</v>
       </c>
       <c r="Q112" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.4991529515830078</v>
       </c>
       <c r="R112" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46383577779921936</v>
       </c>
       <c r="S112" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.9758533359100816E-3</v>
       </c>
     </row>
@@ -8275,36 +8608,39 @@
         <v>11</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42.888451302290719</v>
       </c>
       <c r="L113" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.8773370254381487</v>
       </c>
-      <c r="M113" s="5"/>
+      <c r="M113" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.7140364006526403</v>
+      </c>
       <c r="N113" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.6505825138310055</v>
       </c>
       <c r="O113" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.62316543339643382</v>
       </c>
       <c r="P113" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16033902809874651</v>
       </c>
       <c r="Q113" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.97401516329222593</v>
       </c>
       <c r="R113" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.97634554016132402</v>
       </c>
       <c r="S113" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-1.7117060237835422</v>
       </c>
     </row>
@@ -8340,36 +8676,39 @@
         <v>0</v>
       </c>
       <c r="K114" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-18.905411266818071</v>
       </c>
       <c r="L114" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7345515827535793</v>
       </c>
-      <c r="M114" s="5"/>
+      <c r="M114" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0342575862279362</v>
+      </c>
       <c r="N114" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1337673224256357</v>
       </c>
       <c r="O114" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.64633041487259146</v>
       </c>
       <c r="P114" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1619211591364542</v>
       </c>
       <c r="Q114" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.28670559596861128</v>
       </c>
       <c r="R114" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2893687234182545</v>
       </c>
       <c r="S114" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1594458778293054E-2</v>
       </c>
     </row>
@@ -8405,36 +8744,39 @@
         <v>0</v>
       </c>
       <c r="K115" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44.792682843333175</v>
       </c>
       <c r="L115" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.3817012778567861</v>
       </c>
-      <c r="M115" s="5"/>
+      <c r="M115" s="5">
+        <f t="shared" si="11"/>
+        <v>1.5038698137670683</v>
+      </c>
       <c r="N115" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.698327839465168</v>
       </c>
       <c r="O115" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.2347965969255899E-2</v>
       </c>
       <c r="P115" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2598043428827248</v>
       </c>
       <c r="Q115" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0904852752116794</v>
       </c>
       <c r="R115" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.21141982638333012</v>
       </c>
       <c r="S115" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.20196471217205894</v>
       </c>
     </row>
@@ -8470,36 +8812,39 @@
         <v>4</v>
       </c>
       <c r="K116" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.3244044635752639</v>
       </c>
       <c r="L116" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9510706761298766</v>
       </c>
-      <c r="M116" s="5"/>
+      <c r="M116" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.0634326146382411</v>
+      </c>
       <c r="N116" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.7766756410147051</v>
       </c>
       <c r="O116" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.15600235342043403</v>
       </c>
       <c r="P116" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.279902608915404</v>
       </c>
       <c r="Q116" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.1577962744177352</v>
       </c>
       <c r="R116" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.14258302320420929</v>
       </c>
       <c r="S116" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.23694668298370339</v>
       </c>
     </row>
@@ -8535,36 +8880,39 @@
         <v>3</v>
       </c>
       <c r="K117" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.3416923894665747</v>
       </c>
       <c r="L117" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.6461229234889929</v>
       </c>
-      <c r="M117" s="5"/>
+      <c r="M117" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.0718303074928273</v>
+      </c>
       <c r="N117" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.77264902861811502</v>
       </c>
       <c r="O117" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.15201458978142224</v>
       </c>
       <c r="P117" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2766322204459013</v>
       </c>
       <c r="Q117" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.1676188065768109</v>
       </c>
       <c r="R117" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.13546592001004559</v>
       </c>
       <c r="S117" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.23125441909402941</v>
       </c>
     </row>
@@ -8600,36 +8948,39 @@
         <v>3</v>
       </c>
       <c r="K118" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.2848741811864492</v>
       </c>
       <c r="L118" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.684153544399936</v>
       </c>
-      <c r="M118" s="5"/>
+      <c r="M118" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.1145602361559117</v>
+      </c>
       <c r="N118" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.76039844564625636</v>
       </c>
       <c r="O118" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.16306394146094569</v>
       </c>
       <c r="P118" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2805817585063863</v>
       </c>
       <c r="Q118" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.1975029209033874</v>
       </c>
       <c r="R118" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.15518608982213153</v>
       </c>
       <c r="S118" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.23812877456960715</v>
       </c>
     </row>
@@ -8665,36 +9016,39 @@
         <v>0</v>
       </c>
       <c r="K119" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.7342299350788979</v>
       </c>
       <c r="L119" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.350490907914608</v>
       </c>
-      <c r="M119" s="5"/>
+      <c r="M119" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.92786981134902657</v>
+      </c>
       <c r="N119" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89257566119334408</v>
       </c>
       <c r="O119" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4976572050632445E-2</v>
       </c>
       <c r="P119" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0609998571485209</v>
       </c>
       <c r="Q119" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.87506936571247007</v>
       </c>
       <c r="R119" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.1263335687787869E-2</v>
       </c>
       <c r="S119" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.14406378132434439</v>
       </c>
     </row>
@@ -8730,36 +9084,39 @@
         <v>0</v>
       </c>
       <c r="K120" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9844517171950091</v>
       </c>
       <c r="L120" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31.534595351261032</v>
       </c>
-      <c r="M120" s="5"/>
+      <c r="M120" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.83528680468263294</v>
+      </c>
       <c r="N120" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.90927638287938328</v>
       </c>
       <c r="O120" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.4200833087439279E-2</v>
       </c>
       <c r="P120" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0899900126578754</v>
       </c>
       <c r="Q120" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.83432956766788713</v>
       </c>
       <c r="R120" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.2647824527288758E-2</v>
       </c>
       <c r="S120" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-9.3605061542034504E-2</v>
       </c>
     </row>
@@ -8795,36 +9152,39 @@
         <v>0</v>
       </c>
       <c r="K121" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.0538938214162306</v>
       </c>
       <c r="L121" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42.069751098960303</v>
       </c>
-      <c r="M121" s="5"/>
+      <c r="M121" s="5">
+        <f t="shared" si="11"/>
+        <v>0.79706062986707349</v>
+      </c>
       <c r="N121" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.57183299622420247</v>
       </c>
       <c r="O121" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56826643230050322</v>
       </c>
       <c r="P121" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8932494981520878</v>
       </c>
       <c r="Q121" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.6574901281665497</v>
       </c>
       <c r="R121" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1500451651517398</v>
       </c>
       <c r="S121" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3045055928818834</v>
       </c>
     </row>
@@ -8860,36 +9220,39 @@
         <v>5</v>
       </c>
       <c r="K122" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.1315385628378145</v>
       </c>
       <c r="L122" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.21214642849044</v>
       </c>
-      <c r="M122" s="5"/>
+      <c r="M122" s="5">
+        <f t="shared" si="11"/>
+        <v>0.801969191734901</v>
+      </c>
       <c r="N122" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.57315584379473616</v>
       </c>
       <c r="O122" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.56795822625555403</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.894531663802387</v>
       </c>
       <c r="Q122" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.6542631692434295</v>
       </c>
       <c r="R122" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.1494950988926693</v>
       </c>
       <c r="S122" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3067372620856612</v>
       </c>
     </row>
@@ -8925,36 +9288,39 @@
         <v>2</v>
       </c>
       <c r="K123" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1787663217619233</v>
       </c>
       <c r="L123" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6017326384498203</v>
       </c>
-      <c r="M123" s="5"/>
+      <c r="M123" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.90095286956026588</v>
+      </c>
       <c r="N123" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.91255384941445383</v>
       </c>
       <c r="O123" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-3.1230999365605413E-2</v>
       </c>
       <c r="P123" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.0548779753773039</v>
       </c>
       <c r="Q123" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.82633450450554058</v>
       </c>
       <c r="R123" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.0100837443009845E-2</v>
       </c>
       <c r="S123" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.15471920249773519</v>
       </c>
     </row>
@@ -8990,36 +9356,39 @@
         <v>7</v>
       </c>
       <c r="K124" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.1178054371933506</v>
       </c>
       <c r="L124" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7309476389005458</v>
       </c>
-      <c r="M124" s="5"/>
+      <c r="M124" s="5">
+        <f t="shared" si="11"/>
+        <v>0.19497797544032813</v>
+      </c>
       <c r="N124" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0480138954098404</v>
       </c>
       <c r="O124" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.13836043098764167</v>
       </c>
       <c r="P124" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3207790850517103</v>
       </c>
       <c r="Q124" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.49589280140385966</v>
       </c>
       <c r="R124" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.3827766778218018</v>
       </c>
       <c r="S124" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.30809409902238599</v>
       </c>
     </row>
@@ -9055,36 +9424,39 @@
         <v>7</v>
       </c>
       <c r="K125" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.5893727651844003</v>
       </c>
       <c r="L125" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.739350654202275</v>
       </c>
-      <c r="M125" s="5"/>
+      <c r="M125" s="5">
+        <f t="shared" si="11"/>
+        <v>0.16306336365632573</v>
+      </c>
       <c r="N125" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.0241675682606606</v>
       </c>
       <c r="O125" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.14358454189553038</v>
       </c>
       <c r="P125" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3305073760254045</v>
       </c>
       <c r="Q125" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.55406361404453441</v>
       </c>
       <c r="R125" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.39210033383427645</v>
       </c>
       <c r="S125" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.3250266438665837</v>
       </c>
     </row>
@@ -9120,36 +9492,39 @@
         <v>4</v>
       </c>
       <c r="K126" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.1673334750210271</v>
       </c>
       <c r="L126" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5086985825972641</v>
       </c>
-      <c r="M126" s="5"/>
+      <c r="M126" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.5590051565043586</v>
+      </c>
       <c r="N126" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.89505023693648822</v>
       </c>
       <c r="O126" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.1017600207430152</v>
       </c>
       <c r="P126" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.77365698553233053</v>
       </c>
       <c r="Q126" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.86903287711533417</v>
       </c>
       <c r="R126" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-4.5774808348974357E-2</v>
       </c>
       <c r="S126" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>-0.64419747104004998</v>
       </c>
     </row>
@@ -9185,36 +9560,39 @@
         <v>26</v>
       </c>
       <c r="K127" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22.9287617827868</v>
       </c>
       <c r="L127" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.722383632514298</v>
       </c>
-      <c r="M127" s="5"/>
+      <c r="M127" s="5">
+        <f t="shared" si="11"/>
+        <v>0.99830345596800318</v>
+      </c>
       <c r="N127" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5093849856873298</v>
       </c>
       <c r="O127" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.7573755022848832E-2</v>
       </c>
       <c r="P127" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2492958913143219</v>
       </c>
       <c r="Q127" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.62957742646218828</v>
       </c>
       <c r="R127" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.18505176813402552</v>
       </c>
       <c r="S127" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.18367426137178935</v>
       </c>
     </row>
@@ -9250,36 +9628,39 @@
         <v>4</v>
       </c>
       <c r="K128" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.043094567010513</v>
       </c>
       <c r="L128" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3756008576237466</v>
       </c>
-      <c r="M128" s="5"/>
+      <c r="M128" s="5">
+        <f t="shared" si="11"/>
+        <v>0.13725972408146331</v>
+      </c>
       <c r="N128" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2201217032984641</v>
       </c>
       <c r="O128" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.13380921645337807</v>
       </c>
       <c r="P128" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3254857621019733</v>
       </c>
       <c r="Q128" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-7.6052421623162642E-2</v>
       </c>
       <c r="R128" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.10297414457069828</v>
       </c>
       <c r="S128" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.31628629027532423</v>
       </c>
     </row>
@@ -9315,36 +9696,39 @@
         <v>3</v>
       </c>
       <c r="K129" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.020897382016841</v>
       </c>
       <c r="L129" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.1787883196554452</v>
       </c>
-      <c r="M129" s="5"/>
+      <c r="M129" s="5">
+        <f t="shared" si="11"/>
+        <v>-8.7333225755348298E-4</v>
+      </c>
       <c r="N129" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1838968158245227</v>
       </c>
       <c r="O129" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.14963446503502151</v>
       </c>
       <c r="P129" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3131206480461279</v>
       </c>
       <c r="Q129" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-0.16441953698619488</v>
       </c>
       <c r="R129" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.13121802696307591</v>
       </c>
       <c r="S129" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.29476423169171728</v>
       </c>
     </row>
@@ -9380,36 +9764,39 @@
         <v>3</v>
       </c>
       <c r="K130" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11.952133038871715</v>
       </c>
       <c r="L130" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5307730676341089</v>
       </c>
-      <c r="M130" s="5"/>
+      <c r="M130" s="5">
+        <f t="shared" si="11"/>
+        <v>0.16299573875216639</v>
+      </c>
       <c r="N130" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.2447698313328563</v>
       </c>
       <c r="O130" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-0.13443813744029295</v>
       </c>
       <c r="P130" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3063720801539924</v>
       </c>
       <c r="Q130" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.5925693139472036E-2</v>
       </c>
       <c r="R130" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-0.10409660216097756</v>
       </c>
       <c r="S130" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.283018034052616</v>
       </c>
     </row>
@@ -9445,36 +9832,39 @@
         <v>4</v>
       </c>
       <c r="K131" s="13">
-        <f t="shared" ref="K131:K136" si="16">D131-(0.87*F131)</f>
+        <f t="shared" ref="K131:K136" si="18">D131-(0.87*F131)</f>
         <v>11.204166102827855</v>
       </c>
       <c r="L131" s="13">
-        <f t="shared" ref="L131:L136" si="17">(D131+E131+H131)/(G131+J131)</f>
+        <f t="shared" ref="L131:L136" si="19">(D131+E131+H131)/(G131+J131)</f>
         <v>5.3270875302082823</v>
       </c>
-      <c r="M131" s="5"/>
+      <c r="M131" s="5">
+        <f t="shared" ref="M131:M136" si="20">SUM(Q131:S131)</f>
+        <v>0.10899390655982405</v>
+      </c>
       <c r="N131" s="5">
-        <f t="shared" ref="N131:N136" si="18">LOG(D131)</f>
+        <f t="shared" ref="N131:N136" si="21">LOG(D131)</f>
         <v>1.2178160062410686</v>
       </c>
       <c r="O131" s="5">
-        <f t="shared" ref="O131:O136" si="19">LOG(E131)</f>
+        <f t="shared" ref="O131:O136" si="22">LOG(E131)</f>
         <v>-0.13783035932983131</v>
       </c>
       <c r="P131" s="5">
-        <f t="shared" ref="P131:P136" si="20">LOG(H131)</f>
+        <f t="shared" ref="P131:P136" si="23">LOG(H131)</f>
         <v>1.3166008434816538</v>
       </c>
       <c r="Q131" s="5">
-        <f t="shared" ref="Q131:Q136" si="21">STANDARDIZE(N131,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
+        <f t="shared" ref="Q131:Q136" si="24">STANDARDIZE(N131,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
         <v>-8.1676946972196407E-2</v>
       </c>
       <c r="R131" s="5">
-        <f t="shared" ref="R131:R136" si="22">STANDARDIZE(O131,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
+        <f t="shared" ref="R131:R136" si="25">STANDARDIZE(O131,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
         <v>-0.11015082087373164</v>
       </c>
       <c r="S131" s="5">
-        <f t="shared" ref="S131:S136" si="23">STANDARDIZE(P131,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
+        <f t="shared" ref="S131:S136" si="26">STANDARDIZE(P131,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
         <v>0.30082167440575208</v>
       </c>
     </row>
@@ -9510,36 +9900,39 @@
         <v>4</v>
       </c>
       <c r="K132" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.664481660975524</v>
       </c>
       <c r="L132" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.3771675285644722</v>
       </c>
-      <c r="M132" s="5"/>
+      <c r="M132" s="5">
+        <f t="shared" si="20"/>
+        <v>0.11931882748788805</v>
+      </c>
       <c r="N132" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2105923469024227</v>
       </c>
       <c r="O132" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.13004342008942082</v>
       </c>
       <c r="P132" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3246722808699427</v>
       </c>
       <c r="Q132" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-9.9298366461230123E-2</v>
       </c>
       <c r="R132" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-9.6253194244481907E-2</v>
       </c>
       <c r="S132" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31487038819360008</v>
       </c>
     </row>
@@ -9575,36 +9968,39 @@
         <v>2</v>
       </c>
       <c r="K133" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.056843986233011</v>
       </c>
       <c r="L133" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>7.7728100208316624</v>
       </c>
-      <c r="M133" s="5"/>
+      <c r="M133" s="5">
+        <f t="shared" si="20"/>
+        <v>0.11904920389684712</v>
+      </c>
       <c r="N133" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.216885581333875</v>
       </c>
       <c r="O133" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.14109441873027628</v>
       </c>
       <c r="P133" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3270288667778565</v>
       </c>
       <c r="Q133" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-8.3946628697771225E-2</v>
       </c>
       <c r="R133" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.11597630344686721</v>
       </c>
       <c r="S133" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31897213604148555</v>
       </c>
     </row>
@@ -9640,36 +10036,39 @@
         <v>4</v>
       </c>
       <c r="K134" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.393882545269491</v>
       </c>
       <c r="L134" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.5619715124456413</v>
       </c>
-      <c r="M134" s="5"/>
+      <c r="M134" s="5">
+        <f t="shared" si="20"/>
+        <v>0.14703810212967267</v>
+      </c>
       <c r="N134" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2259171324370255</v>
       </c>
       <c r="O134" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.13682892278696832</v>
       </c>
       <c r="P134" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.326077740021909</v>
       </c>
       <c r="Q134" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-6.191503180700577E-2</v>
       </c>
       <c r="R134" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.10836352155933979</v>
       </c>
       <c r="S134" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31731665549601823</v>
       </c>
     </row>
@@ -9705,36 +10104,39 @@
         <v>4</v>
       </c>
       <c r="K135" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.391355329195509</v>
       </c>
       <c r="L135" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>5.5409272070096121</v>
       </c>
-      <c r="M135" s="5"/>
+      <c r="M135" s="5">
+        <f t="shared" si="20"/>
+        <v>0.12680894071333693</v>
+      </c>
       <c r="N135" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.2231194101693865</v>
       </c>
       <c r="O135" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.14072653837963944</v>
       </c>
       <c r="P135" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.3223730561663813</v>
       </c>
       <c r="Q135" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-6.8739805149808292E-2</v>
       </c>
       <c r="R135" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-0.11531973433806307</v>
       </c>
       <c r="S135" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.31086848020120827</v>
       </c>
     </row>
@@ -9770,36 +10172,39 @@
         <v>0</v>
       </c>
       <c r="K136" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>12.124073079078046</v>
       </c>
       <c r="L136" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23.859619911704453</v>
       </c>
-      <c r="M136" s="5"/>
+      <c r="M136" s="5">
+        <f t="shared" si="20"/>
+        <v>-7.9099604162638865E-2</v>
+      </c>
       <c r="N136" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1.1641106136896753</v>
       </c>
       <c r="O136" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-0.11211753037365649</v>
       </c>
       <c r="P136" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1.2574384043419904</v>
       </c>
       <c r="Q136" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.21268606667256276</v>
       </c>
       <c r="R136" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>-6.4260223119967597E-2</v>
       </c>
       <c r="S136" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.19784668562989147</v>
       </c>
     </row>

--- a/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/M-index/data_KMO-index.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="168">
   <si>
     <t>part</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -532,6 +532,16 @@
   </si>
   <si>
     <t>Z_SiO2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hardn</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -669,6 +679,12 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -951,10 +967,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S136"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -966,10 +985,12 @@
     <col min="5" max="6" width="5.375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="5.375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="11" max="19" width="9" style="12"/>
+    <col min="20" max="20" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1048,11 @@
       <c r="S1" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1093,7 @@
       </c>
       <c r="M2" s="5">
         <f>SUM(Q2:S2)</f>
-        <v>1.3616274431110953</v>
+        <v>1.672907321257451</v>
       </c>
       <c r="N2" s="5">
         <f>LOG(D2)</f>
@@ -1084,19 +1108,22 @@
         <v>1.3743144927092472</v>
       </c>
       <c r="Q2" s="5">
-        <f>STANDARDIZE(N2,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
-        <v>0.84509646104188774</v>
+        <f>STANDARDIZE(N2,AVERAGE(N$2:N$35), _xlfn.STDEV.S(N$2:N$35))</f>
+        <v>0.53546820893743297</v>
       </c>
       <c r="R2" s="5">
-        <f>STANDARDIZE(O2,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
-        <v>0.11525600540193563</v>
+        <f t="shared" ref="R2:S2" si="0">STANDARDIZE(O2,AVERAGE(O$2:O$35), _xlfn.STDEV.S(O$2:O$35))</f>
+        <v>0.3186513933171316</v>
       </c>
       <c r="S2" s="5">
-        <f>STANDARDIZE(P2,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
-        <v>0.40127497666727191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0.81878771900288649</v>
+      </c>
+      <c r="T2" s="14">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1128,43 +1155,46 @@
         <v>5</v>
       </c>
       <c r="K3" s="13">
-        <f t="shared" ref="K3:K66" si="0">D3-(0.87*F3)</f>
+        <f t="shared" ref="K3:K66" si="1">D3-(0.87*F3)</f>
         <v>6.8417387295646854</v>
       </c>
       <c r="L3" s="13">
-        <f t="shared" ref="L3:L66" si="1">(D3+E3+H3)/(G3+J3)</f>
+        <f t="shared" ref="L3:L66" si="2">(D3+E3+H3)/(G3+J3)</f>
         <v>1.2651703664439973</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M66" si="2">SUM(Q3:S3)</f>
-        <v>-3.1240419268804169</v>
+        <f t="shared" ref="M3:M66" si="3">SUM(Q3:S3)</f>
+        <v>-1.1953297848864066</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:N66" si="3">LOG(D3)</f>
+        <f t="shared" ref="N3:N66" si="4">LOG(D3)</f>
         <v>0.9396448809167085</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" ref="O3:O66" si="4">LOG(E3)</f>
+        <f t="shared" ref="O3:O66" si="5">LOG(E3)</f>
         <v>-0.74848667885416731</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P66" si="5">LOG(H3)</f>
+        <f t="shared" ref="P3:P66" si="6">LOG(H3)</f>
         <v>0.47513865643610764</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" ref="Q3:Q66" si="6">STANDARDIZE(N3,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
-        <v>-0.7602485488822035</v>
+        <f t="shared" ref="Q3:Q35" si="7">STANDARDIZE(N3,AVERAGE(N$2:N$35), _xlfn.STDEV.S(N$2:N$35))</f>
+        <v>-0.60007626517895585</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" ref="R3:R66" si="7">STANDARDIZE(O3,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
-        <v>-1.2000108114974242</v>
+        <f t="shared" ref="R3:R35" si="8">STANDARDIZE(O3,AVERAGE(O$2:O$35), _xlfn.STDEV.S(O$2:O$35))</f>
+        <v>-0.43089195223774135</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" ref="S3:S66" si="8">STANDARDIZE(P3,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
-        <v>-1.1637825665007893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S3:S35" si="9">STANDARDIZE(P3,AVERAGE(P$2:P$35), _xlfn.STDEV.S(P$2:P$35))</f>
+        <v>-0.16436156746970951</v>
+      </c>
+      <c r="T3" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1196,43 +1226,46 @@
         <v>15</v>
       </c>
       <c r="K4" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.530722454003012</v>
       </c>
       <c r="L4" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2752793835029008</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9205814013136906</v>
+        <f t="shared" si="3"/>
+        <v>2.6913241026220214</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9303601289244894</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22998556336914372</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5561524634546517</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="6"/>
-        <v>1.656505641882245</v>
+        <f t="shared" si="7"/>
+        <v>1.1094203537129299</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="7"/>
-        <v>0.54630330110473468</v>
+        <f t="shared" si="8"/>
+        <v>0.56429632859734591</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="8"/>
-        <v>0.71777245832671077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1.0176074203117456</v>
+      </c>
+      <c r="T4" s="14">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1264,43 +1297,46 @@
         <v>6</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.334540871877159</v>
       </c>
       <c r="L5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.545160980451648</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.88024068928400157</v>
+        <f t="shared" si="3"/>
+        <v>1.3595755202765087</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5134696767006999</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.2866860539020353E-2</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2684769899315518</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.63954163579922119</v>
+        <f t="shared" si="7"/>
+        <v>0.39006853192762492</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="7"/>
-        <v>2.3639194028450213E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.26644086810382311</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="8"/>
-        <v>0.21705985945633027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.70306612024506077</v>
+      </c>
+      <c r="T5" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1332,43 +1368,46 @@
         <v>0</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1581576807677312</v>
       </c>
       <c r="L6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.366824419725357</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
-        <v>-8.420196202413031</v>
+        <f t="shared" si="3"/>
+        <v>-4.4472579841545503</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.50179790452413153</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2821882967027323</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.38138370704607971</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.8283339722550276</v>
+        <f t="shared" si="7"/>
+        <v>-1.3555889387148607</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.9372624822080322</v>
+        <f t="shared" si="8"/>
+        <v>-1.9907950445447395</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.6545997479499714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.1008740008949505</v>
+      </c>
+      <c r="T6" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1400,43 +1439,46 @@
         <v>0</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87646246929181937</v>
       </c>
       <c r="L7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.316809865204114</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="2"/>
-        <v>-12.567211364096533</v>
+        <f t="shared" si="3"/>
+        <v>-7.0584930955505261</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1342943719123113E-2</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2126207928036052</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0627177145614437</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.1288795950770951</v>
+        <f t="shared" si="7"/>
+        <v>-2.275532867404487</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="7"/>
-        <v>-5.5978383561568226</v>
+        <f t="shared" si="8"/>
+        <v>-2.9371228771296942</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.8404934128626151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.8458373510163448</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1468,43 +1510,46 @@
         <v>118</v>
       </c>
       <c r="K8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.371522325904049</v>
       </c>
       <c r="L8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3614914405082621</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.9941883086020527</v>
+        <f t="shared" si="3"/>
+        <v>-0.97118798895322556</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6487139712576495</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.80265782918152784</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.388481252888629</v>
       </c>
       <c r="Q8" s="5">
-        <f t="shared" si="6"/>
-        <v>0.96945703409833217</v>
+        <f t="shared" si="7"/>
+        <v>0.62343494547020506</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="7"/>
-        <v>-1.2966919846879998</v>
+        <f t="shared" si="8"/>
+        <v>-0.48598855246693962</v>
       </c>
       <c r="S8" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.666953358012385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.108634381956491</v>
+      </c>
+      <c r="T8" s="14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1536,43 +1581,46 @@
         <v>0</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0801553837041289</v>
       </c>
       <c r="L9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2036807360288626</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="2"/>
-        <v>-9.4962457224714427</v>
+        <f t="shared" si="3"/>
+        <v>-5.0875521603031197</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49060901702123982</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6456866547222107</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.61120052031715666</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.8556281829951786</v>
+        <f t="shared" si="7"/>
+        <v>-1.3748955612724705</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.586010893378857</v>
+        <f t="shared" si="8"/>
+        <v>-2.3605033412071008</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.0546066460974068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.3521532578235484</v>
+      </c>
+      <c r="T9" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1604,43 +1652,46 @@
         <v>0</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6615581696554926</v>
       </c>
       <c r="L10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8874700617268774</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" si="2"/>
-        <v>-8.5681890466390627</v>
+        <f t="shared" si="3"/>
+        <v>-4.5506604148150132</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42897122261261444</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.3170584981163502</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.32858713497574843</v>
       </c>
       <c r="Q10" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.0059876311272951</v>
+        <f t="shared" si="7"/>
+        <v>-1.481252661710144</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.9994965673564415</v>
+        <f t="shared" si="8"/>
+        <v>-2.0262609620227252</v>
       </c>
       <c r="S10" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.5627048481553247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.0431467910821441</v>
+      </c>
+      <c r="T10" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1672,43 +1723,46 @@
         <v>8</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.110295334980037</v>
       </c>
       <c r="L11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2075021679069946</v>
       </c>
       <c r="M11" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.7916321372114288</v>
+        <f t="shared" si="3"/>
+        <v>-0.36487860721319637</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1124973294442972</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.3647606532837625</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.604927465246062</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.33859169016020529</v>
+        <f t="shared" si="7"/>
+        <v>-0.30181631922647773</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.51516136466620754</v>
+        <f t="shared" si="8"/>
+        <v>-4.0610422297377768E-2</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.93787908238501594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-2.2451865689340874E-2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1740,43 +1794,46 @@
         <v>8</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.045708872061617</v>
       </c>
       <c r="L12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2052754826027567</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.7963769482616221</v>
+        <f t="shared" si="3"/>
+        <v>-0.36847531278689999</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1096319195382744</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.36415794072188828</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.60559932154266527</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.34558158096138553</v>
+        <f t="shared" si="7"/>
+        <v>-0.30676063451377694</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.51408568218159068</v>
+        <f t="shared" si="8"/>
+        <v>-3.9997413105695018E-2</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.93670968511864583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-2.1717265167428074E-2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,43 +1865,46 @@
         <v>157</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.037131549964464</v>
       </c>
       <c r="L13" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53085631686559476</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="2"/>
-        <v>1.2616894099571616</v>
+        <f t="shared" si="3"/>
+        <v>1.515640093119228</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8268810364472396</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3216726689094052</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.37130941526872407</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="6"/>
-        <v>1.4040783870239135</v>
+        <f t="shared" si="7"/>
+        <v>0.93086535612751875</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="7"/>
-        <v>2.4946759954786932</v>
+        <f t="shared" si="8"/>
+        <v>1.6746336145113745</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.6370649725454451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.0898588775196651</v>
+      </c>
+      <c r="T13" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1876,43 +1936,46 @@
         <v>6</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3636524330019304</v>
       </c>
       <c r="L14" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9492857118860458</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.33593996772277546</v>
+        <f t="shared" si="3"/>
+        <v>0.50469442403613973</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0355944008918876</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.6254749768307081E-2</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2532195876402208</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.52618895913817842</v>
+        <f t="shared" si="7"/>
+        <v>-0.43451367763252907</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.5464668586010322E-4</v>
+        <f t="shared" si="8"/>
+        <v>0.25282426265385094</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="8"/>
-        <v>0.190503638101263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.68638383901481781</v>
+      </c>
+      <c r="T14" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1944,43 +2007,46 @@
         <v>24</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31.643044897237708</v>
       </c>
       <c r="L15" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2835212369905611</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.31840559025158438</v>
+        <f t="shared" si="3"/>
+        <v>1.0347048140254422</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5631344232075395</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24041034925165583</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0581296951008157</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="6"/>
-        <v>0.76069398961129853</v>
+        <f t="shared" si="7"/>
+        <v>0.47576592722086669</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.29322896692724637</v>
+        <f t="shared" si="8"/>
+        <v>8.5864259304054377E-2</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.14905943243246778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.47307462750052132</v>
+      </c>
+      <c r="T15" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2012,43 +2078,46 @@
         <v>9</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.575058552849736</v>
       </c>
       <c r="L16" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2729720998951886</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.5694566998800297</v>
+        <f t="shared" si="3"/>
+        <v>-0.19558470828891522</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2192263151310327</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.45235169264938074</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.67280683644133288</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="6"/>
-        <v>-7.8236634604997898E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.11765357363825009</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.67148819907298363</v>
+        <f t="shared" si="8"/>
+        <v>-0.12969785076112142</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.81973186620204819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>5.1766716110456308E-2</v>
+      </c>
+      <c r="T16" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -2080,43 +2149,46 @@
         <v>11</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.013929525442926</v>
       </c>
       <c r="L17" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9817572441175937</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="2"/>
-        <v>1.2921041379598119</v>
+        <f t="shared" si="3"/>
+        <v>1.5739765772498393</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4080867115907076</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16752199849098068</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4165637077618771</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="6"/>
-        <v>0.38247006747835371</v>
+        <f t="shared" si="7"/>
+        <v>0.20822836856423799</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="7"/>
-        <v>0.43482236157157039</v>
+        <f t="shared" si="8"/>
+        <v>0.50076564774258647</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="8"/>
-        <v>0.47481170890988772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.86498256094301484</v>
+      </c>
+      <c r="T17" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -2148,43 +2220,46 @@
         <v>14</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.595042535622611</v>
       </c>
       <c r="L18" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4608234894488108</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="2"/>
-        <v>2.883214237078231</v>
+        <f t="shared" si="3"/>
+        <v>2.6669897509537304</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.924898165591358</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22812118282200813</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.544250567425753</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" si="6"/>
-        <v>1.6431817097012362</v>
+        <f t="shared" si="7"/>
+        <v>1.0999956397305057</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.54297587502126621</v>
+        <f t="shared" si="8"/>
+        <v>0.56240009731815244</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="8"/>
-        <v>0.69705665235572856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1.0045940139050722</v>
+      </c>
+      <c r="T18" s="14">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -2216,43 +2291,46 @@
         <v>18</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.318470881757712</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4736421283432906</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="2"/>
-        <v>2.0189425168989237</v>
+        <f t="shared" si="3"/>
+        <v>2.0190870794509177</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4679457404050493</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38892191668770121</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5232415525241261</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="6"/>
-        <v>0.52849038868876674</v>
+        <f t="shared" si="7"/>
+        <v>0.31151617762344141</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="7"/>
-        <v>0.82996264761318239</v>
+        <f t="shared" si="8"/>
+        <v>0.72594792114726991</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="8"/>
-        <v>0.66048948059697432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.98162298068020659</v>
+      </c>
+      <c r="T19" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2284,43 +2362,46 @@
         <v>10</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.727270689689112</v>
       </c>
       <c r="L20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8754593898265428</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0462087919195349</v>
+        <f t="shared" si="3"/>
+        <v>1.4338578202636243</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3654568521668553</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.9478899216277676E-2</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5575454330915806</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="6"/>
-        <v>0.27847864146420065</v>
+        <f t="shared" si="7"/>
+        <v>0.13466979490197048</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="7"/>
-        <v>4.7533163410508186E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.28005754687888251</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="8"/>
-        <v>0.72019698704482604</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1.0191304784827713</v>
+      </c>
+      <c r="T20" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -2352,43 +2433,46 @@
         <v>11</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52.246911094931178</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5039784876781077</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="2"/>
-        <v>2.025183661119077</v>
+        <f t="shared" si="3"/>
+        <v>2.0986746114685855</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7563655593351468</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19703455526852007</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3193613722593678</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2320626891055684</v>
+        <f t="shared" si="7"/>
+        <v>0.80918965774185703</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="7"/>
-        <v>0.48749446832697824</v>
+        <f t="shared" si="8"/>
+        <v>0.53078239157555485</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="8"/>
-        <v>0.3056265036865306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.75870256215117371</v>
+      </c>
+      <c r="T21" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2420,43 +2504,46 @@
         <v>6</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.155214533846447</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2384992088919564</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="2"/>
-        <v>-2.4336263263347684</v>
+        <f t="shared" si="3"/>
+        <v>-0.77896460212208218</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0061342397602244</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.45842337696395857</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.48119133359624044</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.59805417774535552</v>
+        <f t="shared" si="7"/>
+        <v>-0.48534770481426553</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.68232454940390352</v>
+        <f t="shared" si="8"/>
+        <v>-0.13587326260629365</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.1532475991855096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-0.15774363470152297</v>
+      </c>
+      <c r="T22" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -2488,43 +2575,46 @@
         <v>8</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.089498416221012</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0563924551959065</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0536139860934071</v>
+        <f t="shared" si="3"/>
+        <v>1.4585813089568778</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4887572023005029</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3543935865403516E-2</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3521453099571819</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="6"/>
-        <v>0.57925794056899882</v>
+        <f t="shared" si="7"/>
+        <v>0.34742672186510609</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="7"/>
-        <v>0.1116675669505434</v>
+        <f t="shared" si="8"/>
+        <v>0.31660641648990878</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="8"/>
-        <v>0.36268847857386488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.79454817060186289</v>
+      </c>
+      <c r="T23" s="14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2556,43 +2646,46 @@
         <v>8</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2393670687050502</v>
       </c>
       <c r="L24" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1186517212740712</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="2"/>
-        <v>0.1917226339237097</v>
+        <f t="shared" si="3"/>
+        <v>0.85464560622979446</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1642505429744734</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.508835285944999E-2</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3133458265804625</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.21234472269292126</v>
+        <f t="shared" si="7"/>
+        <v>-0.21251523728135452</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="7"/>
-        <v>0.10891119116790732</v>
+        <f t="shared" si="8"/>
+        <v>0.31503561496190097</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="8"/>
-        <v>0.29515616544872364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.75212522854924801</v>
+      </c>
+      <c r="T24" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2624,43 +2717,46 @@
         <v>0</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47.128223649201352</v>
       </c>
       <c r="L25" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5671181058271715</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.9595155217437614</v>
+        <f t="shared" si="3"/>
+        <v>-0.42739745206640989</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7326559518185989</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37342461670526833</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1176151590708612</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="6"/>
-        <v>1.1742253908079778</v>
+        <f t="shared" si="7"/>
+        <v>0.76827831215966613</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="7"/>
-        <v>0.80230406671664301</v>
+        <f t="shared" si="8"/>
+        <v>0.71018586816142415</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.9360449792683823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.9058616323875002</v>
+      </c>
+      <c r="T25" s="14">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -2692,43 +2788,46 @@
         <v>14</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.103924577184543</v>
       </c>
       <c r="L26" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4692050806535724</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="2"/>
-        <v>2.897955660189965</v>
+        <f t="shared" si="3"/>
+        <v>2.6773018581427248</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9275678859433789</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22296890627548041</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5542614155501955</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="6"/>
-        <v>1.6496942347298862</v>
+        <f t="shared" si="7"/>
+        <v>1.1046022892439196</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="7"/>
-        <v>0.53378042434114659</v>
+        <f t="shared" si="8"/>
+        <v>0.55715980023310174</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="8"/>
-        <v>0.71448100111893231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>1.0155397686657033</v>
+      </c>
+      <c r="T26" s="14">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -2760,43 +2859,46 @@
         <v>8</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.653300826604649</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6787374792924594</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="2"/>
-        <v>0.67323876293563734</v>
+        <f t="shared" si="3"/>
+        <v>1.2419064743299613</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5610000413049756</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.3502661286593375E-2</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1143467617638969</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="6"/>
-        <v>0.75548737104144637</v>
+        <f t="shared" si="7"/>
+        <v>0.47208301363576327</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="7"/>
-        <v>-3.1037606076569638E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.23528169100881741</v>
       </c>
       <c r="S27" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.1211002029239325E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.53454176968538047</v>
+      </c>
+      <c r="T27" s="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2828,43 +2930,46 @@
         <v>5</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0572753061899771</v>
       </c>
       <c r="L28" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9123266769706606</v>
       </c>
       <c r="M28" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.13803446709602535</v>
+        <f t="shared" si="3"/>
+        <v>0.66644026963144709</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1374513351223867</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24686058123712881</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3991057168739871</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.27771880269818761</v>
+        <f t="shared" si="7"/>
+        <v>-0.2587577426876741</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.30474092471175607</v>
+        <f t="shared" si="8"/>
+        <v>7.930383274966947E-2</v>
       </c>
       <c r="S28" s="5">
-        <f t="shared" si="8"/>
-        <v>0.44442526031391832</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.84589417956945179</v>
+      </c>
+      <c r="T28" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -2896,43 +3001,46 @@
         <v>60</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.982565294893696</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91155745047353365</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9093072320137932</v>
+        <f t="shared" si="3"/>
+        <v>2.6193187513735774</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8665378692008787</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.73542284178142125</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1208537374334013</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="6"/>
-        <v>1.5008174015313893</v>
+        <f t="shared" si="7"/>
+        <v>0.99929391987944616</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4483751374207048</v>
+        <f t="shared" si="8"/>
+        <v>1.0783684038870216</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.9885306938301127E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.54165642760710919</v>
+      </c>
+      <c r="T29" s="14">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2964,43 +3072,46 @@
         <v>0</v>
       </c>
       <c r="K30" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.849773639521416</v>
       </c>
       <c r="L30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6738753364822976</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.6869130949943929</v>
+        <f t="shared" si="3"/>
+        <v>0.39574450099728531</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0389939901848351</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.71407261282813872</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.1650980558879873</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="6"/>
-        <v>1.921507457477398</v>
+        <f t="shared" si="7"/>
+        <v>1.2968699956712744</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="7"/>
-        <v>1.4102706266134424</v>
+        <f t="shared" si="8"/>
+        <v>1.0566534315755194</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="8"/>
-        <v>-4.0186911790852333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.9577789262495082</v>
+      </c>
+      <c r="T30" s="14">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -3032,43 +3143,46 @@
         <v>0</v>
       </c>
       <c r="K31" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48.965266999648932</v>
       </c>
       <c r="L31" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5674068111836257</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="2"/>
-        <v>-1.7527052271987</v>
+        <f t="shared" si="3"/>
+        <v>-0.29398980121623808</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7542593836917031</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37995812711287275</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.035772931080801</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2269248769814345</v>
+        <f t="shared" si="7"/>
+        <v>0.8055554145539181</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="7"/>
-        <v>0.81396465445463295</v>
+        <f t="shared" si="8"/>
+        <v>0.71683099585108445</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.7935947586347676</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-1.8163762116212405</v>
+      </c>
+      <c r="T31" s="14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>1</v>
       </c>
@@ -3100,43 +3214,46 @@
         <v>15</v>
       </c>
       <c r="K32" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1944992650331674</v>
       </c>
       <c r="L32" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.484765424645123</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.43206000121435578</v>
+        <f t="shared" si="3"/>
+        <v>0.4419887202439155</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0376247523271052</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.0151569435178164E-2</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1683840870084796</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.52123611284894056</v>
+        <f t="shared" si="7"/>
+        <v>-0.43101027045206397</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="7"/>
-        <v>4.6332625014320332E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.27937338488651425</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" si="8"/>
-        <v>4.2843486620264451E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.59362560580946522</v>
+      </c>
+      <c r="T32" s="14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
@@ -3168,43 +3285,46 @@
         <v>0</v>
       </c>
       <c r="K33" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.3350041621192492</v>
       </c>
       <c r="L33" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7284504710278451</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="2"/>
-        <v>-8.6613575360870971</v>
+        <f t="shared" si="3"/>
+        <v>-4.8939973662876959</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.5236934990911053</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.348085767693451</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-4.0513786212407796E-2</v>
       </c>
       <c r="Q33" s="5">
-        <f t="shared" si="6"/>
-        <v>-4.3299212368739486</v>
+        <f t="shared" si="7"/>
+        <v>-3.1250924269352955</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.270136570368432</v>
+        <f t="shared" si="8"/>
+        <v>-1.0407344808887147</v>
       </c>
       <c r="S33" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.0612997288447157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>-0.72817045846368478</v>
+      </c>
+      <c r="T33" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -3236,43 +3356,46 @@
         <v>16</v>
       </c>
       <c r="K34" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.572061805050623</v>
       </c>
       <c r="L34" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2846081902085991</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34663181999089671</v>
+        <f t="shared" si="3"/>
+        <v>1.0690424784670756</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5371984738667883</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44811773192354676</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3236768382422273</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="6"/>
-        <v>0.69742574539404334</v>
+        <f t="shared" si="7"/>
+        <v>0.43101298958825934</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.66393169920649098</v>
+        <f t="shared" si="8"/>
+        <v>-0.12539155783420938</v>
       </c>
       <c r="S34" s="5">
-        <f t="shared" si="8"/>
-        <v>0.31313777380334434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0.76342104671302558</v>
+      </c>
+      <c r="T34" s="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
@@ -3304,43 +3427,46 @@
         <v>12</v>
       </c>
       <c r="K35" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5685921541087637</v>
       </c>
       <c r="L35" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4357450386062407</v>
       </c>
       <c r="M35" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.12312076370577985</v>
+        <f t="shared" si="3"/>
+        <v>0.63736719554811072</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2335535154033885</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.30088199933434889</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71133681685648431</v>
       </c>
       <c r="Q35" s="5">
-        <f t="shared" si="6"/>
-        <v>-4.3286812877952614E-2</v>
+        <f t="shared" si="7"/>
+        <v>-9.2931737093359473E-2</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="7"/>
-        <v>0.67283468474206154</v>
+        <f t="shared" si="8"/>
+        <v>0.63640394614736406</v>
       </c>
       <c r="S35" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.75266863556988872</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>9.3894986494106089E-2</v>
+      </c>
+      <c r="T35" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3372,43 +3498,46 @@
         <v>7</v>
       </c>
       <c r="K36" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.704280280841246</v>
       </c>
       <c r="L36" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1320766499145383</v>
       </c>
       <c r="M36" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.3766421993340372</v>
+        <f t="shared" si="3"/>
+        <v>-2.0418164722699759</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2661429901673191</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.19796430523346639</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0315168934828065</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="6"/>
-        <v>3.6212064189823097E-2</v>
+        <f>STANDARDIZE(N36,AVERAGE(N$36:N$136), _xlfn.STDEV.S(N$36:N$136))</f>
+        <v>8.0056429951799679E-2</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.21747400680219486</v>
+        <f t="shared" ref="R36:S36" si="10">STANDARDIZE(O36,AVERAGE(O$36:O$136), _xlfn.STDEV.S(O$36:O$136))</f>
+        <v>-0.7579604271856446</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.1953802567216654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>-1.3639124750361307</v>
+      </c>
+      <c r="T36" s="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -3440,43 +3569,46 @@
         <v>6</v>
       </c>
       <c r="K37" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.165369113473465</v>
       </c>
       <c r="L37" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2518036511352646</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.56231033980513878</v>
+        <f t="shared" si="3"/>
+        <v>-2.3400844076847198</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2261669056160733</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24933788383423305</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0335495339546106</v>
       </c>
       <c r="Q37" s="5">
-        <f t="shared" si="6"/>
-        <v>-6.1305734253124085E-2</v>
+        <f t="shared" ref="Q37:Q100" si="11">STANDARDIZE(N37,AVERAGE(N$36:N$136), _xlfn.STDEV.S(N$36:N$136))</f>
+        <v>-3.8469010677272826E-2</v>
       </c>
       <c r="R37" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.30916225451532736</v>
+        <f t="shared" ref="R37:R100" si="12">STANDARDIZE(O37,AVERAGE(O$36:O$136), _xlfn.STDEV.S(O$36:O$136))</f>
+        <v>-0.94737168555311124</v>
       </c>
       <c r="S37" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.19184235103668734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S37:S100" si="13">STANDARDIZE(P37,AVERAGE(P$36:P$136), _xlfn.STDEV.S(P$36:P$136))</f>
+        <v>-1.3542437114543355</v>
+      </c>
+      <c r="T37" s="14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3508,43 +3640,46 @@
         <v>11</v>
       </c>
       <c r="K38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.569228830636316</v>
       </c>
       <c r="L38" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3747484010622042</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="2"/>
-        <v>0.76652851956559032</v>
+        <f t="shared" si="3"/>
+        <v>0.57242787485697177</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3400749399817604</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.7427860373301412E-4</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3812118968196501</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21656191739409578</v>
+        <f t="shared" si="11"/>
+        <v>0.29925791070437252</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="7"/>
-        <v>0.13668637147514834</v>
+        <f t="shared" si="12"/>
+        <v>-2.6329442991348678E-2</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" si="8"/>
-        <v>0.41328023069634623</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.29949940714394802</v>
+      </c>
+      <c r="T38" s="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -3576,43 +3711,46 @@
         <v>11</v>
       </c>
       <c r="K39" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.599967165710769</v>
       </c>
       <c r="L39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4066423807542261</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77776160943771599</v>
+        <f t="shared" si="3"/>
+        <v>0.58668525356908474</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.346559968428791</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.8792598635504165E-3</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3850916401911495</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="6"/>
-        <v>0.23238151814022737</v>
+        <f t="shared" si="11"/>
+        <v>0.31848542792635159</v>
       </c>
       <c r="R39" s="5">
-        <f t="shared" si="7"/>
-        <v>0.12534698604182548</v>
+        <f t="shared" si="12"/>
+        <v>-4.9754552725796881E-2</v>
       </c>
       <c r="S39" s="5">
-        <f t="shared" si="8"/>
-        <v>0.42003310525566323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.31795437836853002</v>
+      </c>
+      <c r="T39" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -3644,43 +3782,46 @@
         <v>5</v>
       </c>
       <c r="K40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.123326960652467</v>
       </c>
       <c r="L40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5211446647037006</v>
       </c>
       <c r="M40" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.59398616257363357</v>
+        <f t="shared" si="3"/>
+        <v>-2.4040821467000919</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2235668863947078</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.26021051292049269</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0301433856718936</v>
       </c>
       <c r="Q40" s="5">
-        <f t="shared" si="6"/>
-        <v>-6.7648230103408966E-2</v>
+        <f t="shared" si="11"/>
+        <v>-4.6177830270681605E-2</v>
       </c>
       <c r="R40" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.32856702124767845</v>
+        <f t="shared" si="12"/>
+        <v>-0.98745840742614066</v>
       </c>
       <c r="S40" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.19777091122254611</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-1.3704459090032697</v>
+      </c>
+      <c r="T40" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -3712,43 +3853,46 @@
         <v>9</v>
       </c>
       <c r="K41" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.932343700269417</v>
       </c>
       <c r="L41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.833910304546686</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="2"/>
-        <v>0.73432012942218405</v>
+        <f t="shared" si="3"/>
+        <v>4.8330885669104595E-2</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4509659757268252</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1962569204773245E-2</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1852577880308519</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="6"/>
-        <v>0.48706989220724889</v>
+        <f t="shared" si="11"/>
+        <v>0.62803970664662756</v>
       </c>
       <c r="R41" s="5">
-        <f t="shared" si="7"/>
-        <v>0.17503728580157507</v>
+        <f t="shared" si="12"/>
+        <v>5.2896576954400108E-2</v>
       </c>
       <c r="S41" s="5">
-        <f t="shared" si="8"/>
-        <v>7.2212951413360177E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.63260539793192305</v>
+      </c>
+      <c r="T41" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -3780,43 +3924,46 @@
         <v>10</v>
       </c>
       <c r="K42" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.061260861995216</v>
       </c>
       <c r="L42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5830173417351023</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="2"/>
-        <v>0.66641474670577616</v>
+        <f t="shared" si="3"/>
+        <v>0.43159201344309095</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3115597788778721</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.2379907833346025E-2</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.387092167905198</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="6"/>
-        <v>0.14700193511187676</v>
+        <f t="shared" si="11"/>
+        <v>0.21471306164305981</v>
       </c>
       <c r="R42" s="5">
-        <f t="shared" si="7"/>
-        <v>9.5897694408105472E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.11059143777376443</v>
       </c>
       <c r="S42" s="5">
-        <f t="shared" si="8"/>
-        <v>0.42351511718579393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.32747038957379554</v>
+      </c>
+      <c r="T42" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -3848,43 +3995,46 @@
         <v>12</v>
       </c>
       <c r="K43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.665161455300838</v>
       </c>
       <c r="L43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.240015491288271</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="2"/>
-        <v>0.86984451562930976</v>
+        <f t="shared" si="3"/>
+        <v>0.74530040850080215</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3674614032453396</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2798017358810148E-3</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3952093980385267</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="6"/>
-        <v>0.28336855027429525</v>
+        <f t="shared" si="11"/>
+        <v>0.38045627372630769</v>
       </c>
       <c r="R43" s="5">
-        <f t="shared" si="7"/>
-        <v>0.14883242996967039</v>
+        <f t="shared" si="12"/>
+        <v>-1.2378932995034237E-3</v>
       </c>
       <c r="S43" s="5">
-        <f t="shared" si="8"/>
-        <v>0.43764353538534417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.36608202807399787</v>
+      </c>
+      <c r="T43" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
@@ -3916,43 +4066,46 @@
         <v>9</v>
       </c>
       <c r="K44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.48248623053135</v>
       </c>
       <c r="L44" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8878409619104257</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75538616062223984</v>
+        <f t="shared" si="3"/>
+        <v>0.17375104463980562</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.42809806398921</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6075624312070106E-2</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2149392804341548</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="6"/>
-        <v>0.4312858294939243</v>
+        <f t="shared" si="11"/>
+        <v>0.56023843632729342</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20022535577666561</v>
+        <f t="shared" si="12"/>
+        <v>0.10493055239644973</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="8"/>
-        <v>0.12387497535164994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.49141794408393757</v>
+      </c>
+      <c r="T44" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -3984,43 +4137,46 @@
         <v>9</v>
       </c>
       <c r="K45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.604428459499154</v>
       </c>
       <c r="L45" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8890890739087238</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="2"/>
-        <v>0.75806329071935163</v>
+        <f t="shared" si="3"/>
+        <v>0.17545210609350814</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4298383635030452</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5381108625922489E-2</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2147504686331219</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="6"/>
-        <v>0.43553112212639766</v>
+        <f t="shared" si="11"/>
+        <v>0.56539826548563565</v>
       </c>
       <c r="R45" s="5">
-        <f t="shared" si="7"/>
-        <v>0.19898582900032366</v>
+        <f t="shared" si="12"/>
+        <v>0.10236991532089272</v>
       </c>
       <c r="S45" s="5">
-        <f t="shared" si="8"/>
-        <v>0.12354633959263034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.49231607471302019</v>
+      </c>
+      <c r="T45" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -4052,43 +4208,46 @@
         <v>3</v>
       </c>
       <c r="K46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1640216234046576</v>
       </c>
       <c r="L46" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1194868695977584</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="2"/>
-        <v>0.39603296558423395</v>
+        <f t="shared" si="3"/>
+        <v>1.4988969784861561</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70108243134896531</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35861456890003596</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6966755918399672</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3421986106292572</v>
+        <f t="shared" si="11"/>
+        <v>-1.5952965333980886</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="7"/>
-        <v>0.77587204915442454</v>
+        <f t="shared" si="12"/>
+        <v>1.2941120155310706</v>
       </c>
       <c r="S46" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96235952705906658</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1.8000814963531742</v>
+      </c>
+      <c r="T46" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -4120,43 +4279,46 @@
         <v>2</v>
       </c>
       <c r="K47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0784637539220094</v>
       </c>
       <c r="L47" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1793767826902535</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="2"/>
-        <v>0.40779429022137337</v>
+        <f t="shared" si="3"/>
+        <v>1.524894120779186</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70258140154498872</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35911570219989358</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7008181644934157</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3385420175664622</v>
+        <f t="shared" si="11"/>
+        <v>-1.5908522236321891</v>
       </c>
       <c r="R47" s="5">
-        <f t="shared" si="7"/>
-        <v>0.77676643952757163</v>
+        <f t="shared" si="12"/>
+        <v>1.2959596635151349</v>
       </c>
       <c r="S47" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96956986826026392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1.8197866808962402</v>
+      </c>
+      <c r="T47" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -4188,43 +4350,46 @@
         <v>3</v>
       </c>
       <c r="K48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1845169772979274</v>
       </c>
       <c r="L48" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1599265849596874</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="2"/>
-        <v>0.42366912441023208</v>
+        <f t="shared" si="3"/>
+        <v>1.5477799776638044</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70722116409393676</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36190706257900424</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7005738398635568</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3272237648123326</v>
+        <f t="shared" si="11"/>
+        <v>-1.5770957513137616</v>
       </c>
       <c r="R48" s="5">
-        <f t="shared" si="7"/>
-        <v>0.7817482793928735</v>
+        <f t="shared" si="12"/>
+        <v>1.3062512393867163</v>
       </c>
       <c r="S48" s="5">
-        <f t="shared" si="8"/>
-        <v>0.96914460982969119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1.8186244895908497</v>
+      </c>
+      <c r="T48" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -4256,43 +4421,46 @@
         <v>4</v>
       </c>
       <c r="K49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1052925922052736</v>
       </c>
       <c r="L49" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3808681663406031</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="2"/>
-        <v>0.41713188218486685</v>
+        <f t="shared" si="3"/>
+        <v>1.5402958498156918</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70486777898742048</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36050446853100443</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7015544931529392</v>
       </c>
       <c r="Q49" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.3329646205527614</v>
+        <f t="shared" si="11"/>
+        <v>-1.5840733232758724</v>
       </c>
       <c r="R49" s="5">
-        <f t="shared" si="7"/>
-        <v>0.77924502005185403</v>
+        <f t="shared" si="12"/>
+        <v>1.3010799604755292</v>
       </c>
       <c r="S49" s="5">
-        <f t="shared" si="8"/>
-        <v>0.97085148268577426</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1.8232892126160349</v>
+      </c>
+      <c r="T49" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -4324,43 +4492,46 @@
         <v>4</v>
       </c>
       <c r="K50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.474423159282161</v>
       </c>
       <c r="L50" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.3788008667221074</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="2"/>
-        <v>4.541027030947796E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.281305180258987</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3881637652768903</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.24732882891787109</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1536033535841179</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="6"/>
-        <v>0.33386996357047993</v>
+        <f t="shared" si="11"/>
+        <v>0.44183688689532963</v>
       </c>
       <c r="R50" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.30557662295416654</v>
+        <f t="shared" si="12"/>
+        <v>-0.93996442232166111</v>
       </c>
       <c r="S50" s="5">
-        <f t="shared" si="8"/>
-        <v>1.711692969316457E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.78317764483265562</v>
+      </c>
+      <c r="T50" s="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -4392,43 +4563,46 @@
         <v>14</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.492037081986426</v>
       </c>
       <c r="L51" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3613745022358605</v>
       </c>
       <c r="M51" s="5">
-        <f t="shared" si="2"/>
-        <v>-9.2509434812384078E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.3755639182929049</v>
       </c>
       <c r="N51" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3704689408717081</v>
       </c>
       <c r="O51" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.23861318849025012</v>
       </c>
       <c r="P51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.138061391640564</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="6"/>
-        <v>0.29070514792636937</v>
+        <f t="shared" si="11"/>
+        <v>0.38937334818158309</v>
       </c>
       <c r="R51" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.29002151037934631</v>
+        <f t="shared" si="12"/>
+        <v>-0.9078303863865157</v>
       </c>
       <c r="S51" s="5">
-        <f t="shared" si="8"/>
-        <v>-9.9345810282614605E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.8571068800879722</v>
+      </c>
+      <c r="T51" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -4460,43 +4634,46 @@
         <v>20</v>
       </c>
       <c r="K52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.36259881113893</v>
       </c>
       <c r="L52" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2708455945566488</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="2"/>
-        <v>0.98080007915763634</v>
+        <f t="shared" si="3"/>
+        <v>0.55144510931068791</v>
       </c>
       <c r="N52" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5285150238372309</v>
       </c>
       <c r="O52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.5952303997379636E-2</v>
       </c>
       <c r="P52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3185829553451132</v>
       </c>
       <c r="Q52" s="5">
-        <f t="shared" si="6"/>
-        <v>0.67624330746202754</v>
+        <f t="shared" si="11"/>
+        <v>0.85796555358314419</v>
       </c>
       <c r="R52" s="5">
-        <f t="shared" si="7"/>
-        <v>2.8513900787335009E-4</v>
+        <f t="shared" si="12"/>
+        <v>-0.30810960270531179</v>
       </c>
       <c r="S52" s="5">
-        <f t="shared" si="8"/>
-        <v>0.30427163268773555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>1.5891584328554037E-3</v>
+      </c>
+      <c r="T52" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>2</v>
       </c>
@@ -4528,43 +4705,46 @@
         <v>28</v>
       </c>
       <c r="K53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.423521330236831</v>
       </c>
       <c r="L53" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7049071752602192</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="2"/>
-        <v>0.92944920746400372</v>
+        <f t="shared" si="3"/>
+        <v>0.45298398922879313</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5246803476089705</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.9202383816573952E-2</v>
       </c>
       <c r="P53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3182949382205169</v>
       </c>
       <c r="Q53" s="5">
-        <f t="shared" si="6"/>
-        <v>0.66688898505353633</v>
+        <f t="shared" si="11"/>
+        <v>0.84659608869616265</v>
       </c>
       <c r="R53" s="5">
-        <f t="shared" si="7"/>
-        <v>-4.1210103018746495E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.39383123229862016</v>
       </c>
       <c r="S53" s="5">
-        <f t="shared" si="8"/>
-        <v>0.30377032542921395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>2.1913283125062281E-4</v>
+      </c>
+      <c r="T53" s="14">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -4596,43 +4776,46 @@
         <v>5</v>
       </c>
       <c r="K54" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.189425810648924</v>
       </c>
       <c r="L54" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5188689025576059</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.59863153611755016</v>
+        <f t="shared" si="3"/>
+        <v>-2.0762653259002524</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1965297233683783</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.46215269793411601</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2724365412439298</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.13360277878090171</v>
+        <f t="shared" si="11"/>
+        <v>-0.12634054998245758</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.68898040080119105</v>
+        <f t="shared" si="12"/>
+        <v>-1.7320069559739211</v>
       </c>
       <c r="S54" s="5">
-        <f t="shared" si="8"/>
-        <v>0.22395164346454266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.21791781994387374</v>
+      </c>
+      <c r="T54" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -4664,43 +4847,46 @@
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.035891384230414</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2868310145351494</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="2"/>
-        <v>0.42314700558881824</v>
+        <f t="shared" si="3"/>
+        <v>-0.39236353207187313</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.335416183082613</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7101600998428186E-2</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1529002948211995</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="6"/>
-        <v>0.20519732975662069</v>
+        <f t="shared" si="11"/>
+        <v>0.28544512187190618</v>
       </c>
       <c r="R55" s="5">
-        <f t="shared" si="7"/>
-        <v>0.20205645275547907</v>
+        <f t="shared" si="12"/>
+        <v>0.10871326601134022</v>
       </c>
       <c r="S55" s="5">
-        <f t="shared" si="8"/>
-        <v>1.5893223076718473E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.78652191995511955</v>
+      </c>
+      <c r="T55" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -4732,43 +4918,46 @@
         <v>10</v>
       </c>
       <c r="K56" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.582924645308083</v>
       </c>
       <c r="L56" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5694040250703645</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="2"/>
-        <v>0.84164186229352911</v>
+        <f t="shared" si="3"/>
+        <v>0.59610764593765952</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3673819817999879</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8100461872482893E-2</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3167526115527219</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="6"/>
-        <v>0.28317480932675643</v>
+        <f t="shared" si="11"/>
+        <v>0.38022079639251233</v>
       </c>
       <c r="R56" s="5">
-        <f t="shared" si="7"/>
-        <v>0.25738121914430218</v>
+        <f t="shared" si="12"/>
+        <v>0.22300417986302004</v>
       </c>
       <c r="S56" s="5">
-        <f t="shared" si="8"/>
-        <v>0.30108583382247051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-7.1173303178728364E-3</v>
+      </c>
+      <c r="T56" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4800,43 +4989,46 @@
         <v>3</v>
       </c>
       <c r="K57" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7842425453355251</v>
       </c>
       <c r="L57" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.9696989800971743</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.5288247728607276</v>
+        <f t="shared" si="3"/>
+        <v>-1.6144404093474698</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0677511996821951</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.28941558033184905</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3159053418315192</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.44774555333179628</v>
+        <f t="shared" si="11"/>
+        <v>-0.50815711443112976</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.38069034082602715</v>
+        <f t="shared" si="12"/>
+        <v>-1.095135713927992</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="8"/>
-        <v>0.29961112129709577</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-1.1147580988347786E-2</v>
+      </c>
+      <c r="T57" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -4868,43 +5060,46 @@
         <v>7</v>
       </c>
       <c r="K58" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3086504808879242</v>
       </c>
       <c r="L58" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0065950174602403</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="2"/>
-        <v>0.14662658342474399</v>
+        <f t="shared" si="3"/>
+        <v>-0.22107790459360427</v>
       </c>
       <c r="N58" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0995362716546937</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.1043780340142105E-3</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3709734776518798</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.37020893920603665</v>
+        <f t="shared" si="11"/>
+        <v>-0.41391727820760515</v>
       </c>
       <c r="R58" s="5">
-        <f t="shared" si="7"/>
-        <v>0.12137573872830019</v>
+        <f t="shared" si="12"/>
+        <v>-5.7958428028296691E-2</v>
       </c>
       <c r="S58" s="5">
-        <f t="shared" si="8"/>
-        <v>0.39545978390248043</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.25079780164229759</v>
+      </c>
+      <c r="T58" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -4936,43 +5131,46 @@
         <v>9</v>
       </c>
       <c r="K59" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.60771228830691</v>
       </c>
       <c r="L59" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8382744930115131</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="2"/>
-        <v>0.87925230267129617</v>
+        <f t="shared" si="3"/>
+        <v>0.69493336837750697</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.365120730895431</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8457359309588054E-2</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.330910359417298</v>
       </c>
       <c r="Q59" s="5">
-        <f t="shared" si="6"/>
-        <v>0.27765870607615312</v>
+        <f t="shared" si="11"/>
+        <v>0.37351639392678482</v>
       </c>
       <c r="R59" s="5">
-        <f t="shared" si="7"/>
-        <v>0.27586554131177982</v>
+        <f t="shared" si="12"/>
+        <v>0.26118943052639509</v>
       </c>
       <c r="S59" s="5">
-        <f t="shared" si="8"/>
-        <v>0.32572805528336329</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>6.0227543924327019E-2</v>
+      </c>
+      <c r="T59" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -5004,43 +5202,46 @@
         <v>4</v>
       </c>
       <c r="K60" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.089231968147635</v>
       </c>
       <c r="L60" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5393278809190916</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.62560137809310701</v>
+        <f t="shared" si="3"/>
+        <v>-2.1212801804121502</v>
       </c>
       <c r="N60" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.193584744669685</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.47709472789315299</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2763903104635179</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.1407867699691781</v>
+        <f t="shared" si="11"/>
+        <v>-0.13507214292919537</v>
       </c>
       <c r="R60" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.71564797159410398</v>
+        <f t="shared" si="12"/>
+        <v>-1.7870973112536161</v>
       </c>
       <c r="S60" s="5">
-        <f t="shared" si="8"/>
-        <v>0.23083336347017502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.19911072622933848</v>
+      </c>
+      <c r="T60" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -5072,43 +5273,46 @@
         <v>2</v>
       </c>
       <c r="K61" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2357096486101682</v>
       </c>
       <c r="L61" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.113128978685545</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="2"/>
-        <v>0.17607299755503186</v>
+        <f t="shared" si="3"/>
+        <v>-0.17429655895837998</v>
       </c>
       <c r="N61" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1280587148950263</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.8487016257910663E-2</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4098323622420348</v>
       </c>
       <c r="Q61" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.3006311928550755</v>
+        <f t="shared" si="11"/>
+        <v>-0.32935083827663947</v>
       </c>
       <c r="R61" s="5">
-        <f t="shared" si="7"/>
-        <v>1.3608702795894675E-2</v>
+        <f t="shared" si="12"/>
+        <v>-0.28058554105104083</v>
       </c>
       <c r="S61" s="5">
-        <f t="shared" si="8"/>
-        <v>0.46309548761421271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>0.43563982036930032</v>
+      </c>
+      <c r="T61" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -5140,43 +5344,46 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8437199443059278</v>
       </c>
       <c r="L62" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.245958873952969</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="2"/>
-        <v>-0.6035694864742992</v>
+        <f t="shared" si="3"/>
+        <v>-2.0255196509964093</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1620660853900222</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.40895555087903868</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2633531492246917</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.21767349605376904</v>
+        <f t="shared" si="11"/>
+        <v>-0.22852208984359917</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.59403756579407163</v>
+        <f t="shared" si="12"/>
+        <v>-1.5358723116742734</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" si="8"/>
-        <v>0.20814157537354153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.26112524947853677</v>
+      </c>
+      <c r="T62" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -5208,43 +5415,46 @@
         <v>14</v>
       </c>
       <c r="K63" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.81429803975214</v>
       </c>
       <c r="L63" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3019660668372568</v>
       </c>
       <c r="M63" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1566678059219578E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.2522299455068913</v>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3633981255983034</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.18061661852717173</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1234439484806868</v>
       </c>
       <c r="Q63" s="5">
-        <f t="shared" si="6"/>
-        <v>0.27345657677690438</v>
+        <f t="shared" si="11"/>
+        <v>0.36840902650538854</v>
       </c>
       <c r="R63" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.18651297509488018</v>
+        <f t="shared" si="12"/>
+        <v>-0.69400056185606041</v>
       </c>
       <c r="S63" s="5">
-        <f t="shared" si="8"/>
-        <v>-3.5376923622804618E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.92663841015621939</v>
+      </c>
+      <c r="T63" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -5276,43 +5486,46 @@
         <v>10</v>
       </c>
       <c r="K64" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.764786767251813</v>
       </c>
       <c r="L64" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4443693845022816</v>
       </c>
       <c r="M64" s="5">
-        <f t="shared" si="2"/>
-        <v>0.92665298346493385</v>
+        <f t="shared" si="3"/>
+        <v>0.78861898249760465</v>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3511821223900451</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15191199321969237</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3023592613408486</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="6"/>
-        <v>0.24365681644484333</v>
+        <f t="shared" si="11"/>
+        <v>0.33218969239004031</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="7"/>
-        <v>0.40696263154887297</v>
+        <f t="shared" si="12"/>
+        <v>0.53201219625108631</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" si="8"/>
-        <v>0.27603353547121756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-7.5582906143522088E-2</v>
+      </c>
+      <c r="T64" s="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -5344,43 +5557,46 @@
         <v>8</v>
       </c>
       <c r="K65" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.481134277799484</v>
       </c>
       <c r="L65" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.067043481654002</v>
       </c>
       <c r="M65" s="5">
-        <f t="shared" si="2"/>
-        <v>0.89623031933661057</v>
+        <f t="shared" si="3"/>
+        <v>0.74768884826745408</v>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3425192186907173</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14339154847231358</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3057584191479408</v>
       </c>
       <c r="Q65" s="5">
-        <f t="shared" si="6"/>
-        <v>0.22252449930160825</v>
+        <f t="shared" si="11"/>
+        <v>0.30650497389856796</v>
       </c>
       <c r="R65" s="5">
-        <f t="shared" si="7"/>
-        <v>0.39175589162727315</v>
+        <f t="shared" si="12"/>
+        <v>0.50059783491190168</v>
       </c>
       <c r="S65" s="5">
-        <f t="shared" si="8"/>
-        <v>0.28194992840772909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-5.9413960543015586E-2</v>
+      </c>
+      <c r="T65" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -5412,43 +5628,46 @@
         <v>8</v>
       </c>
       <c r="K66" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.533049538184834</v>
       </c>
       <c r="L66" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1269633221092583</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="2"/>
-        <v>0.89999239689081212</v>
+        <f t="shared" si="3"/>
+        <v>0.73695436531991398</v>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.347667598473175</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14503601789432657</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2990180997603435</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="6"/>
-        <v>0.23508347468825108</v>
+        <f t="shared" si="11"/>
+        <v>0.32176944987443196</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="7"/>
-        <v>0.39469083452650011</v>
+        <f t="shared" si="12"/>
+        <v>0.50666089360965905</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" si="8"/>
-        <v>0.27021808767606098</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-9.1475978164177005E-2</v>
+      </c>
+      <c r="T66" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -5480,43 +5699,46 @@
         <v>5</v>
       </c>
       <c r="K67" s="13">
-        <f t="shared" ref="K67:K130" si="9">D67-(0.87*F67)</f>
+        <f t="shared" ref="K67:K130" si="14">D67-(0.87*F67)</f>
         <v>9.5832964783534607</v>
       </c>
       <c r="L67" s="13">
-        <f t="shared" ref="L67:L130" si="10">(D67+E67+H67)/(G67+J67)</f>
+        <f t="shared" ref="L67:L130" si="15">(D67+E67+H67)/(G67+J67)</f>
         <v>5.3395232234453509</v>
       </c>
       <c r="M67" s="5">
-        <f t="shared" ref="M67:M130" si="11">SUM(Q67:S67)</f>
-        <v>-0.46151493115246089</v>
+        <f t="shared" ref="M67:M130" si="16">SUM(Q67:S67)</f>
+        <v>-1.700701564026625</v>
       </c>
       <c r="N67" s="5">
-        <f t="shared" ref="N67:N130" si="12">LOG(D67)</f>
+        <f t="shared" ref="N67:N130" si="17">LOG(D67)</f>
         <v>1.1567655346797177</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" ref="O67:O130" si="13">LOG(E67)</f>
+        <f t="shared" ref="O67:O130" si="18">LOG(E67)</f>
         <v>-0.33922036124482663</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" ref="P67:P130" si="14">LOG(H67)</f>
+        <f t="shared" ref="P67:P130" si="19">LOG(H67)</f>
         <v>1.2808912426868424</v>
       </c>
       <c r="Q67" s="5">
-        <f t="shared" ref="Q67:Q130" si="15">STANDARDIZE(N67,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
-        <v>-0.23060367772630086</v>
+        <f t="shared" si="11"/>
+        <v>-0.24423773872637633</v>
       </c>
       <c r="R67" s="5">
-        <f t="shared" ref="R67:R130" si="16">STANDARDIZE(O67,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
-        <v>-0.46957869966773014</v>
+        <f t="shared" si="12"/>
+        <v>-1.2787629106773786</v>
       </c>
       <c r="S67" s="5">
-        <f t="shared" ref="S67:S130" si="17">STANDARDIZE(P67,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
-        <v>0.23866744624157013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="13"/>
+        <v>-0.17770091462287013</v>
+      </c>
+      <c r="T67" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -5548,43 +5770,46 @@
         <v>5</v>
       </c>
       <c r="K68" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.5435934792884378</v>
       </c>
       <c r="L68" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.3155859322660586</v>
       </c>
       <c r="M68" s="5">
+        <f t="shared" si="16"/>
+        <v>-1.4320611586456315</v>
+      </c>
+      <c r="N68" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1326739254024945</v>
+      </c>
+      <c r="O68" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.29874409832036336</v>
+      </c>
+      <c r="P68" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3210102921536815</v>
+      </c>
+      <c r="Q68" s="5">
         <f t="shared" si="11"/>
-        <v>-0.37821558437232128</v>
-      </c>
-      <c r="N68" s="5">
+        <v>-0.31566716051944549</v>
+      </c>
+      <c r="R68" s="5">
         <f t="shared" si="12"/>
-        <v>1.1326739254024945</v>
-      </c>
-      <c r="O68" s="5">
+        <v>-1.1295293921383254</v>
+      </c>
+      <c r="S68" s="5">
         <f t="shared" si="13"/>
-        <v>-0.29874409832036336</v>
-      </c>
-      <c r="P68" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3210102921536815</v>
-      </c>
-      <c r="Q68" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.2893728324355575</v>
-      </c>
-      <c r="R68" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.39733927771971955</v>
-      </c>
-      <c r="S68" s="5">
-        <f t="shared" si="17"/>
-        <v>0.30849652578295583</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.3135394012139185E-2</v>
+      </c>
+      <c r="T68" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -5616,43 +5841,46 @@
         <v>3</v>
       </c>
       <c r="K69" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.4149274996463408</v>
       </c>
       <c r="L69" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.7706478622361113</v>
       </c>
       <c r="M69" s="5">
+        <f t="shared" si="16"/>
+        <v>-1.3446619083983027</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" si="17"/>
+        <v>1.154791403568012</v>
+      </c>
+      <c r="O69" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.26670243507508085</v>
+      </c>
+      <c r="P69" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3007627059536651</v>
+      </c>
+      <c r="Q69" s="5">
         <f t="shared" si="11"/>
-        <v>-0.3023181086747741</v>
-      </c>
-      <c r="N69" s="5">
+        <v>-0.25009085722212404</v>
+      </c>
+      <c r="R69" s="5">
         <f t="shared" si="12"/>
-        <v>1.154791403568012</v>
-      </c>
-      <c r="O69" s="5">
+        <v>-1.0113937293954347</v>
+      </c>
+      <c r="S69" s="5">
         <f t="shared" si="13"/>
-        <v>-0.26670243507508085</v>
-      </c>
-      <c r="P69" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3007627059536651</v>
-      </c>
-      <c r="Q69" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.23541937996458476</v>
-      </c>
-      <c r="R69" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.34015338495556641</v>
-      </c>
-      <c r="S69" s="5">
-        <f t="shared" si="17"/>
-        <v>0.27325465624537709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-8.3177321780743912E-2</v>
+      </c>
+      <c r="T69" s="14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -5684,43 +5912,46 @@
         <v>3</v>
       </c>
       <c r="K70" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.3291381485801761</v>
       </c>
       <c r="L70" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.6990992974244277</v>
       </c>
       <c r="M70" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.96864184121002683</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1456141375647482</v>
+      </c>
+      <c r="O70" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.27997003117273622</v>
+      </c>
+      <c r="P70" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3958163864875881</v>
+      </c>
+      <c r="Q70" s="5">
         <f t="shared" si="11"/>
-        <v>-0.18293894140342709</v>
-      </c>
-      <c r="N70" s="5">
+        <v>-0.27730061298028663</v>
+      </c>
+      <c r="R70" s="5">
         <f t="shared" si="12"/>
-        <v>1.1456141375647482</v>
-      </c>
-      <c r="O70" s="5">
+        <v>-1.0603105489126696</v>
+      </c>
+      <c r="S70" s="5">
         <f t="shared" si="13"/>
-        <v>-0.27997003117273622</v>
-      </c>
-      <c r="P70" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3958163864875881</v>
-      </c>
-      <c r="Q70" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.25780643428493355</v>
-      </c>
-      <c r="R70" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.36383253425161061</v>
-      </c>
-      <c r="S70" s="5">
-        <f t="shared" si="17"/>
-        <v>0.43870002713311712</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36896932068292937</v>
+      </c>
+      <c r="T70" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -5752,43 +5983,46 @@
         <v>3</v>
       </c>
       <c r="K71" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12.906772016025656</v>
       </c>
       <c r="L71" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.7707943698558912</v>
       </c>
       <c r="M71" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.32358349462429081</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" si="17"/>
+        <v>1.2759995437369327</v>
+      </c>
+      <c r="O71" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.14398787284230397</v>
+      </c>
+      <c r="P71" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3447562307513459</v>
+      </c>
+      <c r="Q71" s="5">
         <f t="shared" si="11"/>
-        <v>0.2889432623980242</v>
-      </c>
-      <c r="N71" s="5">
+        <v>0.10928021132100581</v>
+      </c>
+      <c r="R71" s="5">
         <f t="shared" si="12"/>
-        <v>1.2759995437369327</v>
-      </c>
-      <c r="O71" s="5">
+        <v>-0.55895260526910828</v>
+      </c>
+      <c r="S71" s="5">
         <f t="shared" si="13"/>
-        <v>-0.14398787284230397</v>
-      </c>
-      <c r="P71" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3447562307513459</v>
-      </c>
-      <c r="Q71" s="5">
-        <f t="shared" si="15"/>
-        <v>6.0256174940877968E-2</v>
-      </c>
-      <c r="R71" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.12114035361810088</v>
-      </c>
-      <c r="S71" s="5">
-        <f t="shared" si="17"/>
-        <v>0.3498274410752471</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.1260888993238117</v>
+      </c>
+      <c r="T71" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -5820,43 +6054,46 @@
         <v>23</v>
       </c>
       <c r="K72" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>55.861897950093692</v>
       </c>
       <c r="L72" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.2307817590063537</v>
       </c>
       <c r="M72" s="5">
+        <f t="shared" si="16"/>
+        <v>4.9281004088529343</v>
+      </c>
+      <c r="N72" s="5">
+        <f t="shared" si="17"/>
+        <v>1.8751306192901132</v>
+      </c>
+      <c r="O72" s="5">
+        <f t="shared" si="18"/>
+        <v>0.51599874991990502</v>
+      </c>
+      <c r="P72" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5638100677938198</v>
+      </c>
+      <c r="Q72" s="5">
         <f t="shared" si="11"/>
-        <v>3.3096406407919474</v>
-      </c>
-      <c r="N72" s="5">
+        <v>1.8856491459393878</v>
+      </c>
+      <c r="R72" s="5">
         <f t="shared" si="12"/>
-        <v>1.8751306192901132</v>
-      </c>
-      <c r="O72" s="5">
+        <v>1.8743779145794517</v>
+      </c>
+      <c r="S72" s="5">
         <f t="shared" si="13"/>
-        <v>0.51599874991990502</v>
-      </c>
-      <c r="P72" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5638100677938198</v>
-      </c>
-      <c r="Q72" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5217785857163588</v>
-      </c>
-      <c r="R72" s="5">
-        <f t="shared" si="16"/>
-        <v>1.0567611787129967</v>
-      </c>
-      <c r="S72" s="5">
-        <f t="shared" si="17"/>
-        <v>0.73110087636259202</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1680733483340942</v>
+      </c>
+      <c r="T72" s="14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -5888,43 +6125,46 @@
         <v>26</v>
       </c>
       <c r="K73" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>58.303215401559314</v>
       </c>
       <c r="L73" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.0382129935788598</v>
       </c>
       <c r="M73" s="5">
+        <f t="shared" si="16"/>
+        <v>5.0393898400705872</v>
+      </c>
+      <c r="N73" s="5">
+        <f t="shared" si="17"/>
+        <v>1.8913949066166831</v>
+      </c>
+      <c r="O73" s="5">
+        <f t="shared" si="18"/>
+        <v>0.52780841624445096</v>
+      </c>
+      <c r="P73" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5679149253363793</v>
+      </c>
+      <c r="Q73" s="5">
         <f t="shared" si="11"/>
-        <v>3.3775376259687051</v>
-      </c>
-      <c r="N73" s="5">
+        <v>1.9338712728319891</v>
+      </c>
+      <c r="R73" s="5">
         <f t="shared" si="12"/>
-        <v>1.8913949066166831</v>
-      </c>
-      <c r="O73" s="5">
+        <v>1.917919435734039</v>
+      </c>
+      <c r="S73" s="5">
         <f t="shared" si="13"/>
-        <v>0.52780841624445096</v>
-      </c>
-      <c r="P73" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5679149253363793</v>
-      </c>
-      <c r="Q73" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5614537442801606</v>
-      </c>
-      <c r="R73" s="5">
-        <f t="shared" si="16"/>
-        <v>1.0778383090369148</v>
-      </c>
-      <c r="S73" s="5">
-        <f t="shared" si="17"/>
-        <v>0.73824557265162971</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1875991315045586</v>
+      </c>
+      <c r="T73" s="14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -5956,43 +6196,46 @@
         <v>25</v>
       </c>
       <c r="K74" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>63.489013621638676</v>
       </c>
       <c r="L74" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.2154362779167061</v>
       </c>
       <c r="M74" s="5">
+        <f t="shared" si="16"/>
+        <v>5.2115854197734865</v>
+      </c>
+      <c r="N74" s="5">
+        <f t="shared" si="17"/>
+        <v>1.92440663476634</v>
+      </c>
+      <c r="O74" s="5">
+        <f t="shared" si="18"/>
+        <v>0.5501203979611462</v>
+      </c>
+      <c r="P74" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5662448568613774</v>
+      </c>
+      <c r="Q74" s="5">
         <f t="shared" si="11"/>
-        <v>3.4949807022851482</v>
-      </c>
-      <c r="N74" s="5">
+        <v>2.0317480326194435</v>
+      </c>
+      <c r="R74" s="5">
         <f t="shared" si="12"/>
-        <v>1.92440663476634</v>
-      </c>
-      <c r="O74" s="5">
+        <v>2.0001823547039876</v>
+      </c>
+      <c r="S74" s="5">
         <f t="shared" si="13"/>
-        <v>0.5501203979611462</v>
-      </c>
-      <c r="P74" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5662448568613774</v>
-      </c>
-      <c r="Q74" s="5">
-        <f t="shared" si="15"/>
-        <v>1.6419826677124902</v>
-      </c>
-      <c r="R74" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1176592941099832</v>
-      </c>
-      <c r="S74" s="5">
-        <f t="shared" si="17"/>
-        <v>0.735338740462675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1796550324500557</v>
+      </c>
+      <c r="T74" s="14">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
@@ -6024,43 +6267,46 @@
         <v>25</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>59.994856563966586</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.1449095896459642</v>
       </c>
       <c r="M75" s="5">
+        <f t="shared" si="16"/>
+        <v>5.1192777052482388</v>
+      </c>
+      <c r="N75" s="5">
+        <f t="shared" si="17"/>
+        <v>1.9005116197802667</v>
+      </c>
+      <c r="O75" s="5">
+        <f t="shared" si="18"/>
+        <v>0.54963634303780917</v>
+      </c>
+      <c r="P75" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5621083153707802</v>
+      </c>
+      <c r="Q75" s="5">
         <f t="shared" si="11"/>
-        <v>3.4286273666979188</v>
-      </c>
-      <c r="N75" s="5">
+        <v>1.9609014949493513</v>
+      </c>
+      <c r="R75" s="5">
         <f t="shared" si="12"/>
-        <v>1.9005116197802667</v>
-      </c>
-      <c r="O75" s="5">
+        <v>1.9983976736549851</v>
+      </c>
+      <c r="S75" s="5">
         <f t="shared" si="13"/>
-        <v>0.54963634303780917</v>
-      </c>
-      <c r="P75" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5621083153707802</v>
-      </c>
-      <c r="Q75" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5836930857946814</v>
-      </c>
-      <c r="R75" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1167953841211038</v>
-      </c>
-      <c r="S75" s="5">
-        <f t="shared" si="17"/>
-        <v>0.72813889678213362</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1599785366439022</v>
+      </c>
+      <c r="T75" s="14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -6092,43 +6338,46 @@
         <v>25</v>
       </c>
       <c r="K76" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>60.434717703248907</v>
       </c>
       <c r="L76" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.1571072650800796</v>
       </c>
       <c r="M76" s="5">
+        <f t="shared" si="16"/>
+        <v>5.0801906421748759</v>
+      </c>
+      <c r="N76" s="5">
+        <f t="shared" si="17"/>
+        <v>1.9036152682705723</v>
+      </c>
+      <c r="O76" s="5">
+        <f t="shared" si="18"/>
+        <v>0.54725776276488369</v>
+      </c>
+      <c r="P76" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5538002452453554</v>
+      </c>
+      <c r="Q76" s="5">
         <f t="shared" si="11"/>
-        <v>3.417492696832519</v>
-      </c>
-      <c r="N76" s="5">
+        <v>1.9701035293406797</v>
+      </c>
+      <c r="R76" s="5">
         <f t="shared" si="12"/>
-        <v>1.9036152682705723</v>
-      </c>
-      <c r="O76" s="5">
+        <v>1.9896279929184337</v>
+      </c>
+      <c r="S76" s="5">
         <f t="shared" si="13"/>
-        <v>0.54725776276488369</v>
-      </c>
-      <c r="P76" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5538002452453554</v>
-      </c>
-      <c r="Q76" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5912641366195162</v>
-      </c>
-      <c r="R76" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1125502475507207</v>
-      </c>
-      <c r="S76" s="5">
-        <f t="shared" si="17"/>
-        <v>0.71367831266228232</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1204591199157625</v>
+      </c>
+      <c r="T76" s="14">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -6160,43 +6409,46 @@
         <v>25</v>
       </c>
       <c r="K77" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>64.703982775765127</v>
       </c>
       <c r="L77" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.2153475971609824</v>
       </c>
       <c r="M77" s="5">
+        <f t="shared" si="16"/>
+        <v>5.1860684880763923</v>
+      </c>
+      <c r="N77" s="5">
+        <f t="shared" si="17"/>
+        <v>1.9201412916255576</v>
+      </c>
+      <c r="O77" s="5">
+        <f t="shared" si="18"/>
+        <v>0.55680761882225127</v>
+      </c>
+      <c r="P77" s="5">
+        <f t="shared" si="19"/>
+        <v>1.5583558672771691</v>
+      </c>
+      <c r="Q77" s="5">
         <f t="shared" si="11"/>
-        <v>3.4827795748988097</v>
-      </c>
-      <c r="N77" s="5">
+        <v>2.0191016796594039</v>
+      </c>
+      <c r="R77" s="5">
         <f t="shared" si="12"/>
-        <v>1.9201412916255576</v>
-      </c>
-      <c r="O77" s="5">
+        <v>2.0248377311208485</v>
+      </c>
+      <c r="S77" s="5">
         <f t="shared" si="13"/>
-        <v>0.55680761882225127</v>
-      </c>
-      <c r="P77" s="5">
-        <f t="shared" si="14"/>
-        <v>1.5583558672771691</v>
-      </c>
-      <c r="Q77" s="5">
-        <f t="shared" si="15"/>
-        <v>1.6315777749531801</v>
-      </c>
-      <c r="R77" s="5">
-        <f t="shared" si="16"/>
-        <v>1.129594214345738</v>
-      </c>
-      <c r="S77" s="5">
-        <f t="shared" si="17"/>
-        <v>0.72160758559989147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.1421290772961397</v>
+      </c>
+      <c r="T77" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -6228,43 +6480,46 @@
         <v>0</v>
       </c>
       <c r="K78" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>16.128025017702178</v>
       </c>
       <c r="L78" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>14.912009500587258</v>
       </c>
       <c r="M78" s="5">
+        <f t="shared" si="16"/>
+        <v>0.87986069337232775</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4726024111217062</v>
+      </c>
+      <c r="O78" s="5">
+        <f t="shared" si="18"/>
+        <v>-7.0349041615759916E-2</v>
+      </c>
+      <c r="P78" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4181325298025171</v>
+      </c>
+      <c r="Q78" s="5">
         <f t="shared" si="11"/>
-        <v>1.027677684338413</v>
-      </c>
-      <c r="N78" s="5">
+        <v>0.69218976205121119</v>
+      </c>
+      <c r="R78" s="5">
         <f t="shared" si="12"/>
-        <v>1.4726024111217062</v>
-      </c>
-      <c r="O78" s="5">
+        <v>-0.2874507152465775</v>
+      </c>
+      <c r="S78" s="5">
         <f t="shared" si="13"/>
-        <v>-7.0349041615759916E-2</v>
-      </c>
-      <c r="P78" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4181325298025171</v>
-      </c>
-      <c r="Q78" s="5">
-        <f t="shared" si="15"/>
-        <v>0.53984988728548378</v>
-      </c>
-      <c r="R78" s="5">
-        <f t="shared" si="16"/>
-        <v>1.0285480102273158E-2</v>
-      </c>
-      <c r="S78" s="5">
-        <f t="shared" si="17"/>
-        <v>0.47754231695065602</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.47512164656769407</v>
+      </c>
+      <c r="T78" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -6296,43 +6551,46 @@
         <v>0</v>
       </c>
       <c r="K79" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.516471214480507</v>
       </c>
       <c r="L79" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>23.087952140168383</v>
       </c>
       <c r="M79" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.29513472132552149</v>
+      </c>
+      <c r="N79" s="5">
+        <f t="shared" si="17"/>
+        <v>1.1713384285368973</v>
+      </c>
+      <c r="O79" s="5">
+        <f t="shared" si="18"/>
+        <v>1.6227399074156514E-2</v>
+      </c>
+      <c r="P79" s="5">
+        <f t="shared" si="19"/>
+        <v>1.291790548562828</v>
+      </c>
+      <c r="Q79" s="5">
         <f t="shared" si="11"/>
-        <v>0.22738521126862637</v>
-      </c>
-      <c r="N79" s="5">
+        <v>-0.20103043903576434</v>
+      </c>
+      <c r="R79" s="5">
         <f t="shared" si="12"/>
-        <v>1.1713384285368973</v>
-      </c>
-      <c r="O79" s="5">
+        <v>3.1751353651318578E-2</v>
+      </c>
+      <c r="S79" s="5">
         <f t="shared" si="13"/>
-        <v>1.6227399074156514E-2</v>
-      </c>
-      <c r="P79" s="5">
-        <f t="shared" si="14"/>
-        <v>1.291790548562828</v>
-      </c>
-      <c r="Q79" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.19505451022158535</v>
-      </c>
-      <c r="R79" s="5">
-        <f t="shared" si="16"/>
-        <v>0.16480152426937969</v>
-      </c>
-      <c r="S79" s="5">
-        <f t="shared" si="17"/>
-        <v>0.25763819722083203</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-0.12585563594107574</v>
+      </c>
+      <c r="T79" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -6364,43 +6622,46 @@
         <v>0</v>
       </c>
       <c r="K80" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.697034176670968</v>
       </c>
       <c r="L80" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12.069709157681119</v>
       </c>
       <c r="M80" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.53395932669383472</v>
+      </c>
+      <c r="N80" s="5">
+        <f t="shared" si="17"/>
+        <v>1.238920637867214</v>
+      </c>
+      <c r="O80" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.14914205104548814</v>
+      </c>
+      <c r="P80" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3276359045387029</v>
+      </c>
+      <c r="Q80" s="5">
         <f t="shared" si="11"/>
-        <v>0.15949527952600154</v>
-      </c>
-      <c r="N80" s="5">
+        <v>-6.5535904778758172E-4</v>
+      </c>
+      <c r="R80" s="5">
         <f t="shared" si="12"/>
-        <v>1.238920637867214</v>
-      </c>
-      <c r="O80" s="5">
+        <v>-0.57795574668742311</v>
+      </c>
+      <c r="S80" s="5">
         <f t="shared" si="13"/>
-        <v>-0.14914205104548814</v>
-      </c>
-      <c r="P80" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3276359045387029</v>
-      </c>
-      <c r="Q80" s="5">
-        <f t="shared" si="15"/>
-        <v>-3.0194235840424032E-2</v>
-      </c>
-      <c r="R80" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.13033919825229826</v>
-      </c>
-      <c r="S80" s="5">
-        <f t="shared" si="17"/>
-        <v>0.32002871361872381</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.4651779041375933E-2</v>
+      </c>
+      <c r="T80" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
@@ -6432,43 +6693,46 @@
         <v>0</v>
       </c>
       <c r="K81" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>19.493628248375821</v>
       </c>
       <c r="L81" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10.292174484390559</v>
       </c>
       <c r="M81" s="5">
+        <f t="shared" si="16"/>
+        <v>-6.0350074363364453E-2</v>
+      </c>
+      <c r="N81" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4487612666962073</v>
+      </c>
+      <c r="O81" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.2275723576279734</v>
+      </c>
+      <c r="P81" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3571978325193488</v>
+      </c>
+      <c r="Q81" s="5">
         <f t="shared" si="11"/>
-        <v>0.58285779952139882</v>
-      </c>
-      <c r="N81" s="5">
+        <v>0.62150294567450448</v>
+      </c>
+      <c r="R81" s="5">
         <f t="shared" si="12"/>
-        <v>1.4487612666962073</v>
-      </c>
-      <c r="O81" s="5">
+        <v>-0.86712351479990246</v>
+      </c>
+      <c r="S81" s="5">
         <f t="shared" si="13"/>
-        <v>-0.2275723576279734</v>
-      </c>
-      <c r="P81" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3571978325193488</v>
-      </c>
-      <c r="Q81" s="5">
-        <f t="shared" si="15"/>
-        <v>0.48169171739881983</v>
-      </c>
-      <c r="R81" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.27031654797199478</v>
-      </c>
-      <c r="S81" s="5">
-        <f t="shared" si="17"/>
-        <v>0.37148263009457383</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.18527049476203353</v>
+      </c>
+      <c r="T81" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>2</v>
       </c>
@@ -6500,43 +6764,46 @@
         <v>0</v>
       </c>
       <c r="K82" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14.521656519497228</v>
       </c>
       <c r="L82" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.454120143656267</v>
       </c>
       <c r="M82" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.26048472001156242</v>
+      </c>
+      <c r="N82" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3029292079680619</v>
+      </c>
+      <c r="O82" s="5">
+        <f t="shared" si="18"/>
+        <v>0.13003773776125421</v>
+      </c>
+      <c r="P82" s="5">
+        <f t="shared" si="19"/>
+        <v>1.1288397193667441</v>
+      </c>
+      <c r="Q82" s="5">
         <f t="shared" si="11"/>
-        <v>0.46788603037850995</v>
-      </c>
-      <c r="N82" s="5">
+        <v>0.18912420692032197</v>
+      </c>
+      <c r="R82" s="5">
         <f t="shared" si="12"/>
-        <v>1.3029292079680619</v>
-      </c>
-      <c r="O82" s="5">
+        <v>0.45136314736095567</v>
+      </c>
+      <c r="S82" s="5">
         <f t="shared" si="13"/>
-        <v>0.13003773776125421</v>
-      </c>
-      <c r="P82" s="5">
-        <f t="shared" si="14"/>
-        <v>1.1288397193667441</v>
-      </c>
-      <c r="Q82" s="5">
-        <f t="shared" si="15"/>
-        <v>0.12594849068683467</v>
-      </c>
-      <c r="R82" s="5">
-        <f t="shared" si="16"/>
-        <v>0.36792287205305135</v>
-      </c>
-      <c r="S82" s="5">
-        <f t="shared" si="17"/>
-        <v>-2.5985332361376085E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-0.9009720742928401</v>
+      </c>
+      <c r="T82" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
@@ -6568,43 +6835,46 @@
         <v>0</v>
       </c>
       <c r="K83" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>17.069863102197147</v>
       </c>
       <c r="L83" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>16.98303499173911</v>
       </c>
       <c r="M83" s="5">
+        <f t="shared" si="16"/>
+        <v>0.82537431564840091</v>
+      </c>
+      <c r="N83" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3382270109634578</v>
+      </c>
+      <c r="O83" s="5">
+        <f t="shared" si="18"/>
+        <v>0.17537111789350118</v>
+      </c>
+      <c r="P83" s="5">
+        <f t="shared" si="19"/>
+        <v>1.2999781590310346</v>
+      </c>
+      <c r="Q83" s="5">
         <f t="shared" si="11"/>
-        <v>0.9327741519995052</v>
-      </c>
-      <c r="N83" s="5">
+        <v>0.29377896989252789</v>
+      </c>
+      <c r="R83" s="5">
         <f t="shared" si="12"/>
-        <v>1.3382270109634578</v>
-      </c>
-      <c r="O83" s="5">
+        <v>0.61850456150358391</v>
+      </c>
+      <c r="S83" s="5">
         <f t="shared" si="13"/>
-        <v>0.17537111789350118</v>
-      </c>
-      <c r="P83" s="5">
-        <f t="shared" si="14"/>
-        <v>1.2999781590310346</v>
-      </c>
-      <c r="Q83" s="5">
-        <f t="shared" si="15"/>
-        <v>0.21205407297744952</v>
-      </c>
-      <c r="R83" s="5">
-        <f t="shared" si="16"/>
-        <v>0.44883096334138195</v>
-      </c>
-      <c r="S83" s="5">
-        <f t="shared" si="17"/>
-        <v>0.27188911568067375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-8.6909215747710836E-2</v>
+      </c>
+      <c r="T83" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
@@ -6636,43 +6906,46 @@
         <v>0</v>
       </c>
       <c r="K84" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>19.351745728109506</v>
       </c>
       <c r="L84" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10.307383563427962</v>
       </c>
       <c r="M84" s="5">
+        <f t="shared" si="16"/>
+        <v>-7.431823134668944E-2</v>
+      </c>
+      <c r="N84" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4465072434991184</v>
+      </c>
+      <c r="O84" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.22648974266816937</v>
+      </c>
+      <c r="P84" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3548271554170512</v>
+      </c>
+      <c r="Q84" s="5">
         <f t="shared" si="11"/>
-        <v>0.5751652346495324</v>
-      </c>
-      <c r="N84" s="5">
+        <v>0.61481997270148514</v>
+      </c>
+      <c r="R84" s="5">
         <f t="shared" si="12"/>
-        <v>1.4465072434991184</v>
-      </c>
-      <c r="O84" s="5">
+        <v>-0.86313197931709174</v>
+      </c>
+      <c r="S84" s="5">
         <f t="shared" si="13"/>
-        <v>-0.22648974266816937</v>
-      </c>
-      <c r="P84" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3548271554170512</v>
-      </c>
-      <c r="Q84" s="5">
-        <f t="shared" si="15"/>
-        <v>0.47619324544272651</v>
-      </c>
-      <c r="R84" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.26838436665786353</v>
-      </c>
-      <c r="S84" s="5">
-        <f t="shared" si="17"/>
-        <v>0.36735635586466947</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.17399377526891716</v>
+      </c>
+      <c r="T84" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -6704,43 +6977,46 @@
         <v>0</v>
       </c>
       <c r="K85" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>28.045383688970769</v>
       </c>
       <c r="L85" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.5957224557860972</v>
       </c>
       <c r="M85" s="5">
+        <f t="shared" si="16"/>
+        <v>2.1373905589434172</v>
+      </c>
+      <c r="N85" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5784758934965153</v>
+      </c>
+      <c r="O85" s="5">
+        <f t="shared" si="18"/>
+        <v>0.22008477172419177</v>
+      </c>
+      <c r="P85" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3913942889648576</v>
+      </c>
+      <c r="Q85" s="5">
         <f t="shared" si="11"/>
-        <v>1.7577541920737774</v>
-      </c>
-      <c r="N85" s="5">
+        <v>1.0060949703845152</v>
+      </c>
+      <c r="R85" s="5">
         <f t="shared" si="12"/>
-        <v>1.5784758934965153</v>
-      </c>
-      <c r="O85" s="5">
+        <v>0.78336108248092551</v>
+      </c>
+      <c r="S85" s="5">
         <f t="shared" si="13"/>
-        <v>0.22008477172419177</v>
-      </c>
-      <c r="P85" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3913942889648576</v>
-      </c>
-      <c r="Q85" s="5">
-        <f t="shared" si="15"/>
-        <v>0.79811802511284902</v>
-      </c>
-      <c r="R85" s="5">
-        <f t="shared" si="16"/>
-        <v>0.52863300712048578</v>
-      </c>
-      <c r="S85" s="5">
-        <f t="shared" si="17"/>
-        <v>0.43100315984044241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.34793450607797621</v>
+      </c>
+      <c r="T85" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>2</v>
       </c>
@@ -6772,43 +7048,46 @@
         <v>1</v>
       </c>
       <c r="K86" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.5329624243582032</v>
       </c>
       <c r="L86" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.6433334947655762</v>
       </c>
       <c r="M86" s="5">
+        <f t="shared" si="16"/>
+        <v>0.14239140630822233</v>
+      </c>
+      <c r="N86" s="5">
+        <f t="shared" si="17"/>
+        <v>0.57519949139588145</v>
+      </c>
+      <c r="O86" s="5">
+        <f t="shared" si="18"/>
+        <v>0.36643406098950265</v>
+      </c>
+      <c r="P86" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4839034187933293</v>
+      </c>
+      <c r="Q86" s="5">
         <f t="shared" si="11"/>
-        <v>-0.26743049286289</v>
-      </c>
-      <c r="N86" s="5">
+        <v>-1.9685279564629414</v>
+      </c>
+      <c r="R86" s="5">
         <f t="shared" si="12"/>
-        <v>0.57519949139588145</v>
-      </c>
-      <c r="O86" s="5">
+        <v>1.3229420070714737</v>
+      </c>
+      <c r="S86" s="5">
         <f t="shared" si="13"/>
-        <v>0.36643406098950265</v>
-      </c>
-      <c r="P86" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4839034187933293</v>
-      </c>
-      <c r="Q86" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.6492778882411987</v>
-      </c>
-      <c r="R86" s="5">
-        <f t="shared" si="16"/>
-        <v>0.78982777400788451</v>
-      </c>
-      <c r="S86" s="5">
-        <f t="shared" si="17"/>
-        <v>0.59201962137042419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.78797735569969007</v>
+      </c>
+      <c r="T86" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
@@ -6840,43 +7119,46 @@
         <v>2</v>
       </c>
       <c r="K87" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.6355635880985666</v>
       </c>
       <c r="L87" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.2033550930371089</v>
       </c>
       <c r="M87" s="5">
+        <f t="shared" si="16"/>
+        <v>-1.4264573775997325E-2</v>
+      </c>
+      <c r="N87" s="5">
+        <f t="shared" si="17"/>
+        <v>0.54095006669301593</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="18"/>
+        <v>0.35072217199842687</v>
+      </c>
+      <c r="P87" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4844960955925162</v>
+      </c>
+      <c r="Q87" s="5">
         <f t="shared" si="11"/>
-        <v>-0.37798864139125432</v>
-      </c>
-      <c r="N87" s="5">
+        <v>-2.0700743735212592</v>
+      </c>
+      <c r="R87" s="5">
         <f t="shared" si="12"/>
-        <v>0.54095006669301593</v>
-      </c>
-      <c r="O87" s="5">
+        <v>1.2650132283843454</v>
+      </c>
+      <c r="S87" s="5">
         <f t="shared" si="13"/>
-        <v>0.35072217199842687</v>
-      </c>
-      <c r="P87" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4844960955925162</v>
-      </c>
-      <c r="Q87" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.7328260529114892</v>
-      </c>
-      <c r="R87" s="5">
-        <f t="shared" si="16"/>
-        <v>0.76178620849713574</v>
-      </c>
-      <c r="S87" s="5">
-        <f t="shared" si="17"/>
-        <v>0.5930512030230991</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.79079657136091652</v>
+      </c>
+      <c r="T87" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>2</v>
       </c>
@@ -6908,43 +7190,46 @@
         <v>1</v>
       </c>
       <c r="K88" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.6955513774035258</v>
       </c>
       <c r="L88" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.965688785402957</v>
       </c>
       <c r="M88" s="5">
+        <f t="shared" si="16"/>
+        <v>-4.7408924859038137E-3</v>
+      </c>
+      <c r="N88" s="5">
+        <f t="shared" si="17"/>
+        <v>0.53513328990689946</v>
+      </c>
+      <c r="O88" s="5">
+        <f t="shared" si="18"/>
+        <v>0.35828968143318701</v>
+      </c>
+      <c r="P88" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4842583169930765</v>
+      </c>
+      <c r="Q88" s="5">
         <f t="shared" si="11"/>
-        <v>-0.37908596901836267</v>
-      </c>
-      <c r="N88" s="5">
+        <v>-2.0873205855841643</v>
+      </c>
+      <c r="R88" s="5">
         <f t="shared" si="12"/>
-        <v>0.53513328990689946</v>
-      </c>
-      <c r="O88" s="5">
+        <v>1.2929141752092606</v>
+      </c>
+      <c r="S88" s="5">
         <f t="shared" si="13"/>
-        <v>0.35828968143318701</v>
-      </c>
-      <c r="P88" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4842583169930765</v>
-      </c>
-      <c r="Q88" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.7470155182526725</v>
-      </c>
-      <c r="R88" s="5">
-        <f t="shared" si="16"/>
-        <v>0.77529221097007628</v>
-      </c>
-      <c r="S88" s="5">
-        <f t="shared" si="17"/>
-        <v>0.59263733826423359</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.78966551788899997</v>
+      </c>
+      <c r="T88" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>2</v>
       </c>
@@ -6976,43 +7261,46 @@
         <v>25</v>
       </c>
       <c r="K89" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.4981878156918245</v>
       </c>
       <c r="L89" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.2669749761794769</v>
       </c>
       <c r="M89" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.11505974207864567</v>
+      </c>
+      <c r="N89" s="5">
+        <f t="shared" si="17"/>
+        <v>0.53560773288674435</v>
+      </c>
+      <c r="O89" s="5">
+        <f t="shared" si="18"/>
+        <v>0.34066217257387332</v>
+      </c>
+      <c r="P89" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4744335475162906</v>
+      </c>
+      <c r="Q89" s="5">
         <f t="shared" si="11"/>
-        <v>-0.42648952159114173</v>
-      </c>
-      <c r="N89" s="5">
+        <v>-2.0859139054685216</v>
+      </c>
+      <c r="R89" s="5">
         <f t="shared" si="12"/>
-        <v>0.53560773288674435</v>
-      </c>
-      <c r="O89" s="5">
+        <v>1.2279226226278634</v>
+      </c>
+      <c r="S89" s="5">
         <f t="shared" si="13"/>
-        <v>0.34066217257387332</v>
-      </c>
-      <c r="P89" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4744335475162906</v>
-      </c>
-      <c r="Q89" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.74585816041234</v>
-      </c>
-      <c r="R89" s="5">
-        <f t="shared" si="16"/>
-        <v>0.74383177074226492</v>
-      </c>
-      <c r="S89" s="5">
-        <f t="shared" si="17"/>
-        <v>0.57553686807893345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.74293154076201251</v>
+      </c>
+      <c r="T89" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>2</v>
       </c>
@@ -7044,43 +7332,46 @@
         <v>2</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.5065757002361164</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.1084038368374705</v>
       </c>
       <c r="M90" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.17267560522066994</v>
+      </c>
+      <c r="N90" s="5">
+        <f t="shared" si="17"/>
+        <v>0.53512792803885567</v>
+      </c>
+      <c r="O90" s="5">
+        <f t="shared" si="18"/>
+        <v>0.32990152251989852</v>
+      </c>
+      <c r="P90" s="5">
+        <f t="shared" si="19"/>
+        <v>1.470960709581965</v>
+      </c>
+      <c r="Q90" s="5">
         <f t="shared" si="11"/>
-        <v>-0.45290950961244281</v>
-      </c>
-      <c r="N90" s="5">
+        <v>-2.0873364830333423</v>
+      </c>
+      <c r="R90" s="5">
         <f t="shared" si="12"/>
-        <v>0.53512792803885567</v>
-      </c>
-      <c r="O90" s="5">
+        <v>1.1882487606332681</v>
+      </c>
+      <c r="S90" s="5">
         <f t="shared" si="13"/>
-        <v>0.32990152251989852</v>
-      </c>
-      <c r="P90" s="5">
-        <f t="shared" si="14"/>
-        <v>1.470960709581965</v>
-      </c>
-      <c r="Q90" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.7470285980120597</v>
-      </c>
-      <c r="R90" s="5">
-        <f t="shared" si="16"/>
-        <v>0.72462685696021323</v>
-      </c>
-      <c r="S90" s="5">
-        <f t="shared" si="17"/>
-        <v>0.56949223143940364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.72641211717940424</v>
+      </c>
+      <c r="T90" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
@@ -7112,43 +7403,46 @@
         <v>2</v>
       </c>
       <c r="K91" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-1.514927345524721</v>
       </c>
       <c r="L91" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.1385388442230626</v>
       </c>
       <c r="M91" s="5">
+        <f t="shared" si="16"/>
+        <v>-0.11370456226937065</v>
+      </c>
+      <c r="N91" s="5">
+        <f t="shared" si="17"/>
+        <v>0.53285695656951493</v>
+      </c>
+      <c r="O91" s="5">
+        <f t="shared" si="18"/>
+        <v>0.34385261810573403</v>
+      </c>
+      <c r="P91" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4739601154707269</v>
+      </c>
+      <c r="Q91" s="5">
         <f t="shared" si="11"/>
-        <v>-0.4283297041186952</v>
-      </c>
-      <c r="N91" s="5">
+        <v>-2.0940697060861053</v>
+      </c>
+      <c r="R91" s="5">
         <f t="shared" si="12"/>
-        <v>0.53285695656951493</v>
-      </c>
-      <c r="O91" s="5">
+        <v>1.2396856011744577</v>
+      </c>
+      <c r="S91" s="5">
         <f t="shared" si="13"/>
-        <v>0.34385261810573403</v>
-      </c>
-      <c r="P91" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4739601154707269</v>
-      </c>
-      <c r="Q91" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.7525684136419013</v>
-      </c>
-      <c r="R91" s="5">
-        <f t="shared" si="16"/>
-        <v>0.74952587203339305</v>
-      </c>
-      <c r="S91" s="5">
-        <f t="shared" si="17"/>
-        <v>0.57471283748981306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.74067954264227698</v>
+      </c>
+      <c r="T91" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
@@ -7180,43 +7474,46 @@
         <v>3</v>
       </c>
       <c r="K92" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.92230247734966</v>
       </c>
       <c r="L92" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.633924823047936</v>
       </c>
       <c r="M92" s="5">
+        <f t="shared" si="16"/>
+        <v>0.30115682877197819</v>
+      </c>
+      <c r="N92" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3544266346671496</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.13748984434660413</v>
+      </c>
+      <c r="P92" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4221732245469774</v>
+      </c>
+      <c r="Q92" s="5">
         <f t="shared" si="11"/>
-        <v>0.62660373406263836</v>
-      </c>
-      <c r="N92" s="5">
+        <v>0.34180937504748726</v>
+      </c>
+      <c r="R92" s="5">
         <f t="shared" si="12"/>
-        <v>1.3544266346671496</v>
-      </c>
-      <c r="O92" s="5">
+        <v>-0.53499476959168879</v>
+      </c>
+      <c r="S92" s="5">
         <f t="shared" si="13"/>
-        <v>-0.13748984434660413</v>
-      </c>
-      <c r="P92" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4221732245469774</v>
-      </c>
-      <c r="Q92" s="5">
-        <f t="shared" si="15"/>
-        <v>0.25157149087672159</v>
-      </c>
-      <c r="R92" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.10954309170666712</v>
-      </c>
-      <c r="S92" s="5">
-        <f t="shared" si="17"/>
-        <v>0.48457533489258392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.49434222331617972</v>
+      </c>
+      <c r="T92" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>2</v>
       </c>
@@ -7248,43 +7545,46 @@
         <v>3</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.999097024421442</v>
       </c>
       <c r="L93" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.7660027914688374</v>
       </c>
       <c r="M93" s="5">
+        <f t="shared" si="16"/>
+        <v>0.28042370490619611</v>
+      </c>
+      <c r="N93" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3523095475529701</v>
+      </c>
+      <c r="O93" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.14826885304530713</v>
+      </c>
+      <c r="P93" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4274889112372868</v>
+      </c>
+      <c r="Q93" s="5">
         <f t="shared" si="11"/>
-        <v>0.61145382633081702</v>
-      </c>
-      <c r="N93" s="5">
+        <v>0.33553240505717724</v>
+      </c>
+      <c r="R93" s="5">
         <f t="shared" si="12"/>
-        <v>1.3523095475529701</v>
-      </c>
-      <c r="O93" s="5">
+        <v>-0.57473631879232656</v>
+      </c>
+      <c r="S93" s="5">
         <f t="shared" si="13"/>
-        <v>-0.14826885304530713</v>
-      </c>
-      <c r="P93" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4274889112372868</v>
-      </c>
-      <c r="Q93" s="5">
-        <f t="shared" si="15"/>
-        <v>0.24640706127326531</v>
-      </c>
-      <c r="R93" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.12878077081306172</v>
-      </c>
-      <c r="S93" s="5">
-        <f t="shared" si="17"/>
-        <v>0.49382753587061345</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.51962761864134543</v>
+      </c>
+      <c r="T93" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
@@ -7316,43 +7616,46 @@
         <v>3</v>
       </c>
       <c r="K94" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>12.350905655614227</v>
       </c>
       <c r="L94" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.5593961996162164</v>
       </c>
       <c r="M94" s="5">
+        <f t="shared" si="16"/>
+        <v>0.41740645620273686</v>
+      </c>
+      <c r="N94" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3854179341655919</v>
+      </c>
+      <c r="O94" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.12682200878542985</v>
+      </c>
+      <c r="P94" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4190264531346866</v>
+      </c>
+      <c r="Q94" s="5">
         <f t="shared" si="11"/>
-        <v>0.7157661787167815</v>
-      </c>
-      <c r="N94" s="5">
+        <v>0.43369574836180302</v>
+      </c>
+      <c r="R94" s="5">
         <f t="shared" si="12"/>
-        <v>1.3854179341655919</v>
-      </c>
-      <c r="O94" s="5">
+        <v>-0.49566310898455573</v>
+      </c>
+      <c r="S94" s="5">
         <f t="shared" si="13"/>
-        <v>-0.12682200878542985</v>
-      </c>
-      <c r="P94" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4190264531346866</v>
-      </c>
-      <c r="Q94" s="5">
-        <f t="shared" si="15"/>
-        <v>0.32717177369331174</v>
-      </c>
-      <c r="R94" s="5">
-        <f t="shared" si="16"/>
-        <v>-9.0503827241619428E-2</v>
-      </c>
-      <c r="S94" s="5">
-        <f t="shared" si="17"/>
-        <v>0.47909823226508924</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.47937381682548957</v>
+      </c>
+      <c r="T94" s="14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>2</v>
       </c>
@@ -7384,43 +7687,46 @@
         <v>0</v>
       </c>
       <c r="K95" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14.074714295011987</v>
       </c>
       <c r="L95" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>16.106295002523382</v>
       </c>
       <c r="M95" s="5">
+        <f t="shared" si="16"/>
+        <v>0.63556840238275703</v>
+      </c>
+      <c r="N95" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4240912359816957</v>
+      </c>
+      <c r="O95" s="5">
+        <f t="shared" si="18"/>
+        <v>-9.3235244658461738E-2</v>
+      </c>
+      <c r="P95" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4147518504899375</v>
+      </c>
+      <c r="Q95" s="5">
         <f t="shared" si="11"/>
-        <v>0.86260930800241242</v>
-      </c>
-      <c r="N95" s="5">
+        <v>0.54835855713335324</v>
+      </c>
+      <c r="R95" s="5">
         <f t="shared" si="12"/>
-        <v>1.4240912359816957</v>
-      </c>
-      <c r="O95" s="5">
+        <v>-0.37183075330580667</v>
+      </c>
+      <c r="S95" s="5">
         <f t="shared" si="13"/>
-        <v>-9.3235244658461738E-2</v>
-      </c>
-      <c r="P95" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4147518504899375</v>
-      </c>
-      <c r="Q95" s="5">
-        <f t="shared" si="15"/>
-        <v>0.42151155944175239</v>
-      </c>
-      <c r="R95" s="5">
-        <f t="shared" si="16"/>
-        <v>-3.0560338136306309E-2</v>
-      </c>
-      <c r="S95" s="5">
-        <f t="shared" si="17"/>
-        <v>0.47165808669696641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.4590405985552104</v>
+      </c>
+      <c r="T95" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>2</v>
       </c>
@@ -7452,43 +7758,46 @@
         <v>2</v>
       </c>
       <c r="K96" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.186973430757694</v>
       </c>
       <c r="L96" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10.676030849124952</v>
       </c>
       <c r="M96" s="5">
+        <f t="shared" si="16"/>
+        <v>0.23370038399155907</v>
+      </c>
+      <c r="N96" s="5">
+        <f t="shared" si="17"/>
+        <v>1.3496371926348054</v>
+      </c>
+      <c r="O96" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.15217182075244845</v>
+      </c>
+      <c r="P96" s="5">
+        <f t="shared" si="19"/>
+        <v>1.4223572508464604</v>
+      </c>
+      <c r="Q96" s="5">
         <f t="shared" si="11"/>
-        <v>0.58903721503721596</v>
-      </c>
-      <c r="N96" s="5">
+        <v>0.32760911672745857</v>
+      </c>
+      <c r="R96" s="5">
         <f t="shared" si="12"/>
-        <v>1.3496371926348054</v>
-      </c>
-      <c r="O96" s="5">
+        <v>-0.58912632324426861</v>
+      </c>
+      <c r="S96" s="5">
         <f t="shared" si="13"/>
-        <v>-0.15217182075244845</v>
-      </c>
-      <c r="P96" s="5">
-        <f t="shared" si="14"/>
-        <v>1.4223572508464604</v>
-      </c>
-      <c r="Q96" s="5">
-        <f t="shared" si="15"/>
-        <v>0.23988810947488373</v>
-      </c>
-      <c r="R96" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.13574653570029482</v>
-      </c>
-      <c r="S96" s="5">
-        <f t="shared" si="17"/>
-        <v>0.48489564126262708</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.49521759050836911</v>
+      </c>
+      <c r="T96" s="14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
@@ -7520,43 +7829,46 @@
         <v>5</v>
       </c>
       <c r="K97" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>23.61474188001371</v>
       </c>
       <c r="L97" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.000069319531061</v>
       </c>
       <c r="M97" s="5">
+        <f t="shared" si="16"/>
+        <v>0.1716449503951307</v>
+      </c>
+      <c r="N97" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5230121723410179</v>
+      </c>
+      <c r="O97" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.17807768352136491</v>
+      </c>
+      <c r="P97" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3213254480606036</v>
+      </c>
+      <c r="Q97" s="5">
         <f t="shared" si="11"/>
-        <v>0.7898830541691424</v>
-      </c>
-      <c r="N97" s="5">
+        <v>0.84165010134146956</v>
+      </c>
+      <c r="R97" s="5">
         <f t="shared" si="12"/>
-        <v>1.5230121723410179</v>
-      </c>
-      <c r="O97" s="5">
+        <v>-0.68463966297649703</v>
+      </c>
+      <c r="S97" s="5">
         <f t="shared" si="13"/>
-        <v>-0.17807768352136491</v>
-      </c>
-      <c r="P97" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3213254480606036</v>
-      </c>
-      <c r="Q97" s="5">
-        <f t="shared" si="15"/>
-        <v>0.66281963255506504</v>
-      </c>
-      <c r="R97" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.1819816477456796</v>
-      </c>
-      <c r="S97" s="5">
-        <f t="shared" si="17"/>
-        <v>0.30904506935975695</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.463451203015816E-2</v>
+      </c>
+      <c r="T97" s="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -7588,43 +7900,46 @@
         <v>5</v>
       </c>
       <c r="K98" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>21.457072024715664</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.0363365073634316</v>
       </c>
       <c r="M98" s="5">
+        <f t="shared" si="16"/>
+        <v>0.15880452045906643</v>
+      </c>
+      <c r="N98" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4857297301319545</v>
+      </c>
+      <c r="O98" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.19436378945750202</v>
+      </c>
+      <c r="P98" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3544876853271919</v>
+      </c>
+      <c r="Q98" s="5">
         <f t="shared" si="11"/>
-        <v>0.72759016823967082</v>
-      </c>
-      <c r="N98" s="5">
+        <v>0.73111106431065409</v>
+      </c>
+      <c r="R98" s="5">
         <f t="shared" si="12"/>
-        <v>1.4857297301319545</v>
-      </c>
-      <c r="O98" s="5">
+        <v>-0.74468554460062741</v>
+      </c>
+      <c r="S98" s="5">
         <f t="shared" si="13"/>
-        <v>-0.19436378945750202</v>
-      </c>
-      <c r="P98" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3544876853271919</v>
-      </c>
-      <c r="Q98" s="5">
-        <f t="shared" si="15"/>
-        <v>0.57187271452602129</v>
-      </c>
-      <c r="R98" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.211048038603111</v>
-      </c>
-      <c r="S98" s="5">
-        <f t="shared" si="17"/>
-        <v>0.36676549231676053</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.17237900074903975</v>
+      </c>
+      <c r="T98" s="14">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>2</v>
       </c>
@@ -7656,43 +7971,46 @@
         <v>5</v>
       </c>
       <c r="K99" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>20.951478184775674</v>
       </c>
       <c r="L99" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.0427585039186855</v>
       </c>
       <c r="M99" s="5">
+        <f t="shared" si="16"/>
+        <v>0.12461724203388969</v>
+      </c>
+      <c r="N99" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4771133968530543</v>
+      </c>
+      <c r="O99" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.19559599393743018</v>
+      </c>
+      <c r="P99" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3536262623797057</v>
+      </c>
+      <c r="Q99" s="5">
         <f t="shared" si="11"/>
-        <v>0.70287294922778387</v>
-      </c>
-      <c r="N99" s="5">
+        <v>0.70556442286358012</v>
+      </c>
+      <c r="R99" s="5">
         <f t="shared" si="12"/>
-        <v>1.4771133968530543</v>
-      </c>
-      <c r="O99" s="5">
+        <v>-0.74922860754204657</v>
+      </c>
+      <c r="S99" s="5">
         <f t="shared" si="13"/>
-        <v>-0.19559599393743018</v>
-      </c>
-      <c r="P99" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3536262623797057</v>
-      </c>
-      <c r="Q99" s="5">
-        <f t="shared" si="15"/>
-        <v>0.55085400142689511</v>
-      </c>
-      <c r="R99" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.21324719763905947</v>
-      </c>
-      <c r="S99" s="5">
-        <f t="shared" si="17"/>
-        <v>0.36526614543994818</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.16828142671235613</v>
+      </c>
+      <c r="T99" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
@@ -7724,43 +8042,46 @@
         <v>0</v>
       </c>
       <c r="K100" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>20.929870737878552</v>
       </c>
       <c r="L100" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>9.5741422779819363</v>
       </c>
       <c r="M100" s="5">
+        <f t="shared" si="16"/>
+        <v>0.10243415579570922</v>
+      </c>
+      <c r="N100" s="5">
+        <f t="shared" si="17"/>
+        <v>1.4757475037740324</v>
+      </c>
+      <c r="O100" s="5">
+        <f t="shared" si="18"/>
+        <v>-0.1974169204554983</v>
+      </c>
+      <c r="P100" s="5">
+        <f t="shared" si="19"/>
+        <v>1.3512255283706442</v>
+      </c>
+      <c r="Q100" s="5">
         <f t="shared" si="11"/>
-        <v>0.69211252312613902</v>
-      </c>
-      <c r="N100" s="5">
+        <v>0.701514674598821</v>
+      </c>
+      <c r="R100" s="5">
         <f t="shared" si="12"/>
-        <v>1.4757475037740324</v>
-      </c>
-      <c r="O100" s="5">
+        <v>-0.75594225281605565</v>
+      </c>
+      <c r="S100" s="5">
         <f t="shared" si="13"/>
-        <v>-0.1974169204554983</v>
-      </c>
-      <c r="P100" s="5">
-        <f t="shared" si="14"/>
-        <v>1.3512255283706442</v>
-      </c>
-      <c r="Q100" s="5">
-        <f t="shared" si="15"/>
-        <v>0.54752203714200054</v>
-      </c>
-      <c r="R100" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.21649706977573693</v>
-      </c>
-      <c r="S100" s="5">
-        <f t="shared" si="17"/>
-        <v>0.36108755575987539</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15686173401294387</v>
+      </c>
+      <c r="T100" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>2</v>
       </c>
@@ -7792,43 +8113,46 @@
         <v>9</v>
       </c>
       <c r="K101" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.050672425406979</v>
       </c>
       <c r="L101" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.85498332789005</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="11"/>
-        <v>0.95253505347880207</v>
+        <f t="shared" si="16"/>
+        <v>0.61248683982471774</v>
       </c>
       <c r="N101" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.4046585550089139</v>
       </c>
       <c r="O101" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.19299208986220084</v>
       </c>
       <c r="P101" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2001582526246657</v>
       </c>
       <c r="Q101" s="5">
-        <f t="shared" si="15"/>
-        <v>0.37410741049663571</v>
+        <f t="shared" ref="Q101:Q136" si="20">STANDARDIZE(N101,AVERAGE(N$36:N$136), _xlfn.STDEV.S(N$36:N$136))</f>
+        <v>0.49074243237379661</v>
       </c>
       <c r="R101" s="5">
-        <f t="shared" si="16"/>
-        <v>0.48027973694868115</v>
+        <f t="shared" ref="R101:R136" si="21">STANDARDIZE(O101,AVERAGE(O$36:O$136), _xlfn.STDEV.S(O$36:O$136))</f>
+        <v>0.68347201296703808</v>
       </c>
       <c r="S101" s="5">
-        <f t="shared" si="17"/>
-        <v>9.8147906033485235E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S101:S136" si="22">STANDARDIZE(P101,AVERAGE(P$36:P$136), _xlfn.STDEV.S(P$36:P$136))</f>
+        <v>-0.561727605516117</v>
+      </c>
+      <c r="T101" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>2</v>
       </c>
@@ -7860,43 +8184,46 @@
         <v>12</v>
       </c>
       <c r="K102" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>24.850494580038369</v>
       </c>
       <c r="L102" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.4007675807269493</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="11"/>
-        <v>1.0057109023290656</v>
+        <f t="shared" si="16"/>
+        <v>0.58581963444569551</v>
       </c>
       <c r="N102" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.4546320470734884</v>
       </c>
       <c r="O102" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.18207496906254639</v>
       </c>
       <c r="P102" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1718651381698597</v>
       </c>
       <c r="Q102" s="5">
-        <f t="shared" si="15"/>
-        <v>0.49601291928642849</v>
+        <f t="shared" si="20"/>
+        <v>0.63890927345434867</v>
       </c>
       <c r="R102" s="5">
-        <f t="shared" si="16"/>
-        <v>0.46079556427751805</v>
+        <f t="shared" si="21"/>
+        <v>0.64322125285391385</v>
       </c>
       <c r="S102" s="5">
-        <f t="shared" si="17"/>
-        <v>4.8902418765119061E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.69631089186256701</v>
+      </c>
+      <c r="T102" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
@@ -7928,43 +8255,46 @@
         <v>13</v>
       </c>
       <c r="K103" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.687418443973154</v>
       </c>
       <c r="L103" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.4930253253744592</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="11"/>
-        <v>0.13000905567710724</v>
+        <f t="shared" si="16"/>
+        <v>-1.0931014048149115</v>
       </c>
       <c r="N103" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.3609320626822488</v>
       </c>
       <c r="O103" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.12654539195202036</v>
       </c>
       <c r="P103" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1165238608642334</v>
       </c>
       <c r="Q103" s="5">
-        <f t="shared" si="15"/>
-        <v>0.26744085439951232</v>
+        <f t="shared" si="20"/>
+        <v>0.36109737512618201</v>
       </c>
       <c r="R103" s="5">
-        <f t="shared" si="16"/>
-        <v>-9.0010139368707789E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.49464323955110862</v>
       </c>
       <c r="S103" s="5">
-        <f t="shared" si="17"/>
-        <v>-4.7421659353697292E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.95955554038998481</v>
+      </c>
+      <c r="T103" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>2</v>
       </c>
@@ -7996,43 +8326,46 @@
         <v>3</v>
       </c>
       <c r="K104" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>8.4604631555920058</v>
       </c>
       <c r="L104" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8.4822144139736597</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="11"/>
-        <v>0.30393686106008422</v>
+        <f t="shared" si="16"/>
+        <v>0.10597688060916657</v>
       </c>
       <c r="N104" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1028848668332545</v>
       </c>
       <c r="O104" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>6.7878857080736529E-2</v>
       </c>
       <c r="P104" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3787478904013177</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.36204036458559552</v>
+        <f t="shared" si="20"/>
+        <v>-0.40398899925075726</v>
       </c>
       <c r="R104" s="5">
-        <f t="shared" si="16"/>
-        <v>0.25698571321317054</v>
+        <f t="shared" si="21"/>
+        <v>0.22218713647986135</v>
       </c>
       <c r="S104" s="5">
-        <f t="shared" si="17"/>
-        <v>0.4089915124325092</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>0.28777874338006249</v>
+      </c>
+      <c r="T104" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
@@ -8064,43 +8397,46 @@
         <v>5</v>
       </c>
       <c r="K105" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.181208196770051</v>
       </c>
       <c r="L105" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.8869374086970954</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="11"/>
-        <v>6.4552781601712822E-2</v>
+        <f t="shared" si="16"/>
+        <v>-0.87401760432243181</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2478672050165325</v>
       </c>
       <c r="O105" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.10926939582609783</v>
       </c>
       <c r="P105" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2196646989977711</v>
       </c>
       <c r="Q105" s="5">
-        <f t="shared" si="15"/>
-        <v>-8.3699490995569302E-3</v>
+        <f t="shared" si="20"/>
+        <v>2.5870395672668575E-2</v>
       </c>
       <c r="R105" s="5">
-        <f t="shared" si="16"/>
-        <v>-5.917705638271812E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.43094769302919228</v>
       </c>
       <c r="S105" s="5">
-        <f t="shared" si="17"/>
-        <v>0.13209978708398787</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.4689403069659081</v>
+      </c>
+      <c r="T105" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
@@ -8132,43 +8468,46 @@
         <v>3</v>
       </c>
       <c r="K106" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>9.0874389624719747</v>
       </c>
       <c r="L106" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.710450453211827</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.10516754249808885</v>
+        <f t="shared" si="16"/>
+        <v>-0.86520807634642005</v>
       </c>
       <c r="N106" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1667991865139475</v>
       </c>
       <c r="O106" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.25419562281746516</v>
       </c>
       <c r="P106" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3843786105847335</v>
       </c>
       <c r="Q106" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.20612755285812276</v>
+        <f t="shared" si="20"/>
+        <v>-0.21448887717275683</v>
       </c>
       <c r="R106" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.31783203356034173</v>
+        <f t="shared" si="21"/>
+        <v>-0.96528187360493123</v>
       </c>
       <c r="S106" s="5">
-        <f t="shared" si="17"/>
-        <v>0.41879204392037567</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>0.3145626744312679</v>
+      </c>
+      <c r="T106" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>2</v>
       </c>
@@ -8200,43 +8539,46 @@
         <v>10</v>
       </c>
       <c r="K107" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14.24959749152932</v>
       </c>
       <c r="L107" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.5288012714046775</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="11"/>
-        <v>0.48128676072722953</v>
+        <f t="shared" si="16"/>
+        <v>-0.18973272789351214</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2959249589940036</v>
       </c>
       <c r="O107" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.12314941396445682</v>
       </c>
       <c r="P107" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1534186375765731</v>
       </c>
       <c r="Q107" s="5">
-        <f t="shared" si="15"/>
-        <v>0.10886230159743451</v>
+        <f t="shared" si="20"/>
+        <v>0.1683572482437721</v>
       </c>
       <c r="R107" s="5">
-        <f t="shared" si="16"/>
-        <v>0.35562903627577108</v>
+        <f t="shared" si="21"/>
+        <v>0.4259663166567289</v>
       </c>
       <c r="S107" s="5">
-        <f t="shared" si="17"/>
-        <v>1.6795422854023911E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.78405629279401312</v>
+      </c>
+      <c r="T107" s="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>2</v>
       </c>
@@ -8268,43 +8610,46 @@
         <v>5</v>
       </c>
       <c r="K108" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>7.9675183601435187</v>
       </c>
       <c r="L108" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.3287401576858446</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.33929150750991977</v>
+        <f t="shared" si="16"/>
+        <v>-1.3290604505994821</v>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1196624986098849</v>
       </c>
       <c r="O108" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.2554539226896605</v>
       </c>
       <c r="P108" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3172199224455658</v>
       </c>
       <c r="Q108" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.32111295180093247</v>
+        <f t="shared" si="20"/>
+        <v>-0.35424485293527036</v>
       </c>
       <c r="R108" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.32007776596835286</v>
+        <f t="shared" si="21"/>
+        <v>-0.96992114866981027</v>
       </c>
       <c r="S108" s="5">
-        <f t="shared" si="17"/>
-        <v>0.3018992102593655</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-4.8944489944014354E-3</v>
+      </c>
+      <c r="T108" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>2</v>
       </c>
@@ -8336,43 +8681,46 @@
         <v>10</v>
       </c>
       <c r="K109" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>13.489454099342144</v>
       </c>
       <c r="L109" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.556734626829674</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="11"/>
-        <v>0.59356640307847464</v>
+        <f t="shared" si="16"/>
+        <v>0.12513479137837813</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2760869677230775</v>
       </c>
       <c r="O109" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.17809555154086837</v>
       </c>
       <c r="P109" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1893890518553312</v>
       </c>
       <c r="Q109" s="5">
-        <f t="shared" si="15"/>
-        <v>6.0469437314010575E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.10953941545757101</v>
       </c>
       <c r="R109" s="5">
-        <f t="shared" si="16"/>
-        <v>0.45369335669495819</v>
+        <f t="shared" si="21"/>
+        <v>0.62854938258752502</v>
       </c>
       <c r="S109" s="5">
-        <f t="shared" si="17"/>
-        <v>7.9403609069505804E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.61295400666671795</v>
+      </c>
+      <c r="T109" s="14">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
@@ -8404,43 +8752,46 @@
         <v>0</v>
       </c>
       <c r="K110" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>14.945491048389874</v>
       </c>
       <c r="L110" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.0278481371409871</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.87569506932553998</v>
+        <f t="shared" si="16"/>
+        <v>-2.9167806407012815</v>
       </c>
       <c r="N110" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2509062862842641</v>
       </c>
       <c r="O110" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.56123237844333396</v>
       </c>
       <c r="P110" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1386401385270186</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" si="15"/>
-        <v>-9.5640378001768714E-4</v>
+        <f t="shared" si="20"/>
+        <v>3.4880994144454905E-2</v>
       </c>
       <c r="R110" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.86581142050616489</v>
+        <f t="shared" si="21"/>
+        <v>-2.0973077092996286</v>
       </c>
       <c r="S110" s="5">
-        <f t="shared" si="17"/>
-        <v>-8.9272450393573528E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.85435392554610801</v>
+      </c>
+      <c r="T110" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>2</v>
       </c>
@@ -8472,43 +8823,46 @@
         <v>8</v>
       </c>
       <c r="K111" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>66.222874790291286</v>
       </c>
       <c r="L111" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.8483204476068749</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" si="11"/>
-        <v>1.9780375760261708</v>
+        <f t="shared" si="16"/>
+        <v>1.7012988250550953</v>
       </c>
       <c r="N111" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.8720608490592983</v>
       </c>
       <c r="O111" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.17920279915304932</v>
       </c>
       <c r="P111" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1484101392744528</v>
       </c>
       <c r="Q111" s="5">
-        <f t="shared" si="15"/>
-        <v>1.5142901776344964</v>
+        <f t="shared" si="20"/>
+        <v>1.876547557494153</v>
       </c>
       <c r="R111" s="5">
-        <f t="shared" si="16"/>
-        <v>0.45566950077739332</v>
+        <f t="shared" si="21"/>
+        <v>0.63263173716082388</v>
       </c>
       <c r="S111" s="5">
-        <f t="shared" si="17"/>
-        <v>8.0778976142811595E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.80788046959988169</v>
+      </c>
+      <c r="T111" s="14">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>2</v>
       </c>
@@ -8540,43 +8894,46 @@
         <v>8</v>
       </c>
       <c r="K112" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>65.189996831533435</v>
       </c>
       <c r="L112" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.799288598424134</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="11"/>
-        <v>1.9699645827181373</v>
+        <f t="shared" si="16"/>
+        <v>1.6967589431652574</v>
       </c>
       <c r="N112" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.8658555507633194</v>
       </c>
       <c r="O112" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.18377842236453232</v>
       </c>
       <c r="P112" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1477769794331805</v>
       </c>
       <c r="Q112" s="5">
-        <f t="shared" si="15"/>
-        <v>1.4991529515830078</v>
+        <f t="shared" si="20"/>
+        <v>1.8581494146289383</v>
       </c>
       <c r="R112" s="5">
-        <f t="shared" si="16"/>
-        <v>0.46383577779921936</v>
+        <f t="shared" si="21"/>
+        <v>0.64950178152813309</v>
       </c>
       <c r="S112" s="5">
-        <f t="shared" si="17"/>
-        <v>6.9758533359100816E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.81089225299181411</v>
+      </c>
+      <c r="T112" s="14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>2</v>
       </c>
@@ -8608,43 +8965,46 @@
         <v>11</v>
       </c>
       <c r="K113" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>42.888451302290719</v>
       </c>
       <c r="L113" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.8773370254381487</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="11"/>
-        <v>-1.7140364006526403</v>
+        <f t="shared" si="16"/>
+        <v>-6.613654820885567</v>
       </c>
       <c r="N113" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.6505825138310055</v>
       </c>
       <c r="O113" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.62316543339643382</v>
       </c>
       <c r="P113" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.16033902809874651</v>
       </c>
       <c r="Q113" s="5">
-        <f t="shared" si="15"/>
-        <v>0.97401516329222593</v>
+        <f t="shared" si="20"/>
+        <v>1.2198845158929774</v>
       </c>
       <c r="R113" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.97634554016132402</v>
+        <f t="shared" si="21"/>
+        <v>-2.3256511144645753</v>
       </c>
       <c r="S113" s="5">
-        <f t="shared" si="17"/>
-        <v>-1.7117060237835422</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-5.5078882223139694</v>
+      </c>
+      <c r="T113" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>2</v>
       </c>
@@ -8676,43 +9036,46 @@
         <v>0</v>
       </c>
       <c r="K114" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-18.905411266818071</v>
       </c>
       <c r="L114" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.7345515827535793</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="11"/>
-        <v>1.0342575862279362</v>
+        <f t="shared" si="16"/>
+        <v>1.2988655756679641</v>
       </c>
       <c r="N114" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1337673224256357</v>
       </c>
       <c r="O114" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.64633041487259146</v>
       </c>
       <c r="P114" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1619211591364542</v>
       </c>
       <c r="Q114" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.28670559596861128</v>
+        <f t="shared" si="20"/>
+        <v>-0.31242533817978624</v>
       </c>
       <c r="R114" s="5">
-        <f t="shared" si="16"/>
-        <v>1.2893687234182545</v>
+        <f t="shared" si="21"/>
+        <v>2.3549028329554313</v>
       </c>
       <c r="S114" s="5">
-        <f t="shared" si="17"/>
-        <v>3.1594458778293054E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.74361191910768099</v>
+      </c>
+      <c r="T114" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>2</v>
       </c>
@@ -8744,43 +9107,46 @@
         <v>0</v>
       </c>
       <c r="K115" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>44.792682843333175</v>
       </c>
       <c r="L115" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2.3817012778567861</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="11"/>
-        <v>1.5038698137670683</v>
+        <f t="shared" si="16"/>
+        <v>1.2114953055632598</v>
       </c>
       <c r="N115" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.698327839465168</v>
       </c>
       <c r="O115" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.2347965969255899E-2</v>
       </c>
       <c r="P115" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2598043428827248</v>
       </c>
       <c r="Q115" s="5">
-        <f t="shared" si="15"/>
-        <v>1.0904852752116794</v>
+        <f t="shared" si="20"/>
+        <v>1.3614450469528232</v>
       </c>
       <c r="R115" s="5">
-        <f t="shared" si="16"/>
-        <v>0.21141982638333012</v>
+        <f t="shared" si="21"/>
+        <v>0.12805629443265881</v>
       </c>
       <c r="S115" s="5">
-        <f t="shared" si="17"/>
-        <v>0.20196471217205894</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.27800603582222239</v>
+      </c>
+      <c r="T115" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -8812,43 +9178,46 @@
         <v>4</v>
       </c>
       <c r="K116" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3.3244044635752639</v>
       </c>
       <c r="L116" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.9510706761298766</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" si="11"/>
-        <v>-1.0634326146382411</v>
+        <f t="shared" si="16"/>
+        <v>-2.1568224317941582</v>
       </c>
       <c r="N116" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.7766756410147051</v>
       </c>
       <c r="O116" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.15600235342043403</v>
       </c>
       <c r="P116" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.279902608915404</v>
       </c>
       <c r="Q116" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.1577962744177352</v>
+        <f t="shared" si="20"/>
+        <v>-1.3711695688697816</v>
       </c>
       <c r="R116" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.14258302320420929</v>
+        <f t="shared" si="21"/>
+        <v>-0.60324926411430579</v>
       </c>
       <c r="S116" s="5">
-        <f t="shared" si="17"/>
-        <v>0.23694668298370339</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.18240359881007059</v>
+      </c>
+      <c r="T116" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -8880,43 +9249,46 @@
         <v>3</v>
       </c>
       <c r="K117" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3.3416923894665747</v>
       </c>
       <c r="L117" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.6461229234889929</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="11"/>
-        <v>-1.0718303074928273</v>
+        <f t="shared" si="16"/>
+        <v>-2.1696147499915739</v>
       </c>
       <c r="N117" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.77264902861811502</v>
       </c>
       <c r="O117" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.15201458978142224</v>
       </c>
       <c r="P117" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2766322204459013</v>
       </c>
       <c r="Q117" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.1676188065768109</v>
+        <f t="shared" si="20"/>
+        <v>-1.3831081069708935</v>
       </c>
       <c r="R117" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.13546592001004559</v>
+        <f t="shared" si="21"/>
+        <v>-0.5885466222211444</v>
       </c>
       <c r="S117" s="5">
-        <f t="shared" si="17"/>
-        <v>0.23125441909402941</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.19796002079953604</v>
+      </c>
+      <c r="T117" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
@@ -8948,43 +9320,46 @@
         <v>3</v>
       </c>
       <c r="K118" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3.2848741811864492</v>
       </c>
       <c r="L118" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4.684153544399936</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="11"/>
-        <v>-1.1145602361559117</v>
+        <f t="shared" si="16"/>
+        <v>-2.227887930123631</v>
       </c>
       <c r="N118" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.76039844564625636</v>
       </c>
       <c r="O118" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.16306394146094569</v>
       </c>
       <c r="P118" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2805817585063863</v>
       </c>
       <c r="Q118" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.1975029209033874</v>
+        <f t="shared" si="20"/>
+        <v>-1.4194299669279691</v>
       </c>
       <c r="R118" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.15518608982213153</v>
+        <f t="shared" si="21"/>
+        <v>-0.6292849095424794</v>
       </c>
       <c r="S118" s="5">
-        <f t="shared" si="17"/>
-        <v>0.23812877456960715</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.17917305365318251</v>
+      </c>
+      <c r="T118" s="14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>2</v>
       </c>
@@ -9016,43 +9391,46 @@
         <v>0</v>
       </c>
       <c r="K119" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.7342299350788979</v>
       </c>
       <c r="L119" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31.350490907914608</v>
       </c>
       <c r="M119" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.92786981134902657</v>
+        <f t="shared" si="16"/>
+        <v>-2.3713711450368891</v>
       </c>
       <c r="N119" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.89257566119334408</v>
       </c>
       <c r="O119" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2.4976572050632445E-2</v>
       </c>
       <c r="P119" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.0609998571485209</v>
       </c>
       <c r="Q119" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.87506936571247007</v>
+        <f t="shared" si="20"/>
+        <v>-1.0275365914334387</v>
       </c>
       <c r="R119" s="5">
-        <f t="shared" si="16"/>
-        <v>9.1263335687787869E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.12016518074339773</v>
       </c>
       <c r="S119" s="5">
-        <f t="shared" si="17"/>
-        <v>-0.14406378132434439</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-1.223669372860053</v>
+      </c>
+      <c r="T119" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>2</v>
       </c>
@@ -9084,43 +9462,46 @@
         <v>0</v>
       </c>
       <c r="K120" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>5.9844517171950091</v>
       </c>
       <c r="L120" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>31.534595351261032</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.83528680468263294</v>
+        <f t="shared" si="16"/>
+        <v>-2.1810959910301992</v>
       </c>
       <c r="N120" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.90927638287938328</v>
       </c>
       <c r="O120" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-2.4200833087439279E-2</v>
       </c>
       <c r="P120" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.0899900126578754</v>
       </c>
       <c r="Q120" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.83432956766788713</v>
+        <f t="shared" si="20"/>
+        <v>-0.97802047651418456</v>
       </c>
       <c r="R120" s="5">
-        <f t="shared" si="16"/>
-        <v>9.2647824527288758E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.1173050783875751</v>
       </c>
       <c r="S120" s="5">
-        <f t="shared" si="17"/>
-        <v>-9.3605061542034504E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-1.0857704361284397</v>
+      </c>
+      <c r="T120" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>2</v>
       </c>
@@ -9152,43 +9533,46 @@
         <v>0</v>
       </c>
       <c r="K121" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-6.0538938214162306</v>
       </c>
       <c r="L121" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>42.069751098960303</v>
       </c>
       <c r="M121" s="5">
-        <f t="shared" si="11"/>
-        <v>0.79706062986707349</v>
+        <f t="shared" si="16"/>
+        <v>2.8237108955229067</v>
       </c>
       <c r="N121" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.57183299622420247</v>
       </c>
       <c r="O121" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.56826643230050322</v>
       </c>
       <c r="P121" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.8932494981520878</v>
       </c>
       <c r="Q121" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.6574901281665497</v>
+        <f t="shared" si="20"/>
+        <v>-1.9785093072650037</v>
       </c>
       <c r="R121" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1500451651517398</v>
+        <f t="shared" si="21"/>
+        <v>2.06708567917953</v>
       </c>
       <c r="S121" s="5">
-        <f t="shared" si="17"/>
-        <v>1.3045055928818834</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2.7351345236083802</v>
+      </c>
+      <c r="T121" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>2</v>
       </c>
@@ -9220,43 +9604,46 @@
         <v>5</v>
       </c>
       <c r="K122" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-6.1315385628378145</v>
       </c>
       <c r="L122" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>12.21214642849044</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" si="11"/>
-        <v>0.801969191734901</v>
+        <f t="shared" si="16"/>
+        <v>2.8325956229499529</v>
       </c>
       <c r="N122" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.57315584379473616</v>
       </c>
       <c r="O122" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.56795822625555403</v>
       </c>
       <c r="P122" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.894531663802387</v>
       </c>
       <c r="Q122" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.6542631692434295</v>
+        <f t="shared" si="20"/>
+        <v>-1.9745871850025893</v>
       </c>
       <c r="R122" s="5">
-        <f t="shared" si="16"/>
-        <v>1.1494950988926693</v>
+        <f t="shared" si="21"/>
+        <v>2.065949342245248</v>
       </c>
       <c r="S122" s="5">
-        <f t="shared" si="17"/>
-        <v>1.3067372620856612</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>2.7412334657072943</v>
+      </c>
+      <c r="T122" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>2</v>
       </c>
@@ -9288,43 +9675,46 @@
         <v>2</v>
       </c>
       <c r="K123" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>6.1787663217619233</v>
       </c>
       <c r="L123" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7.6017326384498203</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.90095286956026588</v>
+        <f t="shared" si="16"/>
+        <v>-2.3643175982206088</v>
       </c>
       <c r="N123" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.91255384941445383</v>
       </c>
       <c r="O123" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-3.1230999365605413E-2</v>
       </c>
       <c r="P123" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.0548779753773039</v>
       </c>
       <c r="Q123" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.82633450450554058</v>
+        <f t="shared" si="20"/>
+        <v>-0.9683030874907973</v>
       </c>
       <c r="R123" s="5">
-        <f t="shared" si="16"/>
-        <v>8.0100837443009845E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.143224873689904</v>
       </c>
       <c r="S123" s="5">
-        <f t="shared" si="17"/>
-        <v>-0.15471920249773519</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-1.2527896370399074</v>
+      </c>
+      <c r="T123" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
@@ -9356,43 +9746,46 @@
         <v>7</v>
       </c>
       <c r="K124" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-6.1178054371933506</v>
       </c>
       <c r="L124" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.7309476389005458</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" si="11"/>
-        <v>0.19497797544032813</v>
+        <f t="shared" si="16"/>
+        <v>-7.2592409070968367E-2</v>
       </c>
       <c r="N124" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0480138954098404</v>
       </c>
       <c r="O124" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.13836043098764167</v>
       </c>
       <c r="P124" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3207790850517103</v>
       </c>
       <c r="Q124" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.49589280140385966</v>
+        <f t="shared" si="20"/>
+        <v>-0.56667641945991654</v>
       </c>
       <c r="R124" s="5">
-        <f t="shared" si="16"/>
-        <v>0.3827766778218018</v>
+        <f t="shared" si="21"/>
+        <v>0.48204841087485301</v>
       </c>
       <c r="S124" s="5">
-        <f t="shared" si="17"/>
-        <v>0.30809409902238599</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>1.2035599514095156E-2</v>
+      </c>
+      <c r="T124" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>2</v>
       </c>
@@ -9424,43 +9817,46 @@
         <v>7</v>
       </c>
       <c r="K125" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-7.5893727651844003</v>
       </c>
       <c r="L125" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>3.739350654202275</v>
       </c>
       <c r="M125" s="5">
-        <f t="shared" si="11"/>
-        <v>0.16306336365632573</v>
+        <f t="shared" si="16"/>
+        <v>-7.775855974570739E-2</v>
       </c>
       <c r="N125" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.0241675682606606</v>
       </c>
       <c r="O125" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0.14358454189553038</v>
       </c>
       <c r="P125" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3305073760254045</v>
       </c>
       <c r="Q125" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.55406361404453441</v>
+        <f t="shared" si="20"/>
+        <v>-0.63737860213912212</v>
       </c>
       <c r="R125" s="5">
-        <f t="shared" si="16"/>
-        <v>0.39210033383427645</v>
+        <f t="shared" si="21"/>
+        <v>0.50130938992021079</v>
       </c>
       <c r="S125" s="5">
-        <f t="shared" si="17"/>
-        <v>0.3250266438665837</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>5.8310652473203932E-2</v>
+      </c>
+      <c r="T125" s="14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>2</v>
       </c>
@@ -9492,43 +9888,46 @@
         <v>4</v>
       </c>
       <c r="K126" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>4.1673334750210271</v>
       </c>
       <c r="L126" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.5086985825972641</v>
       </c>
       <c r="M126" s="5">
-        <f t="shared" si="11"/>
-        <v>-1.5590051565043586</v>
+        <f t="shared" si="16"/>
+        <v>-4.0139485055851871</v>
       </c>
       <c r="N126" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>0.89505023693648822</v>
       </c>
       <c r="O126" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.1017600207430152</v>
       </c>
       <c r="P126" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.77365698553233053</v>
       </c>
       <c r="Q126" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.86903287711533417</v>
+        <f t="shared" si="20"/>
+        <v>-1.0201997002991858</v>
       </c>
       <c r="R126" s="5">
-        <f t="shared" si="16"/>
-        <v>-4.5774808348974357E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.40326108402160499</v>
       </c>
       <c r="S126" s="5">
-        <f t="shared" si="17"/>
-        <v>-0.64419747104004998</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-2.5904877212643966</v>
+      </c>
+      <c r="T126" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>2</v>
       </c>
@@ -9560,43 +9959,46 @@
         <v>26</v>
       </c>
       <c r="K127" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>22.9287617827868</v>
       </c>
       <c r="L127" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>1.722383632514298</v>
       </c>
       <c r="M127" s="5">
-        <f t="shared" si="11"/>
-        <v>0.99830345596800318</v>
+        <f t="shared" si="16"/>
+        <v>0.54683929672072384</v>
       </c>
       <c r="N127" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.5093849856873298</v>
       </c>
       <c r="O127" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>2.7573755022848832E-2</v>
       </c>
       <c r="P127" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2492958913143219</v>
       </c>
       <c r="Q127" s="5">
-        <f t="shared" si="15"/>
-        <v>0.62957742646218828</v>
+        <f t="shared" si="20"/>
+        <v>0.8012467371602553</v>
       </c>
       <c r="R127" s="5">
-        <f t="shared" si="16"/>
-        <v>0.18505176813402552</v>
+        <f t="shared" si="21"/>
+        <v>7.3584677641229002E-2</v>
       </c>
       <c r="S127" s="5">
-        <f t="shared" si="17"/>
-        <v>0.18367426137178935</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-0.3279921180807604</v>
+      </c>
+      <c r="T127" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>2</v>
       </c>
@@ -9628,43 +10030,46 @@
         <v>4</v>
       </c>
       <c r="K128" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.043094567010513</v>
       </c>
       <c r="L128" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>5.3756008576237466</v>
       </c>
       <c r="M128" s="5">
-        <f t="shared" si="11"/>
-        <v>0.13725972408146331</v>
+        <f t="shared" si="16"/>
+        <v>-0.54339291416019964</v>
       </c>
       <c r="N128" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2201217032984641</v>
       </c>
       <c r="O128" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.13380921645337807</v>
       </c>
       <c r="P128" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3254857621019733</v>
       </c>
       <c r="Q128" s="5">
-        <f t="shared" si="15"/>
-        <v>-7.6052421623162642E-2</v>
+        <f t="shared" si="20"/>
+        <v>-5.6392483584380995E-2</v>
       </c>
       <c r="R128" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.10297414457069828</v>
+        <f t="shared" si="21"/>
+        <v>-0.52142451850491822</v>
       </c>
       <c r="S128" s="5">
-        <f t="shared" si="17"/>
-        <v>0.31628629027532423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>3.4424087929099609E-2</v>
+      </c>
+      <c r="T128" s="14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
@@ -9696,43 +10101,46 @@
         <v>3</v>
       </c>
       <c r="K129" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>10.020897382016841</v>
       </c>
       <c r="L129" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.1787883196554452</v>
       </c>
       <c r="M129" s="5">
-        <f t="shared" si="11"/>
-        <v>-8.7333225755348298E-4</v>
+        <f t="shared" si="16"/>
+        <v>-0.76796088903778437</v>
       </c>
       <c r="N129" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.1838968158245227</v>
       </c>
       <c r="O129" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.14963446503502151</v>
       </c>
       <c r="P129" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3131206480461279</v>
       </c>
       <c r="Q129" s="5">
-        <f t="shared" si="15"/>
-        <v>-0.16441953698619488</v>
+        <f t="shared" si="20"/>
+        <v>-0.16379596738689065</v>
       </c>
       <c r="R129" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.13121802696307591</v>
+        <f t="shared" si="21"/>
+        <v>-0.5797712471048666</v>
       </c>
       <c r="S129" s="5">
-        <f t="shared" si="17"/>
-        <v>0.29476423169171728</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-2.4393674546027182E-2</v>
+      </c>
+      <c r="T129" s="14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
@@ -9764,43 +10172,46 @@
         <v>3</v>
       </c>
       <c r="K130" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>11.952133038871715</v>
       </c>
       <c r="L130" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6.5307730676341089</v>
       </c>
       <c r="M130" s="5">
-        <f t="shared" si="11"/>
-        <v>0.16299573875216639</v>
+        <f t="shared" si="16"/>
+        <v>-0.56355127465086485</v>
       </c>
       <c r="N130" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>1.2447698313328563</v>
       </c>
       <c r="O130" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>-0.13443813744029295</v>
       </c>
       <c r="P130" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3063720801539924</v>
       </c>
       <c r="Q130" s="5">
-        <f t="shared" si="15"/>
-        <v>-1.5925693139472036E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.6686965510067368E-2</v>
       </c>
       <c r="R130" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.10409660216097756</v>
+        <f t="shared" si="21"/>
+        <v>-0.52374331191565182</v>
       </c>
       <c r="S130" s="5">
-        <f t="shared" si="17"/>
-        <v>0.283018034052616</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-5.649492824528031E-2</v>
+      </c>
+      <c r="T130" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>2</v>
       </c>
@@ -9832,43 +10243,46 @@
         <v>4</v>
       </c>
       <c r="K131" s="13">
-        <f t="shared" ref="K131:K136" si="18">D131-(0.87*F131)</f>
+        <f t="shared" ref="K131:K136" si="23">D131-(0.87*F131)</f>
         <v>11.204166102827855</v>
       </c>
       <c r="L131" s="13">
-        <f t="shared" ref="L131:L136" si="19">(D131+E131+H131)/(G131+J131)</f>
+        <f t="shared" ref="L131:L136" si="24">(D131+E131+H131)/(G131+J131)</f>
         <v>5.3270875302082823</v>
       </c>
       <c r="M131" s="5">
-        <f t="shared" ref="M131:M136" si="20">SUM(Q131:S131)</f>
-        <v>0.10899390655982405</v>
+        <f t="shared" ref="M131:M136" si="25">SUM(Q131:S131)</f>
+        <v>-0.60731814561646214</v>
       </c>
       <c r="N131" s="5">
-        <f t="shared" ref="N131:N136" si="21">LOG(D131)</f>
+        <f t="shared" ref="N131:N136" si="26">LOG(D131)</f>
         <v>1.2178160062410686</v>
       </c>
       <c r="O131" s="5">
-        <f t="shared" ref="O131:O136" si="22">LOG(E131)</f>
+        <f t="shared" ref="O131:O136" si="27">LOG(E131)</f>
         <v>-0.13783035932983131</v>
       </c>
       <c r="P131" s="5">
-        <f t="shared" ref="P131:P136" si="23">LOG(H131)</f>
+        <f t="shared" ref="P131:P136" si="28">LOG(H131)</f>
         <v>1.3166008434816538</v>
       </c>
       <c r="Q131" s="5">
-        <f t="shared" ref="Q131:Q136" si="24">STANDARDIZE(N131,AVERAGE(N$2:N$136), _xlfn.STDEV.S(N$2:N$136))</f>
-        <v>-8.1676946972196407E-2</v>
+        <f t="shared" si="20"/>
+        <v>-6.3228664835064563E-2</v>
       </c>
       <c r="R131" s="5">
-        <f t="shared" ref="R131:R136" si="25">STANDARDIZE(O131,AVERAGE(O$2:O$136), _xlfn.STDEV.S(O$2:O$136))</f>
-        <v>-0.11015082087373164</v>
+        <f t="shared" si="21"/>
+        <v>-0.53625022761549634</v>
       </c>
       <c r="S131" s="5">
-        <f t="shared" ref="S131:S136" si="26">STANDARDIZE(P131,AVERAGE(P$2:P$136), _xlfn.STDEV.S(P$2:P$136))</f>
-        <v>0.30082167440575208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>-7.8392531659011808E-3</v>
+      </c>
+      <c r="T131" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
@@ -9900,43 +10314,46 @@
         <v>4</v>
       </c>
       <c r="K132" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>10.664481660975524</v>
       </c>
       <c r="L132" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.3771675285644722</v>
       </c>
       <c r="M132" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.56163185098649271</v>
+      </c>
+      <c r="N132" s="5">
+        <f t="shared" si="26"/>
+        <v>1.2105923469024227</v>
+      </c>
+      <c r="O132" s="5">
+        <f t="shared" si="27"/>
+        <v>-0.13004342008942082</v>
+      </c>
+      <c r="P132" s="5">
+        <f t="shared" si="28"/>
+        <v>1.3246722808699427</v>
+      </c>
+      <c r="Q132" s="5">
         <f t="shared" si="20"/>
-        <v>0.11931882748788805</v>
-      </c>
-      <c r="N132" s="5">
+        <v>-8.4646155209084598E-2</v>
+      </c>
+      <c r="R132" s="5">
         <f t="shared" si="21"/>
-        <v>1.2105923469024227</v>
-      </c>
-      <c r="O132" s="5">
+        <v>-0.50754025644881684</v>
+      </c>
+      <c r="S132" s="5">
         <f t="shared" si="22"/>
-        <v>-0.13004342008942082</v>
-      </c>
-      <c r="P132" s="5">
-        <f t="shared" si="23"/>
-        <v>1.3246722808699427</v>
-      </c>
-      <c r="Q132" s="5">
-        <f t="shared" si="24"/>
-        <v>-9.9298366461230123E-2</v>
-      </c>
-      <c r="R132" s="5">
-        <f t="shared" si="25"/>
-        <v>-9.6253194244481907E-2</v>
-      </c>
-      <c r="S132" s="5">
-        <f t="shared" si="26"/>
-        <v>0.31487038819360008</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.0554560671408708E-2</v>
+      </c>
+      <c r="T132" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
@@ -9968,43 +10385,46 @@
         <v>2</v>
       </c>
       <c r="K133" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>11.056843986233011</v>
       </c>
       <c r="L133" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.7728100208316624</v>
       </c>
       <c r="M133" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.57250765387909142</v>
+      </c>
+      <c r="N133" s="5">
+        <f t="shared" si="26"/>
+        <v>1.216885581333875</v>
+      </c>
+      <c r="O133" s="5">
+        <f t="shared" si="27"/>
+        <v>-0.14109441873027628</v>
+      </c>
+      <c r="P133" s="5">
+        <f t="shared" si="28"/>
+        <v>1.3270288667778565</v>
+      </c>
+      <c r="Q133" s="5">
         <f t="shared" si="20"/>
-        <v>0.11904920389684712</v>
-      </c>
-      <c r="N133" s="5">
+        <v>-6.5987289731307436E-2</v>
+      </c>
+      <c r="R133" s="5">
         <f t="shared" si="21"/>
-        <v>1.216885581333875</v>
-      </c>
-      <c r="O133" s="5">
+        <v>-0.54828461601637002</v>
+      </c>
+      <c r="S133" s="5">
         <f t="shared" si="22"/>
-        <v>-0.14109441873027628</v>
-      </c>
-      <c r="P133" s="5">
-        <f t="shared" si="23"/>
-        <v>1.3270288667778565</v>
-      </c>
-      <c r="Q133" s="5">
-        <f t="shared" si="24"/>
-        <v>-8.3946628697771225E-2</v>
-      </c>
-      <c r="R133" s="5">
-        <f t="shared" si="25"/>
-        <v>-0.11597630344686721</v>
-      </c>
-      <c r="S133" s="5">
-        <f t="shared" si="26"/>
-        <v>0.31897213604148555</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.1764251868585969E-2</v>
+      </c>
+      <c r="T133" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>2</v>
       </c>
@@ -10036,43 +10456,46 @@
         <v>4</v>
       </c>
       <c r="K134" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>11.393882545269491</v>
       </c>
       <c r="L134" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.5619715124456413</v>
       </c>
       <c r="M134" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.53452757816768071</v>
+      </c>
+      <c r="N134" s="5">
+        <f t="shared" si="26"/>
+        <v>1.2259171324370255</v>
+      </c>
+      <c r="O134" s="5">
+        <f t="shared" si="27"/>
+        <v>-0.13682892278696832</v>
+      </c>
+      <c r="P134" s="5">
+        <f t="shared" si="28"/>
+        <v>1.326077740021909</v>
+      </c>
+      <c r="Q134" s="5">
         <f t="shared" si="20"/>
-        <v>0.14703810212967267</v>
-      </c>
-      <c r="N134" s="5">
+        <v>-3.920956534730359E-2</v>
+      </c>
+      <c r="R134" s="5">
         <f t="shared" si="21"/>
-        <v>1.2259171324370255</v>
-      </c>
-      <c r="O134" s="5">
+        <v>-0.53255799201647547</v>
+      </c>
+      <c r="S134" s="5">
         <f t="shared" si="22"/>
-        <v>-0.13682892278696832</v>
-      </c>
-      <c r="P134" s="5">
-        <f t="shared" si="23"/>
-        <v>1.326077740021909</v>
-      </c>
-      <c r="Q134" s="5">
-        <f t="shared" si="24"/>
-        <v>-6.191503180700577E-2</v>
-      </c>
-      <c r="R134" s="5">
-        <f t="shared" si="25"/>
-        <v>-0.10836352155933979</v>
-      </c>
-      <c r="S134" s="5">
-        <f t="shared" si="26"/>
-        <v>0.31731665549601823</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.7239979196098304E-2</v>
+      </c>
+      <c r="T134" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>2</v>
       </c>
@@ -10104,43 +10527,46 @@
         <v>4</v>
       </c>
       <c r="K135" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>11.391355329195509</v>
       </c>
       <c r="L135" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.5409272070096121</v>
       </c>
       <c r="M135" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.57481509755767102</v>
+      </c>
+      <c r="N135" s="5">
+        <f t="shared" si="26"/>
+        <v>1.2231194101693865</v>
+      </c>
+      <c r="O135" s="5">
+        <f t="shared" si="27"/>
+        <v>-0.14072653837963944</v>
+      </c>
+      <c r="P135" s="5">
+        <f t="shared" si="28"/>
+        <v>1.3223730561663813</v>
+      </c>
+      <c r="Q135" s="5">
         <f t="shared" si="20"/>
-        <v>0.12680894071333693</v>
-      </c>
-      <c r="N135" s="5">
+        <v>-4.7504556421394235E-2</v>
+      </c>
+      <c r="R135" s="5">
         <f t="shared" si="21"/>
-        <v>1.2231194101693865</v>
-      </c>
-      <c r="O135" s="5">
+        <v>-0.54692826354802648</v>
+      </c>
+      <c r="S135" s="5">
         <f t="shared" si="22"/>
-        <v>-0.14072653837963944</v>
-      </c>
-      <c r="P135" s="5">
-        <f t="shared" si="23"/>
-        <v>1.3223730561663813</v>
-      </c>
-      <c r="Q135" s="5">
-        <f t="shared" si="24"/>
-        <v>-6.8739805149808292E-2</v>
-      </c>
-      <c r="R135" s="5">
-        <f t="shared" si="25"/>
-        <v>-0.11531973433806307</v>
-      </c>
-      <c r="S135" s="5">
-        <f t="shared" si="26"/>
-        <v>0.31086848020120827</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.9617722411749791E-2</v>
+      </c>
+      <c r="T135" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -10172,40 +10598,43 @@
         <v>0</v>
       </c>
       <c r="K136" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>12.124073079078046</v>
       </c>
       <c r="L136" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>23.859619911704453</v>
       </c>
       <c r="M136" s="5">
+        <f t="shared" si="25"/>
+        <v>-0.95316905707883759</v>
+      </c>
+      <c r="N136" s="5">
+        <f t="shared" si="26"/>
+        <v>1.1641106136896753</v>
+      </c>
+      <c r="O136" s="5">
+        <f t="shared" si="27"/>
+        <v>-0.11211753037365649</v>
+      </c>
+      <c r="P136" s="5">
+        <f t="shared" si="28"/>
+        <v>1.2574384043419904</v>
+      </c>
+      <c r="Q136" s="5">
         <f t="shared" si="20"/>
-        <v>-7.9099604162638865E-2</v>
-      </c>
-      <c r="N136" s="5">
+        <v>-0.22246025011328882</v>
+      </c>
+      <c r="R136" s="5">
         <f t="shared" si="21"/>
-        <v>1.1641106136896753</v>
-      </c>
-      <c r="O136" s="5">
+        <v>-0.44144859180529755</v>
+      </c>
+      <c r="S136" s="5">
         <f t="shared" si="22"/>
-        <v>-0.11211753037365649</v>
-      </c>
-      <c r="P136" s="5">
-        <f t="shared" si="23"/>
-        <v>1.2574384043419904</v>
-      </c>
-      <c r="Q136" s="5">
-        <f t="shared" si="24"/>
-        <v>-0.21268606667256276</v>
-      </c>
-      <c r="R136" s="5">
-        <f t="shared" si="25"/>
-        <v>-6.4260223119967597E-2</v>
-      </c>
-      <c r="S136" s="5">
-        <f t="shared" si="26"/>
-        <v>0.19784668562989147</v>
+        <v>-0.28926021516025119</v>
+      </c>
+      <c r="T136" s="15" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
